--- a/database/industries/lastic/pekavir/cost/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/cost/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\lastic\pekavir\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E0FC44-F92B-4198-9F0F-F0787F68C422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -148,6 +149,33 @@
   </si>
   <si>
     <t>مقدار موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مبلغ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>مبلغ موجودی پایان دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>کیلوگرم / ریال</t>
+  </si>
+  <si>
+    <t>نرخ خرید طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ مصرف طی دوره</t>
+  </si>
+  <si>
+    <t>نرخ موجودی پایان دوره</t>
   </si>
   <si>
     <t>هزینه سربار</t>
@@ -243,7 +271,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,7 +441,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -425,7 +453,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -472,6 +500,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -507,6 +552,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -658,17 +720,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -683,7 +745,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -700,7 +762,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -717,7 +779,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -732,7 +794,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -749,7 +811,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,7 +828,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,7 +843,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -818,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -833,7 +895,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
@@ -870,7 +932,7 @@
         <v>4691247</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -907,7 +969,7 @@
         <v>346965</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
@@ -944,7 +1006,7 @@
         <v>744719</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
@@ -981,7 +1043,7 @@
         <v>5782931</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1018,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1117,7 @@
         <v>5782931</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
@@ -1092,7 +1154,7 @@
         <v>-52089</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1228,7 @@
         <v>5730842</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
@@ -1203,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1302,7 @@
         <v>-243728</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1277,7 +1339,7 @@
         <v>5487114</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1314,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
@@ -1351,7 +1413,7 @@
         <v>5487114</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1366,7 +1428,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1381,7 +1443,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1396,7 +1458,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1433,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1448,7 +1510,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1487,7 +1549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1526,7 +1588,7 @@
         <v>734087</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1565,7 +1627,7 @@
         <v>1284219</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1666,7 @@
         <v>723465</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1643,7 +1705,7 @@
         <v>117355</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1682,7 +1744,7 @@
         <v>742100</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
@@ -1721,7 +1783,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +1820,7 @@
         <v>3601226</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -1781,7 +1843,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>36</v>
       </c>
@@ -1804,7 +1866,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>37</v>
       </c>
@@ -1827,7 +1889,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>37</v>
       </c>
@@ -1850,7 +1912,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>38</v>
       </c>
@@ -1873,7 +1935,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>17</v>
       </c>
@@ -1892,7 +1954,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1907,7 +1969,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1922,7 +1984,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1937,7 +1999,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>39</v>
       </c>
@@ -1974,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1989,7 +2051,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>29</v>
       </c>
@@ -2028,7 +2090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>32</v>
       </c>
@@ -2067,7 +2129,7 @@
         <v>1346828</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>34</v>
       </c>
@@ -2106,7 +2168,7 @@
         <v>852368</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>35</v>
       </c>
@@ -2145,7 +2207,7 @@
         <v>2412960</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>36</v>
       </c>
@@ -2184,7 +2246,7 @@
         <v>1518300</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>37</v>
       </c>
@@ -2223,7 +2285,7 @@
         <v>2526300</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
@@ -2262,7 +2324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +2361,7 @@
         <v>8656756</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2384,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2407,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>37</v>
       </c>
@@ -2368,7 +2430,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>37</v>
       </c>
@@ -2391,7 +2453,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>38</v>
       </c>
@@ -2414,7 +2476,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>17</v>
       </c>
@@ -2433,7 +2495,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2448,7 +2510,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2463,7 +2525,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2478,7 +2540,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>41</v>
       </c>
@@ -2515,7 +2577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2530,7 +2592,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>29</v>
       </c>
@@ -2569,7 +2631,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>32</v>
       </c>
@@ -2608,7 +2670,7 @@
         <v>1068125</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>34</v>
       </c>
@@ -2647,7 +2709,7 @@
         <v>1315584</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>35</v>
       </c>
@@ -2686,7 +2748,7 @@
         <v>2363990</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>36</v>
       </c>
@@ -2725,7 +2787,7 @@
         <v>1406195</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>37</v>
       </c>
@@ -2764,7 +2826,7 @@
         <v>2105030</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>38</v>
       </c>
@@ -2803,7 +2865,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>17</v>
       </c>
@@ -2840,7 +2902,7 @@
         <v>8258924</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>36</v>
       </c>
@@ -2863,7 +2925,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>36</v>
       </c>
@@ -2886,7 +2948,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>37</v>
       </c>
@@ -2909,7 +2971,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>37</v>
       </c>
@@ -2932,7 +2994,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>38</v>
       </c>
@@ -2955,7 +3017,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>17</v>
       </c>
@@ -2974,7 +3036,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2989,7 +3051,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3004,7 +3066,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3019,7 +3081,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>42</v>
       </c>
@@ -3056,7 +3118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3071,7 +3133,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>29</v>
       </c>
@@ -3110,7 +3172,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>32</v>
       </c>
@@ -3149,7 +3211,7 @@
         <v>1012790</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>34</v>
       </c>
@@ -3188,7 +3250,7 @@
         <v>821003</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>35</v>
       </c>
@@ -3227,7 +3289,7 @@
         <v>772435</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>36</v>
       </c>
@@ -3266,7 +3328,7 @@
         <v>229460</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>37</v>
       </c>
@@ -3305,7 +3367,7 @@
         <v>1163370</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>38</v>
       </c>
@@ -3344,7 +3406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>17</v>
       </c>
@@ -3381,7 +3443,7 @@
         <v>3999058</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>36</v>
       </c>
@@ -3404,7 +3466,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>36</v>
       </c>
@@ -3427,7 +3489,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>37</v>
       </c>
@@ -3450,7 +3512,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>37</v>
       </c>
@@ -3473,7 +3535,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>38</v>
       </c>
@@ -3496,7 +3558,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>17</v>
       </c>
@@ -3515,7 +3577,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3530,7 +3592,7 @@
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3545,7 +3607,7 @@
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3560,7 +3622,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>43</v>
       </c>
@@ -3597,7 +3659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3612,429 +3674,399 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C105" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9">
-        <v>0</v>
-      </c>
-      <c r="G105" s="9">
-        <v>6212</v>
-      </c>
-      <c r="H105" s="9">
-        <v>1865</v>
-      </c>
-      <c r="I105" s="9">
-        <v>2181</v>
-      </c>
-      <c r="J105" s="9">
-        <v>3777</v>
-      </c>
-      <c r="K105" s="9">
-        <v>3378</v>
-      </c>
-      <c r="L105" s="9">
-        <v>3517</v>
-      </c>
-      <c r="M105" s="9">
-        <v>4366</v>
-      </c>
-      <c r="N105" s="9">
-        <v>4553</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11">
-        <v>0</v>
+        <v>163677</v>
       </c>
       <c r="F106" s="11">
-        <v>0</v>
+        <v>125224</v>
       </c>
       <c r="G106" s="11">
-        <v>0</v>
+        <v>271105</v>
       </c>
       <c r="H106" s="11">
-        <v>0</v>
+        <v>323485</v>
       </c>
       <c r="I106" s="11">
-        <v>0</v>
+        <v>471375</v>
       </c>
       <c r="J106" s="11">
-        <v>0</v>
+        <v>406900</v>
       </c>
       <c r="K106" s="11">
-        <v>0</v>
+        <v>475934</v>
       </c>
       <c r="L106" s="11">
-        <v>0</v>
+        <v>523335</v>
       </c>
       <c r="M106" s="11">
-        <v>0</v>
+        <v>589728</v>
       </c>
       <c r="N106" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>550475</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C107" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>0</v>
+        <v>179915</v>
       </c>
       <c r="F107" s="9">
-        <v>0</v>
+        <v>246731</v>
       </c>
       <c r="G107" s="9">
-        <v>0</v>
+        <v>271048</v>
       </c>
       <c r="H107" s="9">
-        <v>0</v>
+        <v>547799</v>
       </c>
       <c r="I107" s="9">
-        <v>0</v>
+        <v>553102</v>
       </c>
       <c r="J107" s="9">
-        <v>0</v>
+        <v>370831</v>
       </c>
       <c r="K107" s="9">
-        <v>0</v>
+        <v>393923</v>
       </c>
       <c r="L107" s="9">
-        <v>0</v>
+        <v>542312</v>
       </c>
       <c r="M107" s="9">
-        <v>0</v>
+        <v>546765</v>
       </c>
       <c r="N107" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>845974</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C108" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>0</v>
+        <v>213918</v>
       </c>
       <c r="F108" s="11">
-        <v>0</v>
+        <v>117066</v>
       </c>
       <c r="G108" s="11">
-        <v>0</v>
+        <v>230435</v>
       </c>
       <c r="H108" s="11">
-        <v>0</v>
+        <v>509158</v>
       </c>
       <c r="I108" s="11">
-        <v>0</v>
+        <v>571148</v>
       </c>
       <c r="J108" s="11">
-        <v>0</v>
+        <v>417627</v>
       </c>
       <c r="K108" s="11">
-        <v>0</v>
+        <v>349148</v>
       </c>
       <c r="L108" s="11">
-        <v>0</v>
+        <v>430614</v>
       </c>
       <c r="M108" s="11">
-        <v>0</v>
+        <v>424887</v>
       </c>
       <c r="N108" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>444896</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>-63353</v>
+        <v>18764</v>
       </c>
       <c r="F109" s="9">
-        <v>11781</v>
+        <v>32299</v>
       </c>
       <c r="G109" s="9">
-        <v>51572</v>
+        <v>-67656</v>
       </c>
       <c r="H109" s="9">
-        <v>37846</v>
+        <v>124902</v>
       </c>
       <c r="I109" s="9">
-        <v>21531</v>
+        <v>367960</v>
       </c>
       <c r="J109" s="9">
-        <v>13697</v>
+        <v>291728</v>
       </c>
       <c r="K109" s="9">
-        <v>37957</v>
+        <v>340802</v>
       </c>
       <c r="L109" s="9">
-        <v>59978</v>
+        <v>234539</v>
       </c>
       <c r="M109" s="9">
-        <v>56943</v>
+        <v>71989</v>
       </c>
       <c r="N109" s="9">
-        <v>107940</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>65714</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110" s="11"/>
+        <v>37</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>-22116</v>
+        <v>113383</v>
       </c>
       <c r="F110" s="11">
-        <v>12756</v>
+        <v>67286</v>
       </c>
       <c r="G110" s="11">
-        <v>9360</v>
+        <v>67145</v>
       </c>
       <c r="H110" s="11">
-        <v>11931</v>
+        <v>64796</v>
       </c>
       <c r="I110" s="11">
-        <v>10168</v>
+        <v>107378</v>
       </c>
       <c r="J110" s="11">
-        <v>21439</v>
+        <v>267254</v>
       </c>
       <c r="K110" s="11">
-        <v>38583</v>
+        <v>266825</v>
       </c>
       <c r="L110" s="11">
-        <v>38202</v>
+        <v>294759</v>
       </c>
       <c r="M110" s="11">
-        <v>63065</v>
+        <v>307319</v>
       </c>
       <c r="N110" s="11">
-        <v>8760</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>295676</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C111" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9">
-        <v>-52386</v>
-      </c>
-      <c r="F111" s="9">
-        <v>24485</v>
-      </c>
-      <c r="G111" s="9">
-        <v>27901</v>
-      </c>
-      <c r="H111" s="9">
-        <v>35334</v>
-      </c>
-      <c r="I111" s="9">
-        <v>43453</v>
-      </c>
-      <c r="J111" s="9">
-        <v>41772</v>
-      </c>
-      <c r="K111" s="9">
-        <v>46015</v>
-      </c>
-      <c r="L111" s="9">
-        <v>48092</v>
-      </c>
-      <c r="M111" s="9">
-        <v>50975</v>
-      </c>
-      <c r="N111" s="9">
-        <v>61824</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B112" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11">
-        <v>-334948</v>
-      </c>
-      <c r="F112" s="11">
-        <v>123908</v>
-      </c>
-      <c r="G112" s="11">
-        <v>211040</v>
-      </c>
-      <c r="H112" s="11">
-        <v>138812</v>
-      </c>
-      <c r="I112" s="11">
-        <v>257735</v>
-      </c>
-      <c r="J112" s="11">
-        <v>200081</v>
-      </c>
-      <c r="K112" s="11">
-        <v>339714</v>
-      </c>
-      <c r="L112" s="11">
-        <v>194845</v>
-      </c>
-      <c r="M112" s="11">
-        <v>413980</v>
-      </c>
-      <c r="N112" s="11">
-        <v>322499</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B113" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9">
-        <v>0</v>
-      </c>
-      <c r="F113" s="9">
-        <v>0</v>
-      </c>
-      <c r="G113" s="9">
-        <v>0</v>
-      </c>
-      <c r="H113" s="9">
-        <v>0</v>
-      </c>
-      <c r="I113" s="9">
-        <v>0</v>
-      </c>
-      <c r="J113" s="9">
-        <v>0</v>
-      </c>
-      <c r="K113" s="9">
-        <v>0</v>
-      </c>
-      <c r="L113" s="9">
-        <v>0</v>
-      </c>
-      <c r="M113" s="9">
-        <v>0</v>
-      </c>
-      <c r="N113" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B114" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" s="11">
-        <v>-140739</v>
-      </c>
-      <c r="F114" s="11">
-        <v>53778</v>
-      </c>
-      <c r="G114" s="11">
-        <v>80748</v>
-      </c>
-      <c r="H114" s="11">
-        <v>75570</v>
-      </c>
-      <c r="I114" s="11">
-        <v>88417</v>
-      </c>
-      <c r="J114" s="11">
-        <v>125254</v>
-      </c>
-      <c r="K114" s="11">
-        <v>113387</v>
-      </c>
-      <c r="L114" s="11">
-        <v>183465</v>
-      </c>
-      <c r="M114" s="11">
-        <v>226301</v>
-      </c>
-      <c r="N114" s="11">
-        <v>239143</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B115" s="14" t="s">
+      <c r="E111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B112" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15">
-        <v>-613542</v>
-      </c>
-      <c r="F115" s="15">
-        <v>226708</v>
-      </c>
-      <c r="G115" s="15">
-        <v>386833</v>
-      </c>
-      <c r="H115" s="15">
-        <v>301358</v>
-      </c>
-      <c r="I115" s="15">
-        <v>423485</v>
-      </c>
-      <c r="J115" s="15">
-        <v>406020</v>
-      </c>
-      <c r="K115" s="15">
-        <v>579034</v>
-      </c>
-      <c r="L115" s="15">
-        <v>528099</v>
-      </c>
-      <c r="M115" s="15">
-        <v>815630</v>
-      </c>
-      <c r="N115" s="15">
-        <v>744719</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13">
+        <v>689657</v>
+      </c>
+      <c r="F112" s="13">
+        <v>588606</v>
+      </c>
+      <c r="G112" s="13">
+        <v>772077</v>
+      </c>
+      <c r="H112" s="13">
+        <v>1570140</v>
+      </c>
+      <c r="I112" s="13">
+        <v>2070963</v>
+      </c>
+      <c r="J112" s="13">
+        <v>1754340</v>
+      </c>
+      <c r="K112" s="13">
+        <v>1826632</v>
+      </c>
+      <c r="L112" s="13">
+        <v>2025559</v>
+      </c>
+      <c r="M112" s="13">
+        <v>1940688</v>
+      </c>
+      <c r="N112" s="13">
+        <v>2202735</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B116" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K116" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4049,158 +4081,322 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-    </row>
-    <row r="119" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B119" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B121" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B122" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B123" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-      <c r="K123" s="1"/>
-      <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B124" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D124" s="11"/>
-      <c r="E124" s="11"/>
-      <c r="F124" s="11"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-      <c r="K124" s="1"/>
-      <c r="L124" s="1"/>
-      <c r="M124" s="1"/>
-      <c r="N124" s="1"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B125" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-      <c r="K125" s="1"/>
-      <c r="L125" s="1"/>
-      <c r="M125" s="1"/>
-      <c r="N125" s="1"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B126" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B118" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I118" s="9">
+        <v>0</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M118" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B119" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11">
+        <v>-659495</v>
+      </c>
+      <c r="F119" s="11">
+        <v>322965</v>
+      </c>
+      <c r="G119" s="11">
+        <v>336530</v>
+      </c>
+      <c r="H119" s="11">
+        <v>491287</v>
+      </c>
+      <c r="I119" s="11">
+        <v>300740</v>
+      </c>
+      <c r="J119" s="11">
+        <v>481993</v>
+      </c>
+      <c r="K119" s="11">
+        <v>503193</v>
+      </c>
+      <c r="L119" s="11">
+        <v>598672</v>
+      </c>
+      <c r="M119" s="11">
+        <v>576756</v>
+      </c>
+      <c r="N119" s="11">
+        <v>767346</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B120" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9">
+        <v>-1174159</v>
+      </c>
+      <c r="F120" s="9">
+        <v>365369</v>
+      </c>
+      <c r="G120" s="9">
+        <v>808790</v>
+      </c>
+      <c r="H120" s="9">
+        <v>549631</v>
+      </c>
+      <c r="I120" s="9">
+        <v>383605</v>
+      </c>
+      <c r="J120" s="9">
+        <v>672611</v>
+      </c>
+      <c r="K120" s="9">
+        <v>898009</v>
+      </c>
+      <c r="L120" s="9">
+        <v>873701</v>
+      </c>
+      <c r="M120" s="9">
+        <v>1302736</v>
+      </c>
+      <c r="N120" s="9">
+        <v>782674</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B121" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11">
+        <v>-1572323</v>
+      </c>
+      <c r="F121" s="11">
+        <v>498987</v>
+      </c>
+      <c r="G121" s="11">
+        <v>1073336</v>
+      </c>
+      <c r="H121" s="11">
+        <v>1023398</v>
+      </c>
+      <c r="I121" s="11">
+        <v>855396</v>
+      </c>
+      <c r="J121" s="11">
+        <v>886627</v>
+      </c>
+      <c r="K121" s="11">
+        <v>1092804</v>
+      </c>
+      <c r="L121" s="11">
+        <v>1181325</v>
+      </c>
+      <c r="M121" s="11">
+        <v>1317175</v>
+      </c>
+      <c r="N121" s="11">
+        <v>1265717</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B122" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9">
+        <v>-524150</v>
+      </c>
+      <c r="F122" s="9">
+        <v>115652</v>
+      </c>
+      <c r="G122" s="9">
+        <v>408498</v>
+      </c>
+      <c r="H122" s="9">
+        <v>838948</v>
+      </c>
+      <c r="I122" s="9">
+        <v>616805</v>
+      </c>
+      <c r="J122" s="9">
+        <v>688513</v>
+      </c>
+      <c r="K122" s="9">
+        <v>492576</v>
+      </c>
+      <c r="L122" s="9">
+        <v>519738</v>
+      </c>
+      <c r="M122" s="9">
+        <v>710987</v>
+      </c>
+      <c r="N122" s="9">
+        <v>935119</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B123" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11">
+        <v>-391628</v>
+      </c>
+      <c r="F123" s="11">
+        <v>172969</v>
+      </c>
+      <c r="G123" s="11">
+        <v>218659</v>
+      </c>
+      <c r="H123" s="11">
+        <v>361584</v>
+      </c>
+      <c r="I123" s="11">
+        <v>572741</v>
+      </c>
+      <c r="J123" s="11">
+        <v>471462</v>
+      </c>
+      <c r="K123" s="11">
+        <v>525432</v>
+      </c>
+      <c r="L123" s="11">
+        <v>614795</v>
+      </c>
+      <c r="M123" s="11">
+        <v>727050</v>
+      </c>
+      <c r="N123" s="11">
+        <v>1159153</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B124" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" s="9">
+        <v>0</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M124" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N124" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B125" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13">
+        <v>-4321755</v>
+      </c>
+      <c r="F125" s="13">
+        <v>1475942</v>
+      </c>
+      <c r="G125" s="13">
+        <v>2845813</v>
+      </c>
+      <c r="H125" s="13">
+        <v>3264848</v>
+      </c>
+      <c r="I125" s="13">
+        <v>2729287</v>
+      </c>
+      <c r="J125" s="13">
+        <v>3201206</v>
+      </c>
+      <c r="K125" s="13">
+        <v>3512014</v>
+      </c>
+      <c r="L125" s="13">
+        <v>3788231</v>
+      </c>
+      <c r="M125" s="13">
+        <v>4634704</v>
+      </c>
+      <c r="N125" s="13">
+        <v>4910009</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4210,16 +4406,12 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B127" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4229,16 +4421,12 @@
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B128" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D128" s="11"/>
-      <c r="E128" s="11"/>
-      <c r="F128" s="11"/>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -4248,38 +4436,3188 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B129" s="8" t="s">
+    <row r="129" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B129" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C129" s="6"/>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B131" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" s="9">
+        <v>0</v>
+      </c>
+      <c r="J131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B132" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="11"/>
+      <c r="E132" s="11">
+        <v>-455303</v>
+      </c>
+      <c r="F132" s="11">
+        <v>177084</v>
+      </c>
+      <c r="G132" s="11">
+        <v>278219</v>
+      </c>
+      <c r="H132" s="11">
+        <v>343397</v>
+      </c>
+      <c r="I132" s="11">
+        <v>365215</v>
+      </c>
+      <c r="J132" s="11">
+        <v>412959</v>
+      </c>
+      <c r="K132" s="11">
+        <v>447743</v>
+      </c>
+      <c r="L132" s="11">
+        <v>532279</v>
+      </c>
+      <c r="M132" s="11">
+        <v>624058</v>
+      </c>
+      <c r="N132" s="11">
+        <v>655644</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9">
+        <v>-873091</v>
+      </c>
+      <c r="F133" s="9">
+        <v>341052</v>
+      </c>
+      <c r="G133" s="9">
+        <v>532039</v>
+      </c>
+      <c r="H133" s="9">
+        <v>544328</v>
+      </c>
+      <c r="I133" s="9">
+        <v>565876</v>
+      </c>
+      <c r="J133" s="9">
+        <v>649519</v>
+      </c>
+      <c r="K133" s="9">
+        <v>762613</v>
+      </c>
+      <c r="L133" s="9">
+        <v>869248</v>
+      </c>
+      <c r="M133" s="9">
+        <v>990534</v>
+      </c>
+      <c r="N133" s="9">
+        <v>967771</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B134" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11">
+        <v>-1179788</v>
+      </c>
+      <c r="F134" s="11">
+        <v>385618</v>
+      </c>
+      <c r="G134" s="11">
+        <v>794170</v>
+      </c>
+      <c r="H134" s="11">
+        <v>961408</v>
+      </c>
+      <c r="I134" s="11">
+        <v>1008917</v>
+      </c>
+      <c r="J134" s="11">
+        <v>955106</v>
+      </c>
+      <c r="K134" s="11">
+        <v>1004168</v>
+      </c>
+      <c r="L134" s="11">
+        <v>1187052</v>
+      </c>
+      <c r="M134" s="11">
+        <v>1304336</v>
+      </c>
+      <c r="N134" s="11">
+        <v>1266141</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B135" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9">
+        <v>-440274</v>
+      </c>
+      <c r="F135" s="9">
+        <v>215607</v>
+      </c>
+      <c r="G135" s="9">
+        <v>224667</v>
+      </c>
+      <c r="H135" s="9">
+        <v>595890</v>
+      </c>
+      <c r="I135" s="9">
+        <v>693037</v>
+      </c>
+      <c r="J135" s="9">
+        <v>639439</v>
+      </c>
+      <c r="K135" s="9">
+        <v>545430</v>
+      </c>
+      <c r="L135" s="9">
+        <v>682288</v>
+      </c>
+      <c r="M135" s="9">
+        <v>770671</v>
+      </c>
+      <c r="N135" s="9">
+        <v>874720</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B136" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="11"/>
+      <c r="E136" s="11">
+        <v>-394117</v>
+      </c>
+      <c r="F136" s="11">
+        <v>173110</v>
+      </c>
+      <c r="G136" s="11">
+        <v>221007</v>
+      </c>
+      <c r="H136" s="11">
+        <v>319002</v>
+      </c>
+      <c r="I136" s="11">
+        <v>412865</v>
+      </c>
+      <c r="J136" s="11">
+        <v>471891</v>
+      </c>
+      <c r="K136" s="11">
+        <v>497498</v>
+      </c>
+      <c r="L136" s="11">
+        <v>602235</v>
+      </c>
+      <c r="M136" s="11">
+        <v>738693</v>
+      </c>
+      <c r="N136" s="11">
+        <v>926971</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B137" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="9">
+        <v>0</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B138" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="13">
+        <v>-3342573</v>
+      </c>
+      <c r="F138" s="13">
+        <v>1292471</v>
+      </c>
+      <c r="G138" s="13">
+        <v>2050102</v>
+      </c>
+      <c r="H138" s="13">
+        <v>2764025</v>
+      </c>
+      <c r="I138" s="13">
+        <v>3045910</v>
+      </c>
+      <c r="J138" s="13">
+        <v>3128914</v>
+      </c>
+      <c r="K138" s="13">
+        <v>3257452</v>
+      </c>
+      <c r="L138" s="13">
+        <v>3873102</v>
+      </c>
+      <c r="M138" s="13">
+        <v>4428292</v>
+      </c>
+      <c r="N138" s="13">
+        <v>4691247</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+    </row>
+    <row r="142" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B142" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K142" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N142" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B144" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="9">
+        <v>0</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N144" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B145" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11">
+        <v>125224</v>
+      </c>
+      <c r="F145" s="11">
+        <v>271105</v>
+      </c>
+      <c r="G145" s="11">
+        <v>329416</v>
+      </c>
+      <c r="H145" s="11">
+        <v>471375</v>
+      </c>
+      <c r="I145" s="11">
+        <v>406900</v>
+      </c>
+      <c r="J145" s="11">
+        <v>475934</v>
+      </c>
+      <c r="K145" s="11">
+        <v>531384</v>
+      </c>
+      <c r="L145" s="11">
+        <v>589728</v>
+      </c>
+      <c r="M145" s="11">
+        <v>550475</v>
+      </c>
+      <c r="N145" s="11">
+        <v>662177</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B146" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9">
+        <v>246731</v>
+      </c>
+      <c r="F146" s="9">
+        <v>271048</v>
+      </c>
+      <c r="G146" s="9">
+        <v>547799</v>
+      </c>
+      <c r="H146" s="9">
+        <v>553102</v>
+      </c>
+      <c r="I146" s="9">
+        <v>370831</v>
+      </c>
+      <c r="J146" s="9">
+        <v>393923</v>
+      </c>
+      <c r="K146" s="9">
+        <v>529319</v>
+      </c>
+      <c r="L146" s="9">
+        <v>546765</v>
+      </c>
+      <c r="M146" s="9">
+        <v>845974</v>
+      </c>
+      <c r="N146" s="9">
+        <v>660877</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B147" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" s="11"/>
+      <c r="E147" s="11">
+        <v>117066</v>
+      </c>
+      <c r="F147" s="11">
+        <v>230435</v>
+      </c>
+      <c r="G147" s="11">
+        <v>509601</v>
+      </c>
+      <c r="H147" s="11">
+        <v>571148</v>
+      </c>
+      <c r="I147" s="11">
+        <v>417627</v>
+      </c>
+      <c r="J147" s="11">
+        <v>349148</v>
+      </c>
+      <c r="K147" s="11">
+        <v>437784</v>
+      </c>
+      <c r="L147" s="11">
+        <v>424887</v>
+      </c>
+      <c r="M147" s="11">
+        <v>444896</v>
+      </c>
+      <c r="N147" s="11">
+        <v>444472</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B148" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9">
+        <v>32299</v>
+      </c>
+      <c r="F148" s="9">
+        <v>-67656</v>
+      </c>
+      <c r="G148" s="9">
+        <v>116175</v>
+      </c>
+      <c r="H148" s="9">
+        <v>367960</v>
+      </c>
+      <c r="I148" s="9">
+        <v>291728</v>
+      </c>
+      <c r="J148" s="9">
+        <v>340802</v>
+      </c>
+      <c r="K148" s="9">
+        <v>287948</v>
+      </c>
+      <c r="L148" s="9">
+        <v>71989</v>
+      </c>
+      <c r="M148" s="9">
+        <v>65714</v>
+      </c>
+      <c r="N148" s="9">
+        <v>126113</v>
+      </c>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B149" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="11"/>
+      <c r="E149" s="11">
+        <v>67286</v>
+      </c>
+      <c r="F149" s="11">
+        <v>67145</v>
+      </c>
+      <c r="G149" s="11">
+        <v>64797</v>
+      </c>
+      <c r="H149" s="11">
+        <v>107378</v>
+      </c>
+      <c r="I149" s="11">
+        <v>267254</v>
+      </c>
+      <c r="J149" s="11">
+        <v>266825</v>
+      </c>
+      <c r="K149" s="11">
+        <v>294759</v>
+      </c>
+      <c r="L149" s="11">
+        <v>307319</v>
+      </c>
+      <c r="M149" s="11">
+        <v>295676</v>
+      </c>
+      <c r="N149" s="11">
+        <v>527858</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B150" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="9">
+        <v>0</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B151" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13">
+        <v>588606</v>
+      </c>
+      <c r="F151" s="13">
+        <v>772077</v>
+      </c>
+      <c r="G151" s="13">
+        <v>1567788</v>
+      </c>
+      <c r="H151" s="13">
+        <v>2070963</v>
+      </c>
+      <c r="I151" s="13">
+        <v>1754340</v>
+      </c>
+      <c r="J151" s="13">
+        <v>1826632</v>
+      </c>
+      <c r="K151" s="13">
+        <v>2081194</v>
+      </c>
+      <c r="L151" s="13">
+        <v>1940688</v>
+      </c>
+      <c r="M151" s="13">
+        <v>2202735</v>
+      </c>
+      <c r="N151" s="13">
+        <v>2421497</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+      <c r="N154" s="1"/>
+    </row>
+    <row r="155" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B155" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G155" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I155" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L155" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N155" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+      <c r="N156" s="1"/>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B157" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9">
+        <v>220901</v>
+      </c>
+      <c r="F157" s="9">
+        <v>169085</v>
+      </c>
+      <c r="G157" s="9">
+        <v>253752</v>
+      </c>
+      <c r="H157" s="9">
+        <v>433889</v>
+      </c>
+      <c r="I157" s="9">
+        <v>592570</v>
+      </c>
+      <c r="J157" s="9">
+        <v>537470</v>
+      </c>
+      <c r="K157" s="9">
+        <v>594331</v>
+      </c>
+      <c r="L157" s="9">
+        <v>552288</v>
+      </c>
+      <c r="M157" s="9">
+        <v>596370</v>
+      </c>
+      <c r="N157" s="9">
+        <v>749877</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B158" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="11"/>
+      <c r="E158" s="11">
+        <v>256886</v>
+      </c>
+      <c r="F158" s="11">
+        <v>229887</v>
+      </c>
+      <c r="G158" s="11">
+        <v>330535</v>
+      </c>
+      <c r="H158" s="11">
+        <v>443093</v>
+      </c>
+      <c r="I158" s="11">
+        <v>473054</v>
+      </c>
+      <c r="J158" s="11">
+        <v>537470</v>
+      </c>
+      <c r="K158" s="11">
+        <v>594331</v>
+      </c>
+      <c r="L158" s="11">
+        <v>663677</v>
+      </c>
+      <c r="M158" s="11">
+        <v>685796</v>
+      </c>
+      <c r="N158" s="11">
+        <v>658746</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B159" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9">
+        <v>172303</v>
+      </c>
+      <c r="F159" s="9">
+        <v>145130</v>
+      </c>
+      <c r="G159" s="9">
+        <v>278517</v>
+      </c>
+      <c r="H159" s="9">
+        <v>536108</v>
+      </c>
+      <c r="I159" s="9">
+        <v>515702</v>
+      </c>
+      <c r="J159" s="9">
+        <v>523005</v>
+      </c>
+      <c r="K159" s="9">
+        <v>699648</v>
+      </c>
+      <c r="L159" s="9">
+        <v>637290</v>
+      </c>
+      <c r="M159" s="9">
+        <v>549532</v>
+      </c>
+      <c r="N159" s="9">
+        <v>614952</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B160" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11">
+        <v>86998</v>
+      </c>
+      <c r="F160" s="11">
+        <v>84022</v>
+      </c>
+      <c r="G160" s="11">
+        <v>-141303</v>
+      </c>
+      <c r="H160" s="11">
+        <v>391540</v>
+      </c>
+      <c r="I160" s="11">
+        <v>521321</v>
+      </c>
+      <c r="J160" s="11">
+        <v>523005</v>
+      </c>
+      <c r="K160" s="11">
+        <v>699648</v>
+      </c>
+      <c r="L160" s="11">
+        <v>467237</v>
+      </c>
+      <c r="M160" s="11">
+        <v>508990</v>
+      </c>
+      <c r="N160" s="11">
+        <v>559959</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B161" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9">
+        <v>94588</v>
+      </c>
+      <c r="F161" s="9">
+        <v>88581</v>
+      </c>
+      <c r="G161" s="9">
+        <v>89604</v>
+      </c>
+      <c r="H161" s="9">
+        <v>128212</v>
+      </c>
+      <c r="I161" s="9">
+        <v>186868</v>
+      </c>
+      <c r="J161" s="9">
+        <v>496445</v>
+      </c>
+      <c r="K161" s="9">
+        <v>704901</v>
+      </c>
+      <c r="L161" s="9">
+        <v>273305</v>
+      </c>
+      <c r="M161" s="9">
+        <v>303184</v>
+      </c>
+      <c r="N161" s="9">
+        <v>398431</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B162" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="11"/>
+      <c r="E162" s="11">
+        <v>496445</v>
+      </c>
+      <c r="F162" s="11">
+        <v>704901</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B163" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9">
+        <v>553195</v>
+      </c>
+      <c r="F163" s="9">
+        <v>500473</v>
+      </c>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B164" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11">
+        <v>553195</v>
+      </c>
+      <c r="F164" s="11">
+        <v>500473</v>
+      </c>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+      <c r="M164" s="1"/>
+      <c r="N164" s="1"/>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B165" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9">
+        <v>553195</v>
+      </c>
+      <c r="F165" s="9">
+        <v>261783</v>
+      </c>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B166" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11">
+        <v>235923</v>
+      </c>
+      <c r="F166" s="11">
+        <v>261783</v>
+      </c>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="1"/>
+      <c r="J166" s="1"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B167" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9">
+        <v>235923</v>
+      </c>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="1"/>
+      <c r="J167" s="1"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B171" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M171" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N171" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="1"/>
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B173" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C173" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9">
+        <v>118214</v>
+      </c>
+      <c r="F173" s="9">
+        <v>251416</v>
+      </c>
+      <c r="G173" s="9">
+        <v>399227</v>
+      </c>
+      <c r="H173" s="9">
+        <v>481420</v>
+      </c>
+      <c r="I173" s="9">
+        <v>351058</v>
+      </c>
+      <c r="J173" s="9">
+        <v>447339</v>
+      </c>
+      <c r="K173" s="9">
+        <v>423236</v>
+      </c>
+      <c r="L173" s="9">
+        <v>514718</v>
+      </c>
+      <c r="M173" s="9">
+        <v>640297</v>
+      </c>
+      <c r="N173" s="9">
+        <v>569743</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B174" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11">
+        <v>267658</v>
+      </c>
+      <c r="F174" s="11">
+        <v>398191</v>
+      </c>
+      <c r="G174" s="11">
+        <v>493896</v>
+      </c>
+      <c r="H174" s="11">
+        <v>509833</v>
+      </c>
+      <c r="I174" s="11">
+        <v>571232</v>
+      </c>
+      <c r="J174" s="11">
+        <v>447339</v>
+      </c>
+      <c r="K174" s="11">
+        <v>423236</v>
+      </c>
+      <c r="L174" s="11">
+        <v>694337</v>
+      </c>
+      <c r="M174" s="11">
+        <v>676138</v>
+      </c>
+      <c r="N174" s="11">
+        <v>918235</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B175" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9">
+        <v>137555</v>
+      </c>
+      <c r="F175" s="9">
+        <v>214925</v>
+      </c>
+      <c r="G175" s="9">
+        <v>435383</v>
+      </c>
+      <c r="H175" s="9">
+        <v>442019</v>
+      </c>
+      <c r="I175" s="9">
+        <v>433116</v>
+      </c>
+      <c r="J175" s="9">
+        <v>693825</v>
+      </c>
+      <c r="K175" s="9">
+        <v>616817</v>
+      </c>
+      <c r="L175" s="9">
+        <v>459286</v>
+      </c>
+      <c r="M175" s="9">
+        <v>537629</v>
+      </c>
+      <c r="N175" s="9">
+        <v>524550</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B176" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11">
+        <v>115711</v>
+      </c>
+      <c r="F176" s="11">
+        <v>82100</v>
+      </c>
+      <c r="G176" s="11">
+        <v>367432</v>
+      </c>
+      <c r="H176" s="11">
+        <v>513759</v>
+      </c>
+      <c r="I176" s="11">
+        <v>543651</v>
+      </c>
+      <c r="J176" s="11">
+        <v>693825</v>
+      </c>
+      <c r="K176" s="11">
+        <v>616817</v>
+      </c>
+      <c r="L176" s="11">
+        <v>477420</v>
+      </c>
+      <c r="M176" s="11">
+        <v>555936</v>
+      </c>
+      <c r="N176" s="11">
+        <v>615899</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B177" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9">
+        <v>90821</v>
+      </c>
+      <c r="F177" s="9">
+        <v>86906</v>
+      </c>
+      <c r="G177" s="9">
+        <v>127620</v>
+      </c>
+      <c r="H177" s="9">
+        <v>187239</v>
+      </c>
+      <c r="I177" s="9">
+        <v>235124</v>
+      </c>
+      <c r="J177" s="9">
+        <v>464969</v>
+      </c>
+      <c r="K177" s="9">
+        <v>444641</v>
+      </c>
+      <c r="L177" s="9">
+        <v>296835</v>
+      </c>
+      <c r="M177" s="9">
+        <v>382614</v>
+      </c>
+      <c r="N177" s="9">
+        <v>458834</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B178" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C178" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11">
+        <v>464969</v>
+      </c>
+      <c r="F178" s="11">
+        <v>444641</v>
+      </c>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="1"/>
+      <c r="J178" s="1"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B179" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9">
+        <v>475992</v>
+      </c>
+      <c r="F179" s="9">
+        <v>400546</v>
+      </c>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1"/>
+      <c r="J179" s="1"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B180" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11">
+        <v>475992</v>
+      </c>
+      <c r="F180" s="11">
+        <v>400546</v>
+      </c>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="1"/>
+      <c r="J180" s="1"/>
+      <c r="K180" s="1"/>
+      <c r="L180" s="1"/>
+      <c r="M180" s="1"/>
+      <c r="N180" s="1"/>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B181" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9">
+        <v>475992</v>
+      </c>
+      <c r="F181" s="9">
+        <v>267620</v>
+      </c>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="1"/>
+      <c r="J181" s="1"/>
+      <c r="K181" s="1"/>
+      <c r="L181" s="1"/>
+      <c r="M181" s="1"/>
+      <c r="N181" s="1"/>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B182" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C182" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11">
+        <v>257088</v>
+      </c>
+      <c r="F182" s="11">
+        <v>267620</v>
+      </c>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="1"/>
+      <c r="J182" s="1"/>
+      <c r="K182" s="1"/>
+      <c r="L182" s="1"/>
+      <c r="M182" s="1"/>
+      <c r="N182" s="1"/>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B183" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9">
+        <v>257088</v>
+      </c>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="1"/>
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B187" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C187" s="6"/>
+      <c r="D187" s="6"/>
+      <c r="E187" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H187" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M187" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N187" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B189" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9">
+        <v>158784</v>
+      </c>
+      <c r="F189" s="9">
+        <v>185080</v>
+      </c>
+      <c r="G189" s="9">
+        <v>239048</v>
+      </c>
+      <c r="H189" s="9">
+        <v>353811</v>
+      </c>
+      <c r="I189" s="9">
+        <v>408025</v>
+      </c>
+      <c r="J189" s="9">
+        <v>399480</v>
+      </c>
+      <c r="K189" s="9">
+        <v>425184</v>
+      </c>
+      <c r="L189" s="9">
+        <v>474477</v>
+      </c>
+      <c r="M189" s="9">
+        <v>545213</v>
+      </c>
+      <c r="N189" s="9">
+        <v>613827</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B190" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D190" s="11"/>
+      <c r="E190" s="11">
+        <v>296127</v>
+      </c>
+      <c r="F190" s="11">
+        <v>291295</v>
+      </c>
+      <c r="G190" s="11">
+        <v>435636</v>
+      </c>
+      <c r="H190" s="11">
+        <v>475333</v>
+      </c>
+      <c r="I190" s="11">
+        <v>500016</v>
+      </c>
+      <c r="J190" s="11">
+        <v>399480</v>
+      </c>
+      <c r="K190" s="11">
+        <v>425184</v>
+      </c>
+      <c r="L190" s="11">
+        <v>680064</v>
+      </c>
+      <c r="M190" s="11">
+        <v>702093</v>
+      </c>
+      <c r="N190" s="11">
+        <v>735621</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B191" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D191" s="9"/>
+      <c r="E191" s="9">
+        <v>153978</v>
+      </c>
+      <c r="F191" s="9">
+        <v>167591</v>
+      </c>
+      <c r="G191" s="9">
+        <v>339250</v>
+      </c>
+      <c r="H191" s="9">
+        <v>445613</v>
+      </c>
+      <c r="I191" s="9">
+        <v>450156</v>
+      </c>
+      <c r="J191" s="9">
+        <v>582302</v>
+      </c>
+      <c r="K191" s="9">
+        <v>619644</v>
+      </c>
+      <c r="L191" s="9">
+        <v>479694</v>
+      </c>
+      <c r="M191" s="9">
+        <v>517311</v>
+      </c>
+      <c r="N191" s="9">
+        <v>535595</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B192" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C192" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11">
+        <v>120454</v>
+      </c>
+      <c r="F192" s="11">
+        <v>164048</v>
+      </c>
+      <c r="G192" s="11">
+        <v>171255</v>
+      </c>
+      <c r="H192" s="11">
+        <v>478189</v>
+      </c>
+      <c r="I192" s="11">
+        <v>527815</v>
+      </c>
+      <c r="J192" s="11">
+        <v>582302</v>
+      </c>
+      <c r="K192" s="11">
+        <v>619644</v>
+      </c>
+      <c r="L192" s="11">
+        <v>470811</v>
+      </c>
+      <c r="M192" s="11">
+        <v>548997</v>
+      </c>
+      <c r="N192" s="11">
+        <v>622047</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B193" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D193" s="9"/>
+      <c r="E193" s="9">
+        <v>94167</v>
+      </c>
+      <c r="F193" s="9">
+        <v>86532</v>
+      </c>
+      <c r="G193" s="9">
+        <v>112912</v>
+      </c>
+      <c r="H193" s="9">
+        <v>171332</v>
+      </c>
+      <c r="I193" s="9">
+        <v>219875</v>
+      </c>
+      <c r="J193" s="9">
+        <v>423970</v>
+      </c>
+      <c r="K193" s="9">
+        <v>445179</v>
+      </c>
+      <c r="L193" s="9">
+        <v>281941</v>
+      </c>
+      <c r="M193" s="9">
+        <v>340136</v>
+      </c>
+      <c r="N193" s="9">
+        <v>440360</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B194" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" s="11"/>
+      <c r="E194" s="11">
+        <v>423970</v>
+      </c>
+      <c r="F194" s="11">
+        <v>445179</v>
+      </c>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="1"/>
+      <c r="J194" s="1"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B195" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D195" s="9"/>
+      <c r="E195" s="9">
+        <v>494588</v>
+      </c>
+      <c r="F195" s="9">
+        <v>417011</v>
+      </c>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B196" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C196" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11">
+        <v>494588</v>
+      </c>
+      <c r="F196" s="11">
+        <v>417011</v>
+      </c>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="1"/>
+      <c r="J196" s="1"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B197" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D197" s="9"/>
+      <c r="E197" s="9">
+        <v>494588</v>
+      </c>
+      <c r="F197" s="9">
+        <v>261276</v>
+      </c>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="1"/>
+      <c r="J197" s="1"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B198" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D198" s="11"/>
+      <c r="E198" s="11">
+        <v>242319</v>
+      </c>
+      <c r="F198" s="11">
+        <v>261276</v>
+      </c>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="1"/>
+      <c r="J198" s="1"/>
+      <c r="K198" s="1"/>
+      <c r="L198" s="1"/>
+      <c r="M198" s="1"/>
+      <c r="N198" s="1"/>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B199" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D199" s="9"/>
+      <c r="E199" s="9">
+        <v>242319</v>
+      </c>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+      <c r="F200" s="1"/>
+      <c r="G200" s="1"/>
+      <c r="H200" s="1"/>
+      <c r="I200" s="1"/>
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+      <c r="F201" s="1"/>
+      <c r="G201" s="1"/>
+      <c r="H201" s="1"/>
+      <c r="I201" s="1"/>
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B203" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C203" s="6"/>
+      <c r="D203" s="6"/>
+      <c r="E203" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H203" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L203" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M203" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N203" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B205" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D205" s="9"/>
+      <c r="E205" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F205" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G205" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H205" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I205" s="9">
+        <v>537470</v>
+      </c>
+      <c r="J205" s="9">
+        <v>594331</v>
+      </c>
+      <c r="K205" s="9">
+        <v>567323</v>
+      </c>
+      <c r="L205" s="9">
+        <v>596370</v>
+      </c>
+      <c r="M205" s="9">
+        <v>749877</v>
+      </c>
+      <c r="N205" s="9">
+        <v>653815</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B206" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C206" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206" s="11"/>
+      <c r="E206" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F206" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I206" s="11">
+        <v>523005</v>
+      </c>
+      <c r="J206" s="11">
+        <v>594331</v>
+      </c>
+      <c r="K206" s="11">
+        <v>567323</v>
+      </c>
+      <c r="L206" s="11">
+        <v>685796</v>
+      </c>
+      <c r="M206" s="11">
+        <v>658746</v>
+      </c>
+      <c r="N206" s="11">
+        <v>804963</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B207" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D207" s="9"/>
+      <c r="E207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H207" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I207" s="9">
+        <v>496445</v>
+      </c>
+      <c r="J207" s="9">
+        <v>699648</v>
+      </c>
+      <c r="K207" s="9">
+        <v>671571</v>
+      </c>
+      <c r="L207" s="9">
+        <v>549532</v>
+      </c>
+      <c r="M207" s="9">
+        <v>614952</v>
+      </c>
+      <c r="N207" s="9">
+        <v>575417</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B208" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D208" s="11"/>
+      <c r="E208" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G208" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H208" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I208" s="11">
+        <v>553195</v>
+      </c>
+      <c r="J208" s="11">
+        <v>699648</v>
+      </c>
+      <c r="K208" s="11">
+        <v>671571</v>
+      </c>
+      <c r="L208" s="11">
+        <v>508990</v>
+      </c>
+      <c r="M208" s="11">
+        <v>559959</v>
+      </c>
+      <c r="N208" s="11">
+        <v>549608</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B209" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C209" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H209" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I209" s="9">
+        <v>235923</v>
+      </c>
+      <c r="J209" s="9">
+        <v>704901</v>
+      </c>
+      <c r="K209" s="9">
+        <v>627751</v>
+      </c>
+      <c r="L209" s="9">
+        <v>303184</v>
+      </c>
+      <c r="M209" s="9">
+        <v>398431</v>
+      </c>
+      <c r="N209" s="9">
+        <v>453732</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B210" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C210" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D210" s="11"/>
+      <c r="E210" s="11">
+        <v>704901</v>
+      </c>
+      <c r="F210" s="11">
+        <v>627751</v>
+      </c>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B211" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D211" s="9"/>
+      <c r="E211" s="9">
+        <v>500473</v>
+      </c>
+      <c r="F211" s="9">
+        <v>477708</v>
+      </c>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B212" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D212" s="11"/>
+      <c r="E212" s="11">
+        <v>500473</v>
+      </c>
+      <c r="F212" s="11">
+        <v>477708</v>
+      </c>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B213" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213" s="9"/>
+      <c r="E213" s="9">
+        <v>500473</v>
+      </c>
+      <c r="F213" s="9">
+        <v>273305</v>
+      </c>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B214" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C214" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D214" s="11"/>
+      <c r="E214" s="11">
+        <v>261783</v>
+      </c>
+      <c r="F214" s="11">
+        <v>273305</v>
+      </c>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B215" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C215" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D215" s="9"/>
+      <c r="E215" s="9">
+        <v>261783</v>
+      </c>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+    </row>
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+    </row>
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+    </row>
+    <row r="219" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B219" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" s="6"/>
+      <c r="D219" s="6"/>
+      <c r="E219" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H219" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I219" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J219" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K219" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L219" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M219" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N219" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+    </row>
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B221" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="E221" s="9">
+        <v>0</v>
+      </c>
+      <c r="F221" s="9">
+        <v>0</v>
+      </c>
+      <c r="G221" s="9">
+        <v>6212</v>
+      </c>
+      <c r="H221" s="9">
+        <v>1865</v>
+      </c>
+      <c r="I221" s="9">
+        <v>2181</v>
+      </c>
+      <c r="J221" s="9">
+        <v>3777</v>
+      </c>
+      <c r="K221" s="9">
+        <v>3378</v>
+      </c>
+      <c r="L221" s="9">
+        <v>3517</v>
+      </c>
+      <c r="M221" s="9">
+        <v>4366</v>
+      </c>
+      <c r="N221" s="9">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B222" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C222" s="11"/>
+      <c r="D222" s="11"/>
+      <c r="E222" s="11">
+        <v>0</v>
+      </c>
+      <c r="F222" s="11">
+        <v>0</v>
+      </c>
+      <c r="G222" s="11">
+        <v>0</v>
+      </c>
+      <c r="H222" s="11">
+        <v>0</v>
+      </c>
+      <c r="I222" s="11">
+        <v>0</v>
+      </c>
+      <c r="J222" s="11">
+        <v>0</v>
+      </c>
+      <c r="K222" s="11">
+        <v>0</v>
+      </c>
+      <c r="L222" s="11">
+        <v>0</v>
+      </c>
+      <c r="M222" s="11">
+        <v>0</v>
+      </c>
+      <c r="N222" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B223" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9">
+        <v>0</v>
+      </c>
+      <c r="F223" s="9">
+        <v>0</v>
+      </c>
+      <c r="G223" s="9">
+        <v>0</v>
+      </c>
+      <c r="H223" s="9">
+        <v>0</v>
+      </c>
+      <c r="I223" s="9">
+        <v>0</v>
+      </c>
+      <c r="J223" s="9">
+        <v>0</v>
+      </c>
+      <c r="K223" s="9">
+        <v>0</v>
+      </c>
+      <c r="L223" s="9">
+        <v>0</v>
+      </c>
+      <c r="M223" s="9">
+        <v>0</v>
+      </c>
+      <c r="N223" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B224" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C224" s="11"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="11">
+        <v>0</v>
+      </c>
+      <c r="F224" s="11">
+        <v>0</v>
+      </c>
+      <c r="G224" s="11">
+        <v>0</v>
+      </c>
+      <c r="H224" s="11">
+        <v>0</v>
+      </c>
+      <c r="I224" s="11">
+        <v>0</v>
+      </c>
+      <c r="J224" s="11">
+        <v>0</v>
+      </c>
+      <c r="K224" s="11">
+        <v>0</v>
+      </c>
+      <c r="L224" s="11">
+        <v>0</v>
+      </c>
+      <c r="M224" s="11">
+        <v>0</v>
+      </c>
+      <c r="N224" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B225" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="E225" s="9">
+        <v>-63353</v>
+      </c>
+      <c r="F225" s="9">
+        <v>11781</v>
+      </c>
+      <c r="G225" s="9">
+        <v>51572</v>
+      </c>
+      <c r="H225" s="9">
+        <v>37846</v>
+      </c>
+      <c r="I225" s="9">
+        <v>21531</v>
+      </c>
+      <c r="J225" s="9">
+        <v>13697</v>
+      </c>
+      <c r="K225" s="9">
+        <v>37957</v>
+      </c>
+      <c r="L225" s="9">
+        <v>59978</v>
+      </c>
+      <c r="M225" s="9">
+        <v>56943</v>
+      </c>
+      <c r="N225" s="9">
+        <v>107940</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B226" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
+      <c r="E226" s="11">
+        <v>-22116</v>
+      </c>
+      <c r="F226" s="11">
+        <v>12756</v>
+      </c>
+      <c r="G226" s="11">
+        <v>9360</v>
+      </c>
+      <c r="H226" s="11">
+        <v>11931</v>
+      </c>
+      <c r="I226" s="11">
+        <v>10168</v>
+      </c>
+      <c r="J226" s="11">
+        <v>21439</v>
+      </c>
+      <c r="K226" s="11">
+        <v>38583</v>
+      </c>
+      <c r="L226" s="11">
+        <v>38202</v>
+      </c>
+      <c r="M226" s="11">
+        <v>63065</v>
+      </c>
+      <c r="N226" s="11">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B227" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="9">
+        <v>-52386</v>
+      </c>
+      <c r="F227" s="9">
+        <v>24485</v>
+      </c>
+      <c r="G227" s="9">
+        <v>27901</v>
+      </c>
+      <c r="H227" s="9">
+        <v>35334</v>
+      </c>
+      <c r="I227" s="9">
+        <v>43453</v>
+      </c>
+      <c r="J227" s="9">
+        <v>41772</v>
+      </c>
+      <c r="K227" s="9">
+        <v>46015</v>
+      </c>
+      <c r="L227" s="9">
+        <v>48092</v>
+      </c>
+      <c r="M227" s="9">
+        <v>50975</v>
+      </c>
+      <c r="N227" s="9">
+        <v>61824</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B228" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11">
+        <v>-334948</v>
+      </c>
+      <c r="F228" s="11">
+        <v>123908</v>
+      </c>
+      <c r="G228" s="11">
+        <v>211040</v>
+      </c>
+      <c r="H228" s="11">
+        <v>138812</v>
+      </c>
+      <c r="I228" s="11">
+        <v>257735</v>
+      </c>
+      <c r="J228" s="11">
+        <v>200081</v>
+      </c>
+      <c r="K228" s="11">
+        <v>339714</v>
+      </c>
+      <c r="L228" s="11">
+        <v>194845</v>
+      </c>
+      <c r="M228" s="11">
+        <v>413980</v>
+      </c>
+      <c r="N228" s="11">
+        <v>322499</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B229" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="9">
+        <v>0</v>
+      </c>
+      <c r="F229" s="9">
+        <v>0</v>
+      </c>
+      <c r="G229" s="9">
+        <v>0</v>
+      </c>
+      <c r="H229" s="9">
+        <v>0</v>
+      </c>
+      <c r="I229" s="9">
+        <v>0</v>
+      </c>
+      <c r="J229" s="9">
+        <v>0</v>
+      </c>
+      <c r="K229" s="9">
+        <v>0</v>
+      </c>
+      <c r="L229" s="9">
+        <v>0</v>
+      </c>
+      <c r="M229" s="9">
+        <v>0</v>
+      </c>
+      <c r="N229" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B230" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C230" s="11"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="11">
+        <v>-140739</v>
+      </c>
+      <c r="F230" s="11">
+        <v>53778</v>
+      </c>
+      <c r="G230" s="11">
+        <v>80748</v>
+      </c>
+      <c r="H230" s="11">
+        <v>75570</v>
+      </c>
+      <c r="I230" s="11">
+        <v>88417</v>
+      </c>
+      <c r="J230" s="11">
+        <v>125254</v>
+      </c>
+      <c r="K230" s="11">
+        <v>113387</v>
+      </c>
+      <c r="L230" s="11">
+        <v>183465</v>
+      </c>
+      <c r="M230" s="11">
+        <v>226301</v>
+      </c>
+      <c r="N230" s="11">
+        <v>239143</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B231" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" s="15"/>
+      <c r="D231" s="15"/>
+      <c r="E231" s="15">
+        <v>-613542</v>
+      </c>
+      <c r="F231" s="15">
+        <v>226708</v>
+      </c>
+      <c r="G231" s="15">
+        <v>386833</v>
+      </c>
+      <c r="H231" s="15">
+        <v>301358</v>
+      </c>
+      <c r="I231" s="15">
+        <v>423485</v>
+      </c>
+      <c r="J231" s="15">
+        <v>406020</v>
+      </c>
+      <c r="K231" s="15">
+        <v>579034</v>
+      </c>
+      <c r="L231" s="15">
+        <v>528099</v>
+      </c>
+      <c r="M231" s="15">
+        <v>815630</v>
+      </c>
+      <c r="N231" s="15">
+        <v>744719</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="1"/>
+      <c r="N234" s="1"/>
+    </row>
+    <row r="235" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B235" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="6"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="1"/>
+      <c r="N235" s="1"/>
+    </row>
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="1"/>
+      <c r="N236" s="1"/>
+    </row>
+    <row r="237" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B237" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="9"/>
+    </row>
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B238" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D238" s="11"/>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+    </row>
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B239" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C239" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C129" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B130" s="10" t="s">
+      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="9"/>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B240" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C240" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D240" s="11"/>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+    </row>
+    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B241" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="8" t="s">
+      <c r="C241" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="9"/>
+    </row>
+    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B242" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C242" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+    </row>
+    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B243" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D243" s="9"/>
+      <c r="E243" s="9"/>
+      <c r="F243" s="9"/>
+    </row>
+    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B244" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D244" s="11"/>
+      <c r="E244" s="11"/>
+      <c r="F244" s="11"/>
+    </row>
+    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B245" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D245" s="9"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9"/>
+    </row>
+    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B246" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D246" s="11"/>
+      <c r="E246" s="11"/>
+      <c r="F246" s="11"/>
+    </row>
+    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B247" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/pekavir/cost/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C61867-2C60-45F9-B8B7-9139112D89FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EFE721-09B1-4AED-B827-A7E99D679018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,18 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -49,6 +61,9 @@
     <t>فصل سوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -82,6 +97,9 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>بهای تمام شده کالای فروش رفته</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
   </si>
   <si>
     <t>میلیون ریال</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>مواد شیمیائی و روغن و....</t>
@@ -706,16 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I199"/>
+  <dimension ref="B1:N199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -724,8 +739,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,8 +756,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -748,8 +773,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -758,8 +788,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -770,8 +805,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -782,8 +822,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -792,8 +837,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -814,8 +864,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -824,98 +889,163 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>1292471</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2953727</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2764025</v>
+      </c>
+      <c r="H10" s="9">
+        <v>3045910</v>
+      </c>
+      <c r="I10" s="9">
         <v>3127914</v>
       </c>
-      <c r="F10" s="9">
+      <c r="J10" s="9">
         <v>3258452</v>
       </c>
-      <c r="G10" s="9">
+      <c r="K10" s="9">
         <v>3873102</v>
       </c>
-      <c r="H10" s="9">
+      <c r="L10" s="9">
         <v>4428292</v>
       </c>
-      <c r="I10" s="9">
+      <c r="M10" s="9">
         <v>4691247</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N10" s="9">
+        <v>4454848</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>142527</v>
+      </c>
+      <c r="F11" s="11">
+        <v>236505</v>
+      </c>
+      <c r="G11" s="11">
+        <v>141235</v>
+      </c>
+      <c r="H11" s="11">
+        <v>278924</v>
+      </c>
+      <c r="I11" s="11">
         <v>188001</v>
       </c>
-      <c r="F11" s="11">
+      <c r="J11" s="11">
         <v>265992</v>
       </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
         <v>215007</v>
       </c>
-      <c r="H11" s="11">
+      <c r="L11" s="11">
         <v>485162</v>
       </c>
-      <c r="I11" s="11">
+      <c r="M11" s="11">
         <v>346965</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="11">
+        <v>394292</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>226708</v>
+      </c>
+      <c r="F12" s="9">
+        <v>386833</v>
+      </c>
+      <c r="G12" s="9">
+        <v>301358</v>
+      </c>
+      <c r="H12" s="9">
+        <v>423485</v>
+      </c>
+      <c r="I12" s="9">
         <v>406020</v>
       </c>
-      <c r="F12" s="9">
+      <c r="J12" s="9">
         <v>579034</v>
       </c>
-      <c r="G12" s="9">
+      <c r="K12" s="9">
         <v>528099</v>
       </c>
-      <c r="H12" s="9">
+      <c r="L12" s="9">
         <v>815630</v>
       </c>
-      <c r="I12" s="9">
+      <c r="M12" s="9">
         <v>744719</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N12" s="9">
+        <v>896282</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>1661706</v>
+      </c>
+      <c r="F13" s="13">
+        <v>3577065</v>
+      </c>
+      <c r="G13" s="13">
+        <v>3206618</v>
+      </c>
+      <c r="H13" s="13">
+        <v>3748319</v>
+      </c>
+      <c r="I13" s="13">
         <v>3721935</v>
       </c>
-      <c r="F13" s="13">
+      <c r="J13" s="13">
         <v>4103478</v>
       </c>
-      <c r="G13" s="13">
+      <c r="K13" s="13">
         <v>4616208</v>
       </c>
-      <c r="H13" s="13">
+      <c r="L13" s="13">
         <v>5729084</v>
       </c>
-      <c r="I13" s="13">
+      <c r="M13" s="13">
         <v>5782931</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="13">
+        <v>5745422</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -934,54 +1064,99 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>1661706</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3577065</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3206618</v>
+      </c>
+      <c r="H15" s="13">
+        <v>3748319</v>
+      </c>
+      <c r="I15" s="13">
         <v>3721935</v>
       </c>
-      <c r="F15" s="13">
+      <c r="J15" s="13">
         <v>4103478</v>
       </c>
-      <c r="G15" s="13">
+      <c r="K15" s="13">
         <v>4616208</v>
       </c>
-      <c r="H15" s="13">
+      <c r="L15" s="13">
         <v>5729084</v>
       </c>
-      <c r="I15" s="13">
+      <c r="M15" s="13">
         <v>5782931</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="13">
+        <v>5745422</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>136206</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-162926</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-173817</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-39481</v>
+      </c>
+      <c r="I16" s="9">
         <v>50034</v>
       </c>
-      <c r="F16" s="9">
+      <c r="J16" s="9">
         <v>6391</v>
       </c>
-      <c r="G16" s="9">
+      <c r="K16" s="9">
         <v>-217757</v>
       </c>
-      <c r="H16" s="9">
+      <c r="L16" s="9">
         <v>218295</v>
       </c>
-      <c r="I16" s="9">
+      <c r="M16" s="9">
         <v>-52089</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="9">
+        <v>52304</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1000,98 +1175,173 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>1797912</v>
+      </c>
+      <c r="F18" s="15">
+        <v>3414139</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3032801</v>
+      </c>
+      <c r="H18" s="15">
+        <v>3708838</v>
+      </c>
+      <c r="I18" s="15">
         <v>3771969</v>
       </c>
-      <c r="F18" s="15">
+      <c r="J18" s="15">
         <v>4109869</v>
       </c>
-      <c r="G18" s="15">
+      <c r="K18" s="15">
         <v>4398451</v>
       </c>
-      <c r="H18" s="15">
+      <c r="L18" s="15">
         <v>5947379</v>
       </c>
-      <c r="I18" s="15">
+      <c r="M18" s="15">
         <v>5730842</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>5797726</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11">
+        <v>25774</v>
+      </c>
+      <c r="G19" s="11">
+        <v>70628</v>
+      </c>
+      <c r="H19" s="11">
+        <v>7836</v>
+      </c>
+      <c r="I19" s="11">
         <v>241798</v>
       </c>
-      <c r="F19" s="11">
-        <v>231749</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="J19" s="11">
+        <v>382054</v>
+      </c>
+      <c r="K19" s="11">
         <v>75205</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
         <v>314487</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>413055</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-25774</v>
+      </c>
+      <c r="F20" s="9">
+        <v>-79364</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-392103</v>
+      </c>
+      <c r="H20" s="9">
+        <v>241798</v>
+      </c>
+      <c r="I20" s="9">
         <v>-382054</v>
       </c>
-      <c r="F20" s="9">
-        <v>-75205</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="J20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="9">
         <v>-483814</v>
       </c>
-      <c r="H20" s="9">
+      <c r="L20" s="9">
         <v>314487</v>
       </c>
-      <c r="I20" s="9">
+      <c r="M20" s="9">
         <v>-413055</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N20" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>1772138</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3490031</v>
+      </c>
+      <c r="G21" s="13">
+        <v>2711326</v>
+      </c>
+      <c r="H21" s="13">
+        <v>3958472</v>
+      </c>
+      <c r="I21" s="13">
         <v>3540220</v>
       </c>
-      <c r="F21" s="13">
+      <c r="J21" s="13">
         <v>4415713</v>
       </c>
-      <c r="G21" s="13">
+      <c r="K21" s="13">
         <v>3989842</v>
       </c>
-      <c r="H21" s="13">
+      <c r="L21" s="13">
         <v>6261866</v>
       </c>
-      <c r="I21" s="13">
+      <c r="M21" s="13">
         <v>5487114</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N21" s="13">
+        <v>6154017</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1110,30 +1360,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>1772138</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3490031</v>
+      </c>
+      <c r="G23" s="13">
+        <v>2711326</v>
+      </c>
+      <c r="H23" s="13">
+        <v>3958472</v>
+      </c>
+      <c r="I23" s="13">
         <v>3540220</v>
       </c>
-      <c r="F23" s="13">
+      <c r="J23" s="13">
         <v>4415713</v>
       </c>
-      <c r="G23" s="13">
+      <c r="K23" s="13">
         <v>3989842</v>
       </c>
-      <c r="H23" s="13">
+      <c r="L23" s="13">
         <v>6261866</v>
       </c>
-      <c r="I23" s="13">
+      <c r="M23" s="13">
         <v>5487114</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N23" s="13">
+        <v>6154017</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1142,8 +1422,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1152,8 +1437,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1162,10 +1452,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1184,8 +1479,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1194,198 +1504,323 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>740597</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1068384</v>
+      </c>
+      <c r="G30" s="11">
+        <v>745548</v>
+      </c>
+      <c r="H30" s="11">
+        <v>795476</v>
+      </c>
+      <c r="I30" s="11">
         <v>757065</v>
       </c>
-      <c r="F30" s="11">
+      <c r="J30" s="11">
         <v>800790</v>
       </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11">
         <v>947577</v>
       </c>
-      <c r="H30" s="11">
+      <c r="L30" s="11">
         <v>988862</v>
       </c>
-      <c r="I30" s="11">
+      <c r="M30" s="11">
         <v>734087</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N30" s="11">
+        <v>1012790</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>1073270</v>
+      </c>
+      <c r="F31" s="9">
+        <v>820029</v>
+      </c>
+      <c r="G31" s="9">
+        <v>1236307</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1169215</v>
+      </c>
+      <c r="I31" s="9">
         <v>709039</v>
       </c>
-      <c r="F31" s="9">
+      <c r="J31" s="9">
         <v>563030</v>
       </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9">
         <v>817132</v>
       </c>
-      <c r="H31" s="9">
+      <c r="L31" s="9">
         <v>797271</v>
       </c>
-      <c r="I31" s="9">
+      <c r="M31" s="9">
         <v>1284219</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="9">
+        <v>821003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>806630</v>
+      </c>
+      <c r="F32" s="11">
+        <v>827365</v>
+      </c>
+      <c r="G32" s="11">
+        <v>949730</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1107515</v>
+      </c>
+      <c r="I32" s="11">
         <v>841235</v>
       </c>
-      <c r="F32" s="11">
+      <c r="J32" s="11">
         <v>495315</v>
       </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11">
         <v>675695</v>
       </c>
-      <c r="H32" s="11">
+      <c r="L32" s="11">
         <v>773180</v>
       </c>
-      <c r="I32" s="11">
+      <c r="M32" s="11">
         <v>723465</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N32" s="11">
+        <v>772435</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
+        <v>384411</v>
+      </c>
+      <c r="F33" s="9">
+        <v>478800</v>
+      </c>
+      <c r="G33" s="9">
+        <v>319002</v>
+      </c>
+      <c r="H33" s="9">
+        <v>705822</v>
+      </c>
+      <c r="I33" s="9">
         <v>527351</v>
       </c>
-      <c r="F33" s="9">
+      <c r="J33" s="9">
         <v>680960</v>
       </c>
-      <c r="G33" s="9">
+      <c r="K33" s="9">
         <v>501970</v>
       </c>
-      <c r="H33" s="9">
+      <c r="L33" s="9">
         <v>141435</v>
       </c>
-      <c r="I33" s="9">
+      <c r="M33" s="9">
         <v>117355</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N33" s="9">
+        <v>229460</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
+        <v>759600</v>
+      </c>
+      <c r="F34" s="11">
+        <v>749354</v>
+      </c>
+      <c r="G34" s="11">
+        <v>505380</v>
+      </c>
+      <c r="H34" s="11">
+        <v>574620</v>
+      </c>
+      <c r="I34" s="11">
         <v>1132800</v>
       </c>
-      <c r="F34" s="11">
+      <c r="J34" s="11">
         <v>1019260</v>
       </c>
-      <c r="G34" s="11">
+      <c r="K34" s="11">
         <v>1078500</v>
       </c>
-      <c r="H34" s="11">
+      <c r="L34" s="11">
         <v>1013640</v>
       </c>
-      <c r="I34" s="11">
+      <c r="M34" s="11">
         <v>742100</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N34" s="11">
+        <v>1163370</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>3764508</v>
+      </c>
+      <c r="F36" s="13">
+        <v>3943932</v>
+      </c>
+      <c r="G36" s="13">
+        <v>3755967</v>
+      </c>
+      <c r="H36" s="13">
+        <v>4352648</v>
+      </c>
+      <c r="I36" s="13">
         <v>3967490</v>
       </c>
-      <c r="F36" s="13">
+      <c r="J36" s="13">
         <v>3559355</v>
       </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13">
         <v>4020874</v>
       </c>
-      <c r="H36" s="13">
+      <c r="L36" s="13">
         <v>3714388</v>
       </c>
-      <c r="I36" s="13">
+      <c r="M36" s="13">
         <v>3601226</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N36" s="13">
+        <v>3999058</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1394,8 +1829,13 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1404,8 +1844,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1414,10 +1859,15 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1436,8 +1886,23 @@
       <c r="I40" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1446,198 +1911,323 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
+        <v>1284585</v>
+      </c>
+      <c r="F43" s="11">
+        <v>842953</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1020495</v>
+      </c>
+      <c r="H43" s="11">
+        <v>856668</v>
+      </c>
+      <c r="I43" s="11">
         <v>1077466</v>
       </c>
-      <c r="F43" s="11">
+      <c r="J43" s="11">
         <v>1188919</v>
       </c>
-      <c r="G43" s="11">
+      <c r="K43" s="11">
         <v>1163107</v>
       </c>
-      <c r="H43" s="11">
+      <c r="L43" s="11">
         <v>900763</v>
       </c>
-      <c r="I43" s="11">
+      <c r="M43" s="11">
         <v>1346828</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N43" s="11">
+        <v>1067973</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
+        <v>917572</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1637570</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1078060</v>
+      </c>
+      <c r="H44" s="9">
+        <v>671540</v>
+      </c>
+      <c r="I44" s="9">
         <v>969424</v>
       </c>
-      <c r="F44" s="9">
+      <c r="J44" s="9">
         <v>1455877</v>
       </c>
-      <c r="G44" s="9">
+      <c r="K44" s="9">
         <v>1258325</v>
       </c>
-      <c r="H44" s="9">
+      <c r="L44" s="9">
         <v>1926730</v>
       </c>
-      <c r="I44" s="9">
+      <c r="M44" s="9">
         <v>852368</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N44" s="9">
+        <v>1446415</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>2321680</v>
+      </c>
+      <c r="F45" s="11">
+        <v>2465270</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2315280</v>
+      </c>
+      <c r="H45" s="11">
+        <v>1974980</v>
+      </c>
+      <c r="I45" s="11">
         <v>1906850</v>
       </c>
-      <c r="F45" s="11">
+      <c r="J45" s="11">
         <v>2457720</v>
       </c>
-      <c r="G45" s="11">
+      <c r="K45" s="11">
         <v>2572090</v>
       </c>
-      <c r="H45" s="11">
+      <c r="L45" s="11">
         <v>2449970</v>
       </c>
-      <c r="I45" s="11">
+      <c r="M45" s="11">
         <v>2412960</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N45" s="11">
+        <v>2433970</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
+        <v>1408680</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1111764</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1632960</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1134560</v>
+      </c>
+      <c r="I46" s="9">
         <v>1446480</v>
       </c>
-      <c r="F46" s="9">
+      <c r="J46" s="9">
         <v>1229760</v>
       </c>
-      <c r="G46" s="9">
+      <c r="K46" s="9">
         <v>1088640</v>
       </c>
-      <c r="H46" s="9">
+      <c r="L46" s="9">
         <v>1278900</v>
       </c>
-      <c r="I46" s="9">
+      <c r="M46" s="9">
         <v>1518300</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N46" s="9">
+        <v>1552542</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>1990294</v>
+      </c>
+      <c r="F47" s="11">
+        <v>1713360</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1931132</v>
+      </c>
+      <c r="H47" s="11">
+        <v>2435906</v>
+      </c>
+      <c r="I47" s="11">
         <v>1833854</v>
       </c>
-      <c r="F47" s="11">
+      <c r="J47" s="11">
         <v>1963352</v>
       </c>
-      <c r="G47" s="11">
+      <c r="K47" s="11">
         <v>2071170</v>
       </c>
-      <c r="H47" s="11">
+      <c r="L47" s="11">
         <v>1900216</v>
       </c>
-      <c r="I47" s="11">
+      <c r="M47" s="11">
         <v>2526300</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N47" s="11">
+        <v>1930736</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H48" s="9">
+        <v>0</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
+        <v>7922811</v>
+      </c>
+      <c r="F49" s="13">
+        <v>7770917</v>
+      </c>
+      <c r="G49" s="13">
+        <v>7977927</v>
+      </c>
+      <c r="H49" s="13">
+        <v>7073654</v>
+      </c>
+      <c r="I49" s="13">
         <v>7234074</v>
       </c>
-      <c r="F49" s="13">
+      <c r="J49" s="13">
         <v>8295628</v>
       </c>
-      <c r="G49" s="13">
+      <c r="K49" s="13">
         <v>8153332</v>
       </c>
-      <c r="H49" s="13">
+      <c r="L49" s="13">
         <v>8456579</v>
       </c>
-      <c r="I49" s="13">
+      <c r="M49" s="13">
         <v>8656756</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N49" s="13">
+        <v>8431636</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1646,8 +2236,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1656,8 +2251,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1666,10 +2266,15 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -1688,8 +2293,23 @@
       <c r="I53" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1698,198 +2318,323 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
+        <v>956798</v>
+      </c>
+      <c r="F56" s="11">
+        <v>1163864</v>
+      </c>
+      <c r="G56" s="11">
+        <v>970567</v>
+      </c>
+      <c r="H56" s="11">
+        <v>895079</v>
+      </c>
+      <c r="I56" s="11">
         <v>1033741</v>
       </c>
-      <c r="F56" s="11">
+      <c r="J56" s="11">
         <v>1053057</v>
       </c>
-      <c r="G56" s="11">
+      <c r="K56" s="11">
         <v>1121822</v>
       </c>
-      <c r="H56" s="11">
+      <c r="L56" s="11">
         <v>1144613</v>
       </c>
-      <c r="I56" s="11">
+      <c r="M56" s="11">
         <v>1068125</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N56" s="11">
+        <v>1101073</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>1170813</v>
+      </c>
+      <c r="F57" s="9">
+        <v>1221292</v>
+      </c>
+      <c r="G57" s="9">
+        <v>1145152</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1131716</v>
+      </c>
+      <c r="I57" s="9">
         <v>1115433</v>
       </c>
-      <c r="F57" s="9">
+      <c r="J57" s="9">
         <v>1230727</v>
       </c>
-      <c r="G57" s="9">
+      <c r="K57" s="9">
         <v>1278186</v>
       </c>
-      <c r="H57" s="9">
+      <c r="L57" s="9">
         <v>1410830</v>
       </c>
-      <c r="I57" s="9">
+      <c r="M57" s="9">
         <v>1315584</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N57" s="9">
+        <v>1340344</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>2300945</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2340955</v>
+      </c>
+      <c r="G58" s="11">
+        <v>2157495</v>
+      </c>
+      <c r="H58" s="11">
+        <v>2241260</v>
+      </c>
+      <c r="I58" s="11">
         <v>2252770</v>
       </c>
-      <c r="F58" s="11">
+      <c r="J58" s="11">
         <v>2255650</v>
       </c>
-      <c r="G58" s="11">
+      <c r="K58" s="11">
         <v>2474605</v>
       </c>
-      <c r="H58" s="11">
+      <c r="L58" s="11">
         <v>2521375</v>
       </c>
-      <c r="I58" s="11">
+      <c r="M58" s="11">
         <v>2363990</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N58" s="11">
+        <v>2366665</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>1314291</v>
+      </c>
+      <c r="F59" s="9">
+        <v>1311882</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1246140</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1313031</v>
+      </c>
+      <c r="I59" s="9">
         <v>1292871</v>
       </c>
-      <c r="F59" s="9">
+      <c r="J59" s="9">
         <v>1307950</v>
       </c>
-      <c r="G59" s="9">
+      <c r="K59" s="9">
         <v>1449175</v>
       </c>
-      <c r="H59" s="9">
+      <c r="L59" s="9">
         <v>1403780</v>
       </c>
-      <c r="I59" s="9">
+      <c r="M59" s="9">
         <v>1406195</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N59" s="9">
+        <v>1378691</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>2000540</v>
+      </c>
+      <c r="F60" s="11">
+        <v>1957334</v>
+      </c>
+      <c r="G60" s="11">
+        <v>1861892</v>
+      </c>
+      <c r="H60" s="11">
+        <v>1877726</v>
+      </c>
+      <c r="I60" s="11">
         <v>1947394</v>
       </c>
-      <c r="F60" s="11">
+      <c r="J60" s="11">
         <v>1904112</v>
       </c>
-      <c r="G60" s="11">
+      <c r="K60" s="11">
         <v>2136030</v>
       </c>
-      <c r="H60" s="11">
+      <c r="L60" s="11">
         <v>2171756</v>
       </c>
-      <c r="I60" s="11">
+      <c r="M60" s="11">
         <v>2105030</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N60" s="11">
+        <v>1971726</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H61" s="9">
+        <v>0</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>7743387</v>
+      </c>
+      <c r="F62" s="13">
+        <v>7995327</v>
+      </c>
+      <c r="G62" s="13">
+        <v>7381246</v>
+      </c>
+      <c r="H62" s="13">
+        <v>7458812</v>
+      </c>
+      <c r="I62" s="13">
         <v>7642209</v>
       </c>
-      <c r="F62" s="13">
+      <c r="J62" s="13">
         <v>7751496</v>
       </c>
-      <c r="G62" s="13">
+      <c r="K62" s="13">
         <v>8459818</v>
       </c>
-      <c r="H62" s="13">
+      <c r="L62" s="13">
         <v>8652354</v>
       </c>
-      <c r="I62" s="13">
+      <c r="M62" s="13">
         <v>8258924</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="13">
+        <v>8158499</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1898,8 +2643,13 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1908,8 +2658,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1918,10 +2673,15 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1940,8 +2700,23 @@
       <c r="I66" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1950,198 +2725,323 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H68" s="9">
+        <v>0</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>1068384</v>
+      </c>
+      <c r="F69" s="11">
+        <v>747473</v>
+      </c>
+      <c r="G69" s="11">
+        <v>795476</v>
+      </c>
+      <c r="H69" s="11">
+        <v>757065</v>
+      </c>
+      <c r="I69" s="11">
         <v>800790</v>
       </c>
-      <c r="F69" s="11">
+      <c r="J69" s="11">
         <v>936652</v>
       </c>
-      <c r="G69" s="11">
+      <c r="K69" s="11">
         <v>988862</v>
       </c>
-      <c r="H69" s="11">
+      <c r="L69" s="11">
         <v>734087</v>
       </c>
-      <c r="I69" s="11">
+      <c r="M69" s="11">
         <v>1012790</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N69" s="11">
+        <v>979690</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
+        <v>820029</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1236307</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1169215</v>
+      </c>
+      <c r="H70" s="9">
+        <v>709039</v>
+      </c>
+      <c r="I70" s="9">
         <v>563030</v>
       </c>
-      <c r="F70" s="9">
+      <c r="J70" s="9">
         <v>788180</v>
       </c>
-      <c r="G70" s="9">
+      <c r="K70" s="9">
         <v>797271</v>
       </c>
-      <c r="H70" s="9">
+      <c r="L70" s="9">
         <v>1284219</v>
       </c>
-      <c r="I70" s="9">
+      <c r="M70" s="9">
         <v>821003</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N70" s="9">
+        <v>927074</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
+        <v>827365</v>
+      </c>
+      <c r="F71" s="11">
+        <v>951680</v>
+      </c>
+      <c r="G71" s="11">
+        <v>1107515</v>
+      </c>
+      <c r="H71" s="11">
+        <v>841235</v>
+      </c>
+      <c r="I71" s="11">
         <v>495315</v>
       </c>
-      <c r="F71" s="11">
+      <c r="J71" s="11">
         <v>697385</v>
       </c>
-      <c r="G71" s="11">
+      <c r="K71" s="11">
         <v>773180</v>
       </c>
-      <c r="H71" s="11">
+      <c r="L71" s="11">
         <v>723465</v>
       </c>
-      <c r="I71" s="11">
+      <c r="M71" s="11">
         <v>772435</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N71" s="11">
+        <v>839740</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
+        <v>478800</v>
+      </c>
+      <c r="F72" s="9">
+        <v>278682</v>
+      </c>
+      <c r="G72" s="9">
+        <v>705822</v>
+      </c>
+      <c r="H72" s="9">
+        <v>527351</v>
+      </c>
+      <c r="I72" s="9">
         <v>680960</v>
       </c>
-      <c r="F72" s="9">
+      <c r="J72" s="9">
         <v>602770</v>
       </c>
-      <c r="G72" s="9">
+      <c r="K72" s="9">
         <v>141435</v>
       </c>
-      <c r="H72" s="9">
+      <c r="L72" s="9">
         <v>117355</v>
       </c>
-      <c r="I72" s="9">
+      <c r="M72" s="9">
         <v>229460</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N72" s="9">
+        <v>403311</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
+        <v>749354</v>
+      </c>
+      <c r="F73" s="11">
+        <v>505380</v>
+      </c>
+      <c r="G73" s="11">
+        <v>574620</v>
+      </c>
+      <c r="H73" s="11">
+        <v>1132800</v>
+      </c>
+      <c r="I73" s="11">
         <v>1019260</v>
       </c>
-      <c r="F73" s="11">
+      <c r="J73" s="11">
         <v>1078500</v>
       </c>
-      <c r="G73" s="11">
+      <c r="K73" s="11">
         <v>1013640</v>
       </c>
-      <c r="H73" s="11">
+      <c r="L73" s="11">
         <v>742100</v>
       </c>
-      <c r="I73" s="11">
+      <c r="M73" s="11">
         <v>1163370</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N73" s="11">
+        <v>1122380</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
+        <v>3943932</v>
+      </c>
+      <c r="F75" s="13">
+        <v>3719522</v>
+      </c>
+      <c r="G75" s="13">
+        <v>4352648</v>
+      </c>
+      <c r="H75" s="13">
+        <v>3967490</v>
+      </c>
+      <c r="I75" s="13">
         <v>3559355</v>
       </c>
-      <c r="F75" s="13">
+      <c r="J75" s="13">
         <v>4103487</v>
       </c>
-      <c r="G75" s="13">
+      <c r="K75" s="13">
         <v>3714388</v>
       </c>
-      <c r="H75" s="13">
+      <c r="L75" s="13">
         <v>3601226</v>
       </c>
-      <c r="I75" s="13">
+      <c r="M75" s="13">
         <v>3999058</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N75" s="13">
+        <v>4272195</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2150,8 +3050,13 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2160,8 +3065,13 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2170,10 +3080,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2192,8 +3107,23 @@
       <c r="I79" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2202,198 +3132,323 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
+        <v>125224</v>
+      </c>
+      <c r="F82" s="11">
+        <v>271105</v>
+      </c>
+      <c r="G82" s="11">
+        <v>323485</v>
+      </c>
+      <c r="H82" s="11">
+        <v>471375</v>
+      </c>
+      <c r="I82" s="11">
         <v>406900</v>
       </c>
-      <c r="F82" s="11">
+      <c r="J82" s="11">
         <v>475934</v>
       </c>
-      <c r="G82" s="11">
+      <c r="K82" s="11">
         <v>523335</v>
       </c>
-      <c r="H82" s="11">
+      <c r="L82" s="11">
         <v>589728</v>
       </c>
-      <c r="I82" s="11">
+      <c r="M82" s="11">
         <v>550475</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N82" s="11">
+        <v>662177</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
+        <v>246731</v>
+      </c>
+      <c r="F83" s="9">
+        <v>271048</v>
+      </c>
+      <c r="G83" s="9">
+        <v>547799</v>
+      </c>
+      <c r="H83" s="9">
+        <v>553102</v>
+      </c>
+      <c r="I83" s="9">
         <v>370831</v>
       </c>
-      <c r="F83" s="9">
+      <c r="J83" s="9">
         <v>393923</v>
       </c>
-      <c r="G83" s="9">
+      <c r="K83" s="9">
         <v>542312</v>
       </c>
-      <c r="H83" s="9">
+      <c r="L83" s="9">
         <v>546765</v>
       </c>
-      <c r="I83" s="9">
+      <c r="M83" s="9">
         <v>845974</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N83" s="9">
+        <v>660877</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
+        <v>117066</v>
+      </c>
+      <c r="F84" s="11">
+        <v>230435</v>
+      </c>
+      <c r="G84" s="11">
+        <v>509158</v>
+      </c>
+      <c r="H84" s="11">
+        <v>571148</v>
+      </c>
+      <c r="I84" s="11">
         <v>417627</v>
       </c>
-      <c r="F84" s="11">
+      <c r="J84" s="11">
         <v>349148</v>
       </c>
-      <c r="G84" s="11">
+      <c r="K84" s="11">
         <v>430614</v>
       </c>
-      <c r="H84" s="11">
+      <c r="L84" s="11">
         <v>424887</v>
       </c>
-      <c r="I84" s="11">
+      <c r="M84" s="11">
         <v>444896</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N84" s="11">
+        <v>444472</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C85" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>32299</v>
+      </c>
+      <c r="F85" s="9">
+        <v>-67656</v>
+      </c>
+      <c r="G85" s="9">
+        <v>124902</v>
+      </c>
+      <c r="H85" s="9">
+        <v>367960</v>
+      </c>
+      <c r="I85" s="9">
         <v>291728</v>
       </c>
-      <c r="F85" s="9">
+      <c r="J85" s="9">
         <v>340802</v>
       </c>
-      <c r="G85" s="9">
+      <c r="K85" s="9">
         <v>234539</v>
       </c>
-      <c r="H85" s="9">
+      <c r="L85" s="9">
         <v>71989</v>
       </c>
-      <c r="I85" s="9">
+      <c r="M85" s="9">
         <v>65714</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N85" s="9">
+        <v>126113</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>67286</v>
+      </c>
+      <c r="F86" s="11">
+        <v>67145</v>
+      </c>
+      <c r="G86" s="11">
+        <v>64796</v>
+      </c>
+      <c r="H86" s="11">
+        <v>107378</v>
+      </c>
+      <c r="I86" s="11">
         <v>267254</v>
       </c>
-      <c r="F86" s="11">
+      <c r="J86" s="11">
         <v>266825</v>
       </c>
-      <c r="G86" s="11">
+      <c r="K86" s="11">
         <v>294759</v>
       </c>
-      <c r="H86" s="11">
+      <c r="L86" s="11">
         <v>307319</v>
       </c>
-      <c r="I86" s="11">
+      <c r="M86" s="11">
         <v>295676</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N86" s="11">
+        <v>527858</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
+        <v>588606</v>
+      </c>
+      <c r="F88" s="13">
+        <v>772077</v>
+      </c>
+      <c r="G88" s="13">
+        <v>1570140</v>
+      </c>
+      <c r="H88" s="13">
+        <v>2070963</v>
+      </c>
+      <c r="I88" s="13">
         <v>1754340</v>
       </c>
-      <c r="F88" s="13">
+      <c r="J88" s="13">
         <v>1826632</v>
       </c>
-      <c r="G88" s="13">
+      <c r="K88" s="13">
         <v>2025559</v>
       </c>
-      <c r="H88" s="13">
+      <c r="L88" s="13">
         <v>1940688</v>
       </c>
-      <c r="I88" s="13">
+      <c r="M88" s="13">
         <v>2202735</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N88" s="13">
+        <v>2421497</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2402,8 +3457,13 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2412,8 +3472,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2422,10 +3487,15 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2444,8 +3514,23 @@
       <c r="I92" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2454,198 +3539,323 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H94" s="9">
+        <v>0</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
+        <v>322965</v>
+      </c>
+      <c r="F95" s="11">
+        <v>336530</v>
+      </c>
+      <c r="G95" s="11">
+        <v>491287</v>
+      </c>
+      <c r="H95" s="11">
+        <v>300740</v>
+      </c>
+      <c r="I95" s="11">
         <v>481993</v>
       </c>
-      <c r="F95" s="11">
+      <c r="J95" s="11">
         <v>503193</v>
       </c>
-      <c r="G95" s="11">
+      <c r="K95" s="11">
         <v>598672</v>
       </c>
-      <c r="H95" s="11">
+      <c r="L95" s="11">
         <v>576756</v>
       </c>
-      <c r="I95" s="11">
+      <c r="M95" s="11">
         <v>767346</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N95" s="11">
+        <v>771964</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
+        <v>365369</v>
+      </c>
+      <c r="F96" s="9">
+        <v>808790</v>
+      </c>
+      <c r="G96" s="9">
+        <v>549631</v>
+      </c>
+      <c r="H96" s="9">
+        <v>383605</v>
+      </c>
+      <c r="I96" s="9">
         <v>672611</v>
       </c>
-      <c r="F96" s="9">
+      <c r="J96" s="9">
         <v>898009</v>
       </c>
-      <c r="G96" s="9">
+      <c r="K96" s="9">
         <v>873701</v>
       </c>
-      <c r="H96" s="9">
+      <c r="L96" s="9">
         <v>1302736</v>
       </c>
-      <c r="I96" s="9">
+      <c r="M96" s="9">
         <v>782674</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N96" s="9">
+        <v>1032642</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
+        <v>498987</v>
+      </c>
+      <c r="F97" s="11">
+        <v>1073336</v>
+      </c>
+      <c r="G97" s="11">
+        <v>1023398</v>
+      </c>
+      <c r="H97" s="11">
+        <v>855396</v>
+      </c>
+      <c r="I97" s="11">
         <v>886627</v>
       </c>
-      <c r="F97" s="11">
+      <c r="J97" s="11">
         <v>1092804</v>
       </c>
-      <c r="G97" s="11">
+      <c r="K97" s="11">
         <v>1181325</v>
       </c>
-      <c r="H97" s="11">
+      <c r="L97" s="11">
         <v>1317175</v>
       </c>
-      <c r="I97" s="11">
+      <c r="M97" s="11">
         <v>1265717</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N97" s="11">
+        <v>1171115</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
+        <v>115652</v>
+      </c>
+      <c r="F98" s="9">
+        <v>408498</v>
+      </c>
+      <c r="G98" s="9">
+        <v>838948</v>
+      </c>
+      <c r="H98" s="9">
+        <v>616805</v>
+      </c>
+      <c r="I98" s="9">
         <v>688513</v>
       </c>
-      <c r="F98" s="9">
+      <c r="J98" s="9">
         <v>492576</v>
       </c>
-      <c r="G98" s="9">
+      <c r="K98" s="9">
         <v>519738</v>
       </c>
-      <c r="H98" s="9">
+      <c r="L98" s="9">
         <v>710987</v>
       </c>
-      <c r="I98" s="9">
+      <c r="M98" s="9">
         <v>935119</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N98" s="9">
+        <v>825464</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
+        <v>172969</v>
+      </c>
+      <c r="F99" s="11">
+        <v>218659</v>
+      </c>
+      <c r="G99" s="11">
+        <v>361584</v>
+      </c>
+      <c r="H99" s="11">
+        <v>572741</v>
+      </c>
+      <c r="I99" s="11">
         <v>471462</v>
       </c>
-      <c r="F99" s="11">
+      <c r="J99" s="11">
         <v>525432</v>
       </c>
-      <c r="G99" s="11">
+      <c r="K99" s="11">
         <v>614795</v>
       </c>
-      <c r="H99" s="11">
+      <c r="L99" s="11">
         <v>727050</v>
       </c>
-      <c r="I99" s="11">
+      <c r="M99" s="11">
         <v>1159153</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N99" s="11">
+        <v>746333</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H100" s="9">
+        <v>0</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N100" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
+        <v>1475942</v>
+      </c>
+      <c r="F101" s="13">
+        <v>2845813</v>
+      </c>
+      <c r="G101" s="13">
+        <v>3264848</v>
+      </c>
+      <c r="H101" s="13">
+        <v>2729287</v>
+      </c>
+      <c r="I101" s="13">
         <v>3201206</v>
       </c>
-      <c r="F101" s="13">
+      <c r="J101" s="13">
         <v>3512014</v>
       </c>
-      <c r="G101" s="13">
+      <c r="K101" s="13">
         <v>3788231</v>
       </c>
-      <c r="H101" s="13">
+      <c r="L101" s="13">
         <v>4634704</v>
       </c>
-      <c r="I101" s="13">
+      <c r="M101" s="13">
         <v>4910009</v>
       </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N101" s="13">
+        <v>4547518</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2654,8 +3864,13 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2664,8 +3879,13 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2674,10 +3894,15 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-    </row>
-    <row r="105" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2696,8 +3921,23 @@
       <c r="I105" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N105" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2706,198 +3946,323 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H107" s="9">
+        <v>0</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M107" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N107" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
+        <v>177084</v>
+      </c>
+      <c r="F108" s="11">
+        <v>278219</v>
+      </c>
+      <c r="G108" s="11">
+        <v>343397</v>
+      </c>
+      <c r="H108" s="11">
+        <v>365215</v>
+      </c>
+      <c r="I108" s="11">
         <v>412959</v>
       </c>
-      <c r="F108" s="11">
+      <c r="J108" s="11">
         <v>447743</v>
       </c>
-      <c r="G108" s="11">
+      <c r="K108" s="11">
         <v>532279</v>
       </c>
-      <c r="H108" s="11">
+      <c r="L108" s="11">
         <v>624058</v>
       </c>
-      <c r="I108" s="11">
+      <c r="M108" s="11">
         <v>655644</v>
       </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N108" s="11">
+        <v>660497</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
+        <v>341052</v>
+      </c>
+      <c r="F109" s="9">
+        <v>532039</v>
+      </c>
+      <c r="G109" s="9">
+        <v>544328</v>
+      </c>
+      <c r="H109" s="9">
+        <v>565876</v>
+      </c>
+      <c r="I109" s="9">
         <v>649519</v>
       </c>
-      <c r="F109" s="9">
+      <c r="J109" s="9">
         <v>762613</v>
       </c>
-      <c r="G109" s="9">
+      <c r="K109" s="9">
         <v>869248</v>
       </c>
-      <c r="H109" s="9">
+      <c r="L109" s="9">
         <v>990534</v>
       </c>
-      <c r="I109" s="9">
+      <c r="M109" s="9">
         <v>967771</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N109" s="9">
+        <v>1036189</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
+        <v>385618</v>
+      </c>
+      <c r="F110" s="11">
+        <v>794170</v>
+      </c>
+      <c r="G110" s="11">
+        <v>961408</v>
+      </c>
+      <c r="H110" s="11">
+        <v>1008917</v>
+      </c>
+      <c r="I110" s="11">
         <v>955106</v>
       </c>
-      <c r="F110" s="11">
+      <c r="J110" s="11">
         <v>1004168</v>
       </c>
-      <c r="G110" s="11">
+      <c r="K110" s="11">
         <v>1187052</v>
       </c>
-      <c r="H110" s="11">
+      <c r="L110" s="11">
         <v>1304336</v>
       </c>
-      <c r="I110" s="11">
+      <c r="M110" s="11">
         <v>1266141</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N110" s="11">
+        <v>1189810</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
+        <v>215607</v>
+      </c>
+      <c r="F111" s="9">
+        <v>224667</v>
+      </c>
+      <c r="G111" s="9">
+        <v>595890</v>
+      </c>
+      <c r="H111" s="9">
+        <v>693037</v>
+      </c>
+      <c r="I111" s="9">
         <v>639439</v>
       </c>
-      <c r="F111" s="9">
+      <c r="J111" s="9">
         <v>545430</v>
       </c>
-      <c r="G111" s="9">
+      <c r="K111" s="9">
         <v>682288</v>
       </c>
-      <c r="H111" s="9">
+      <c r="L111" s="9">
         <v>770671</v>
       </c>
-      <c r="I111" s="9">
+      <c r="M111" s="9">
         <v>874720</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N111" s="9">
+        <v>740152</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
+        <v>173110</v>
+      </c>
+      <c r="F112" s="11">
+        <v>221007</v>
+      </c>
+      <c r="G112" s="11">
+        <v>319002</v>
+      </c>
+      <c r="H112" s="11">
+        <v>412865</v>
+      </c>
+      <c r="I112" s="11">
         <v>471891</v>
       </c>
-      <c r="F112" s="11">
+      <c r="J112" s="11">
         <v>497498</v>
       </c>
-      <c r="G112" s="11">
+      <c r="K112" s="11">
         <v>602235</v>
       </c>
-      <c r="H112" s="11">
+      <c r="L112" s="11">
         <v>738693</v>
       </c>
-      <c r="I112" s="11">
+      <c r="M112" s="11">
         <v>926971</v>
       </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N112" s="11">
+        <v>828200</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H113" s="9">
+        <v>0</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N113" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>1292471</v>
+      </c>
+      <c r="F114" s="13">
+        <v>2050102</v>
+      </c>
+      <c r="G114" s="13">
+        <v>2764025</v>
+      </c>
+      <c r="H114" s="13">
+        <v>3045910</v>
+      </c>
+      <c r="I114" s="13">
         <v>3128914</v>
       </c>
-      <c r="F114" s="13">
+      <c r="J114" s="13">
         <v>3257452</v>
       </c>
-      <c r="G114" s="13">
+      <c r="K114" s="13">
         <v>3873102</v>
       </c>
-      <c r="H114" s="13">
+      <c r="L114" s="13">
         <v>4428292</v>
       </c>
-      <c r="I114" s="13">
+      <c r="M114" s="13">
         <v>4691247</v>
       </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N114" s="13">
+        <v>4454848</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2906,8 +4271,13 @@
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2916,8 +4286,13 @@
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2926,10 +4301,15 @@
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-    </row>
-    <row r="118" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+    </row>
+    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B118" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2948,8 +4328,23 @@
       <c r="I118" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J118" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2958,198 +4353,323 @@
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H120" s="9">
+        <v>0</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M120" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N120" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
+        <v>271105</v>
+      </c>
+      <c r="F121" s="11">
+        <v>329416</v>
+      </c>
+      <c r="G121" s="11">
+        <v>471375</v>
+      </c>
+      <c r="H121" s="11">
+        <v>406900</v>
+      </c>
+      <c r="I121" s="11">
         <v>475934</v>
       </c>
-      <c r="F121" s="11">
+      <c r="J121" s="11">
         <v>531384</v>
       </c>
-      <c r="G121" s="11">
+      <c r="K121" s="11">
         <v>589728</v>
       </c>
-      <c r="H121" s="11">
+      <c r="L121" s="11">
         <v>550475</v>
       </c>
-      <c r="I121" s="11">
+      <c r="M121" s="11">
         <v>662177</v>
       </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N121" s="11">
+        <v>773644</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
+        <v>271048</v>
+      </c>
+      <c r="F122" s="9">
+        <v>547799</v>
+      </c>
+      <c r="G122" s="9">
+        <v>553102</v>
+      </c>
+      <c r="H122" s="9">
+        <v>370831</v>
+      </c>
+      <c r="I122" s="9">
         <v>393923</v>
       </c>
-      <c r="F122" s="9">
+      <c r="J122" s="9">
         <v>529319</v>
       </c>
-      <c r="G122" s="9">
+      <c r="K122" s="9">
         <v>546765</v>
       </c>
-      <c r="H122" s="9">
+      <c r="L122" s="9">
         <v>845974</v>
       </c>
-      <c r="I122" s="9">
+      <c r="M122" s="9">
         <v>660877</v>
       </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N122" s="9">
+        <v>657330</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
+        <v>230435</v>
+      </c>
+      <c r="F123" s="11">
+        <v>509601</v>
+      </c>
+      <c r="G123" s="11">
+        <v>571148</v>
+      </c>
+      <c r="H123" s="11">
+        <v>417627</v>
+      </c>
+      <c r="I123" s="11">
         <v>349148</v>
       </c>
-      <c r="F123" s="11">
+      <c r="J123" s="11">
         <v>437784</v>
       </c>
-      <c r="G123" s="11">
+      <c r="K123" s="11">
         <v>424887</v>
       </c>
-      <c r="H123" s="11">
+      <c r="L123" s="11">
         <v>444896</v>
       </c>
-      <c r="I123" s="11">
+      <c r="M123" s="11">
         <v>444472</v>
       </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N123" s="11">
+        <v>425777</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C124" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
+        <v>-67656</v>
+      </c>
+      <c r="F124" s="9">
+        <v>116175</v>
+      </c>
+      <c r="G124" s="9">
+        <v>367960</v>
+      </c>
+      <c r="H124" s="9">
+        <v>291728</v>
+      </c>
+      <c r="I124" s="9">
         <v>340802</v>
       </c>
-      <c r="F124" s="9">
+      <c r="J124" s="9">
         <v>287948</v>
       </c>
-      <c r="G124" s="9">
+      <c r="K124" s="9">
         <v>71989</v>
       </c>
-      <c r="H124" s="9">
+      <c r="L124" s="9">
         <v>65714</v>
       </c>
-      <c r="I124" s="9">
+      <c r="M124" s="9">
         <v>126113</v>
       </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N124" s="9">
+        <v>211425</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
+        <v>67145</v>
+      </c>
+      <c r="F125" s="11">
+        <v>64797</v>
+      </c>
+      <c r="G125" s="11">
+        <v>107378</v>
+      </c>
+      <c r="H125" s="11">
+        <v>267254</v>
+      </c>
+      <c r="I125" s="11">
         <v>266825</v>
       </c>
-      <c r="F125" s="11">
+      <c r="J125" s="11">
         <v>294759</v>
       </c>
-      <c r="G125" s="11">
+      <c r="K125" s="11">
         <v>307319</v>
       </c>
-      <c r="H125" s="11">
+      <c r="L125" s="11">
         <v>295676</v>
       </c>
-      <c r="I125" s="11">
+      <c r="M125" s="11">
         <v>527858</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N125" s="11">
+        <v>445991</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H126" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H126" s="9">
+        <v>0</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K126" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L126" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M126" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N126" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
+        <v>772077</v>
+      </c>
+      <c r="F127" s="13">
+        <v>1567788</v>
+      </c>
+      <c r="G127" s="13">
+        <v>2070963</v>
+      </c>
+      <c r="H127" s="13">
+        <v>1754340</v>
+      </c>
+      <c r="I127" s="13">
         <v>1826632</v>
       </c>
-      <c r="F127" s="13">
+      <c r="J127" s="13">
         <v>2081194</v>
       </c>
-      <c r="G127" s="13">
+      <c r="K127" s="13">
         <v>1940688</v>
       </c>
-      <c r="H127" s="13">
+      <c r="L127" s="13">
         <v>2202735</v>
       </c>
-      <c r="I127" s="13">
+      <c r="M127" s="13">
         <v>2421497</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N127" s="13">
+        <v>2514167</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3158,8 +4678,13 @@
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3168,8 +4693,13 @@
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3178,10 +4708,15 @@
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-    </row>
-    <row r="131" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+    </row>
+    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3200,8 +4735,23 @@
       <c r="I131" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L131" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3210,128 +4760,208 @@
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>169085</v>
+      </c>
+      <c r="F133" s="9">
+        <v>253752</v>
+      </c>
+      <c r="G133" s="9">
+        <v>433889</v>
+      </c>
+      <c r="H133" s="9">
+        <v>592570</v>
+      </c>
+      <c r="I133" s="9">
         <v>537470</v>
       </c>
-      <c r="F133" s="9">
+      <c r="J133" s="9">
         <v>594331</v>
       </c>
-      <c r="G133" s="9">
+      <c r="K133" s="9">
         <v>552288</v>
       </c>
-      <c r="H133" s="9">
+      <c r="L133" s="9">
         <v>596370</v>
       </c>
-      <c r="I133" s="9">
+      <c r="M133" s="9">
         <v>749877</v>
       </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N133" s="9">
+        <v>653815</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
+        <v>229887</v>
+      </c>
+      <c r="F134" s="11">
+        <v>330535</v>
+      </c>
+      <c r="G134" s="11">
+        <v>443093</v>
+      </c>
+      <c r="H134" s="11">
+        <v>473054</v>
+      </c>
+      <c r="I134" s="11">
         <v>523005</v>
       </c>
-      <c r="F134" s="11">
+      <c r="J134" s="11">
         <v>699648</v>
       </c>
-      <c r="G134" s="11">
+      <c r="K134" s="11">
         <v>663677</v>
       </c>
-      <c r="H134" s="11">
+      <c r="L134" s="11">
         <v>685796</v>
       </c>
-      <c r="I134" s="11">
+      <c r="M134" s="11">
         <v>658746</v>
       </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N134" s="11">
+        <v>804963</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
+        <v>145130</v>
+      </c>
+      <c r="F135" s="9">
+        <v>278517</v>
+      </c>
+      <c r="G135" s="9">
+        <v>536108</v>
+      </c>
+      <c r="H135" s="9">
+        <v>515702</v>
+      </c>
+      <c r="I135" s="9">
         <v>496445</v>
       </c>
-      <c r="F135" s="9">
+      <c r="J135" s="9">
         <v>704901</v>
       </c>
-      <c r="G135" s="9">
+      <c r="K135" s="9">
         <v>637290</v>
       </c>
-      <c r="H135" s="9">
+      <c r="L135" s="9">
         <v>549532</v>
       </c>
-      <c r="I135" s="9">
+      <c r="M135" s="9">
         <v>614952</v>
       </c>
-    </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N135" s="9">
+        <v>575417</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
+        <v>84022</v>
+      </c>
+      <c r="F136" s="11">
+        <v>-141303</v>
+      </c>
+      <c r="G136" s="11">
+        <v>391540</v>
+      </c>
+      <c r="H136" s="11">
+        <v>521321</v>
+      </c>
+      <c r="I136" s="11">
         <v>553195</v>
       </c>
-      <c r="F136" s="11">
+      <c r="J136" s="11">
         <v>500473</v>
       </c>
-      <c r="G136" s="11">
+      <c r="K136" s="11">
         <v>467237</v>
       </c>
-      <c r="H136" s="11">
+      <c r="L136" s="11">
         <v>508990</v>
       </c>
-      <c r="I136" s="11">
+      <c r="M136" s="11">
         <v>559959</v>
       </c>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N136" s="11">
+        <v>549608</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
+        <v>88581</v>
+      </c>
+      <c r="F137" s="9">
+        <v>89604</v>
+      </c>
+      <c r="G137" s="9">
+        <v>128212</v>
+      </c>
+      <c r="H137" s="9">
+        <v>186868</v>
+      </c>
+      <c r="I137" s="9">
         <v>235923</v>
       </c>
-      <c r="F137" s="9">
+      <c r="J137" s="9">
         <v>261783</v>
       </c>
-      <c r="G137" s="9">
+      <c r="K137" s="9">
         <v>273305</v>
       </c>
-      <c r="H137" s="9">
+      <c r="L137" s="9">
         <v>303184</v>
       </c>
-      <c r="I137" s="9">
+      <c r="M137" s="9">
         <v>398431</v>
       </c>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N137" s="9">
+        <v>453732</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3340,8 +4970,13 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3350,8 +4985,13 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3360,10 +5000,15 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3382,8 +5027,23 @@
       <c r="I141" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J141" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N141" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3392,128 +5052,208 @@
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>251416</v>
+      </c>
+      <c r="F143" s="9">
+        <v>399227</v>
+      </c>
+      <c r="G143" s="9">
+        <v>481420</v>
+      </c>
+      <c r="H143" s="9">
+        <v>351058</v>
+      </c>
+      <c r="I143" s="9">
         <v>447339</v>
       </c>
-      <c r="F143" s="9">
+      <c r="J143" s="9">
         <v>423236</v>
       </c>
-      <c r="G143" s="9">
+      <c r="K143" s="9">
         <v>514718</v>
       </c>
-      <c r="H143" s="9">
+      <c r="L143" s="9">
         <v>640297</v>
       </c>
-      <c r="I143" s="9">
+      <c r="M143" s="9">
         <v>569743</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N143" s="9">
+        <v>722831</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>398191</v>
+      </c>
+      <c r="F144" s="11">
+        <v>493896</v>
+      </c>
+      <c r="G144" s="11">
+        <v>509833</v>
+      </c>
+      <c r="H144" s="11">
+        <v>571232</v>
+      </c>
+      <c r="I144" s="11">
         <v>693825</v>
       </c>
-      <c r="F144" s="11">
+      <c r="J144" s="11">
         <v>616817</v>
       </c>
-      <c r="G144" s="11">
+      <c r="K144" s="11">
         <v>694337</v>
       </c>
-      <c r="H144" s="11">
+      <c r="L144" s="11">
         <v>676138</v>
       </c>
-      <c r="I144" s="11">
+      <c r="M144" s="11">
         <v>918235</v>
       </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N144" s="11">
+        <v>713932</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
+        <v>214925</v>
+      </c>
+      <c r="F145" s="9">
+        <v>435383</v>
+      </c>
+      <c r="G145" s="9">
+        <v>442019</v>
+      </c>
+      <c r="H145" s="9">
+        <v>433116</v>
+      </c>
+      <c r="I145" s="9">
         <v>464969</v>
       </c>
-      <c r="F145" s="9">
+      <c r="J145" s="9">
         <v>444641</v>
       </c>
-      <c r="G145" s="9">
+      <c r="K145" s="9">
         <v>459286</v>
       </c>
-      <c r="H145" s="9">
+      <c r="L145" s="9">
         <v>537629</v>
       </c>
-      <c r="I145" s="9">
+      <c r="M145" s="9">
         <v>524550</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N145" s="9">
+        <v>481154</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
+        <v>82100</v>
+      </c>
+      <c r="F146" s="11">
+        <v>367432</v>
+      </c>
+      <c r="G146" s="11">
+        <v>513759</v>
+      </c>
+      <c r="H146" s="11">
+        <v>543651</v>
+      </c>
+      <c r="I146" s="11">
         <v>475992</v>
       </c>
-      <c r="F146" s="11">
+      <c r="J146" s="11">
         <v>400546</v>
       </c>
-      <c r="G146" s="11">
+      <c r="K146" s="11">
         <v>477420</v>
       </c>
-      <c r="H146" s="11">
+      <c r="L146" s="11">
         <v>555936</v>
       </c>
-      <c r="I146" s="11">
+      <c r="M146" s="11">
         <v>615899</v>
       </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N146" s="11">
+        <v>531685</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>86906</v>
+      </c>
+      <c r="F147" s="9">
+        <v>127620</v>
+      </c>
+      <c r="G147" s="9">
+        <v>187239</v>
+      </c>
+      <c r="H147" s="9">
+        <v>235124</v>
+      </c>
+      <c r="I147" s="9">
         <v>257088</v>
       </c>
-      <c r="F147" s="9">
+      <c r="J147" s="9">
         <v>267620</v>
       </c>
-      <c r="G147" s="9">
+      <c r="K147" s="9">
         <v>296835</v>
       </c>
-      <c r="H147" s="9">
+      <c r="L147" s="9">
         <v>382614</v>
       </c>
-      <c r="I147" s="9">
+      <c r="M147" s="9">
         <v>458834</v>
       </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N147" s="9">
+        <v>386554</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3522,8 +5262,13 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3532,8 +5277,13 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3542,10 +5292,15 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3564,8 +5319,23 @@
       <c r="I151" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3574,128 +5344,208 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
+        <v>185080</v>
+      </c>
+      <c r="F153" s="9">
+        <v>239048</v>
+      </c>
+      <c r="G153" s="9">
+        <v>353811</v>
+      </c>
+      <c r="H153" s="9">
+        <v>408025</v>
+      </c>
+      <c r="I153" s="9">
         <v>399480</v>
       </c>
-      <c r="F153" s="9">
+      <c r="J153" s="9">
         <v>425184</v>
       </c>
-      <c r="G153" s="9">
+      <c r="K153" s="9">
         <v>474477</v>
       </c>
-      <c r="H153" s="9">
+      <c r="L153" s="9">
         <v>545213</v>
       </c>
-      <c r="I153" s="9">
+      <c r="M153" s="9">
         <v>613827</v>
       </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N153" s="9">
+        <v>599867</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
+        <v>291295</v>
+      </c>
+      <c r="F154" s="11">
+        <v>435636</v>
+      </c>
+      <c r="G154" s="11">
+        <v>475333</v>
+      </c>
+      <c r="H154" s="11">
+        <v>500016</v>
+      </c>
+      <c r="I154" s="11">
         <v>582302</v>
       </c>
-      <c r="F154" s="11">
+      <c r="J154" s="11">
         <v>619644</v>
       </c>
-      <c r="G154" s="11">
+      <c r="K154" s="11">
         <v>680064</v>
       </c>
-      <c r="H154" s="11">
+      <c r="L154" s="11">
         <v>702093</v>
       </c>
-      <c r="I154" s="11">
+      <c r="M154" s="11">
         <v>735621</v>
       </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N154" s="11">
+        <v>773077</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
+        <v>167591</v>
+      </c>
+      <c r="F155" s="9">
+        <v>339250</v>
+      </c>
+      <c r="G155" s="9">
+        <v>445613</v>
+      </c>
+      <c r="H155" s="9">
+        <v>450156</v>
+      </c>
+      <c r="I155" s="9">
         <v>423970</v>
       </c>
-      <c r="F155" s="9">
+      <c r="J155" s="9">
         <v>445179</v>
       </c>
-      <c r="G155" s="9">
+      <c r="K155" s="9">
         <v>479694</v>
       </c>
-      <c r="H155" s="9">
+      <c r="L155" s="9">
         <v>517311</v>
       </c>
-      <c r="I155" s="9">
+      <c r="M155" s="9">
         <v>535595</v>
       </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N155" s="9">
+        <v>502737</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
+        <v>164048</v>
+      </c>
+      <c r="F156" s="11">
+        <v>171255</v>
+      </c>
+      <c r="G156" s="11">
+        <v>478189</v>
+      </c>
+      <c r="H156" s="11">
+        <v>527815</v>
+      </c>
+      <c r="I156" s="11">
         <v>494588</v>
       </c>
-      <c r="F156" s="11">
+      <c r="J156" s="11">
         <v>417011</v>
       </c>
-      <c r="G156" s="11">
+      <c r="K156" s="11">
         <v>470811</v>
       </c>
-      <c r="H156" s="11">
+      <c r="L156" s="11">
         <v>548997</v>
       </c>
-      <c r="I156" s="11">
+      <c r="M156" s="11">
         <v>622047</v>
       </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N156" s="11">
+        <v>536851</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
+        <v>86532</v>
+      </c>
+      <c r="F157" s="9">
+        <v>112912</v>
+      </c>
+      <c r="G157" s="9">
+        <v>171332</v>
+      </c>
+      <c r="H157" s="9">
+        <v>219875</v>
+      </c>
+      <c r="I157" s="9">
         <v>242319</v>
       </c>
-      <c r="F157" s="9">
+      <c r="J157" s="9">
         <v>261276</v>
       </c>
-      <c r="G157" s="9">
+      <c r="K157" s="9">
         <v>281941</v>
       </c>
-      <c r="H157" s="9">
+      <c r="L157" s="9">
         <v>340136</v>
       </c>
-      <c r="I157" s="9">
+      <c r="M157" s="9">
         <v>440360</v>
       </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N157" s="9">
+        <v>420038</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3704,8 +5554,13 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+      <c r="N158" s="1"/>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3714,8 +5569,13 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3724,10 +5584,15 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -3746,8 +5611,23 @@
       <c r="I161" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J161" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K161" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L161" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M161" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3756,128 +5636,208 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D163" s="9"/>
-      <c r="E163" s="9">
+      <c r="E163" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H163" s="9">
+        <v>537470</v>
+      </c>
+      <c r="I163" s="9">
         <v>594331</v>
       </c>
-      <c r="F163" s="9">
+      <c r="J163" s="9">
         <v>567323</v>
       </c>
-      <c r="G163" s="9">
+      <c r="K163" s="9">
         <v>596370</v>
       </c>
-      <c r="H163" s="9">
+      <c r="L163" s="9">
         <v>749877</v>
       </c>
-      <c r="I163" s="9">
+      <c r="M163" s="9">
         <v>653815</v>
       </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N163" s="9">
+        <v>789682</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C164" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D164" s="11"/>
-      <c r="E164" s="11">
+      <c r="E164" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G164" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H164" s="11">
+        <v>523005</v>
+      </c>
+      <c r="I164" s="11">
         <v>699648</v>
       </c>
-      <c r="F164" s="11">
+      <c r="J164" s="11">
         <v>671571</v>
       </c>
-      <c r="G164" s="11">
+      <c r="K164" s="11">
         <v>685796</v>
       </c>
-      <c r="H164" s="11">
+      <c r="L164" s="11">
         <v>658746</v>
       </c>
-      <c r="I164" s="11">
+      <c r="M164" s="11">
         <v>804963</v>
       </c>
-    </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N164" s="11">
+        <v>709037</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="E165" s="9">
+      <c r="E165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H165" s="9">
+        <v>496445</v>
+      </c>
+      <c r="I165" s="9">
         <v>704901</v>
       </c>
-      <c r="F165" s="9">
+      <c r="J165" s="9">
         <v>627751</v>
       </c>
-      <c r="G165" s="9">
+      <c r="K165" s="9">
         <v>549532</v>
       </c>
-      <c r="H165" s="9">
+      <c r="L165" s="9">
         <v>614952</v>
       </c>
-      <c r="I165" s="9">
+      <c r="M165" s="9">
         <v>575417</v>
       </c>
-    </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N165" s="9">
+        <v>507034</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D166" s="11"/>
-      <c r="E166" s="11">
+      <c r="E166" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G166" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H166" s="11">
+        <v>553195</v>
+      </c>
+      <c r="I166" s="11">
         <v>500473</v>
       </c>
-      <c r="F166" s="11">
+      <c r="J166" s="11">
         <v>477708</v>
       </c>
-      <c r="G166" s="11">
+      <c r="K166" s="11">
         <v>508990</v>
       </c>
-      <c r="H166" s="11">
+      <c r="L166" s="11">
         <v>559959</v>
       </c>
-      <c r="I166" s="11">
+      <c r="M166" s="11">
         <v>549608</v>
       </c>
-    </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N166" s="11">
+        <v>524223</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D167" s="9"/>
-      <c r="E167" s="9">
+      <c r="E167" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G167" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H167" s="9">
+        <v>235923</v>
+      </c>
+      <c r="I167" s="9">
         <v>261783</v>
       </c>
-      <c r="F167" s="9">
+      <c r="J167" s="9">
         <v>273305</v>
       </c>
-      <c r="G167" s="9">
+      <c r="K167" s="9">
         <v>303184</v>
       </c>
-      <c r="H167" s="9">
+      <c r="L167" s="9">
         <v>398431</v>
       </c>
-      <c r="I167" s="9">
+      <c r="M167" s="9">
         <v>453732</v>
       </c>
-    </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N167" s="9">
+        <v>397362</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3886,8 +5846,13 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J168" s="1"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3896,8 +5861,13 @@
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-    </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J169" s="1"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3906,10 +5876,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-    </row>
-    <row r="171" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J170" s="1"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+    </row>
+    <row r="171" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B171" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -3928,8 +5903,23 @@
       <c r="I171" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L171" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M171" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N171" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3938,32 +5928,52 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
+        <v>0</v>
+      </c>
+      <c r="F173" s="9">
+        <v>6212</v>
+      </c>
+      <c r="G173" s="9">
+        <v>1865</v>
+      </c>
+      <c r="H173" s="9">
+        <v>2181</v>
+      </c>
+      <c r="I173" s="9">
         <v>3777</v>
       </c>
-      <c r="F173" s="9">
+      <c r="J173" s="9">
         <v>3378</v>
       </c>
-      <c r="G173" s="9">
+      <c r="K173" s="9">
         <v>3517</v>
       </c>
-      <c r="H173" s="9">
+      <c r="L173" s="9">
         <v>4366</v>
       </c>
-      <c r="I173" s="9">
+      <c r="M173" s="9">
         <v>4553</v>
       </c>
-    </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N173" s="9">
+        <v>5563</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B174" s="10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="11"/>
@@ -3982,10 +5992,25 @@
       <c r="I174" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="11">
+        <v>0</v>
+      </c>
+      <c r="K174" s="11">
+        <v>0</v>
+      </c>
+      <c r="L174" s="11">
+        <v>0</v>
+      </c>
+      <c r="M174" s="11">
+        <v>0</v>
+      </c>
+      <c r="N174" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
@@ -4004,10 +6029,25 @@
       <c r="I175" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="9">
+        <v>0</v>
+      </c>
+      <c r="K175" s="9">
+        <v>0</v>
+      </c>
+      <c r="L175" s="9">
+        <v>0</v>
+      </c>
+      <c r="M175" s="9">
+        <v>0</v>
+      </c>
+      <c r="N175" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="10" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -4026,98 +6066,173 @@
       <c r="I176" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J176" s="11">
+        <v>0</v>
+      </c>
+      <c r="K176" s="11">
+        <v>0</v>
+      </c>
+      <c r="L176" s="11">
+        <v>0</v>
+      </c>
+      <c r="M176" s="11">
+        <v>0</v>
+      </c>
+      <c r="N176" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
+        <v>11781</v>
+      </c>
+      <c r="F177" s="9">
+        <v>51572</v>
+      </c>
+      <c r="G177" s="9">
+        <v>37846</v>
+      </c>
+      <c r="H177" s="9">
+        <v>21531</v>
+      </c>
+      <c r="I177" s="9">
         <v>13697</v>
       </c>
-      <c r="F177" s="9">
+      <c r="J177" s="9">
         <v>37957</v>
       </c>
-      <c r="G177" s="9">
+      <c r="K177" s="9">
         <v>59978</v>
       </c>
-      <c r="H177" s="9">
+      <c r="L177" s="9">
         <v>56943</v>
       </c>
-      <c r="I177" s="9">
+      <c r="M177" s="9">
         <v>107940</v>
       </c>
-    </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N177" s="9">
+        <v>54149</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
+        <v>12756</v>
+      </c>
+      <c r="F178" s="11">
+        <v>9360</v>
+      </c>
+      <c r="G178" s="11">
+        <v>11931</v>
+      </c>
+      <c r="H178" s="11">
+        <v>10168</v>
+      </c>
+      <c r="I178" s="11">
         <v>21439</v>
       </c>
-      <c r="F178" s="11">
+      <c r="J178" s="11">
         <v>38583</v>
       </c>
-      <c r="G178" s="11">
+      <c r="K178" s="11">
         <v>38202</v>
       </c>
-      <c r="H178" s="11">
+      <c r="L178" s="11">
         <v>63065</v>
       </c>
-      <c r="I178" s="11">
+      <c r="M178" s="11">
         <v>8760</v>
       </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N178" s="11">
+        <v>72685</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
+        <v>24485</v>
+      </c>
+      <c r="F179" s="9">
+        <v>27901</v>
+      </c>
+      <c r="G179" s="9">
+        <v>35334</v>
+      </c>
+      <c r="H179" s="9">
+        <v>43453</v>
+      </c>
+      <c r="I179" s="9">
         <v>41772</v>
       </c>
-      <c r="F179" s="9">
+      <c r="J179" s="9">
         <v>46015</v>
       </c>
-      <c r="G179" s="9">
+      <c r="K179" s="9">
         <v>48092</v>
       </c>
-      <c r="H179" s="9">
+      <c r="L179" s="9">
         <v>50975</v>
       </c>
-      <c r="I179" s="9">
+      <c r="M179" s="9">
         <v>61824</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N179" s="9">
+        <v>66628</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
+        <v>123908</v>
+      </c>
+      <c r="F180" s="11">
+        <v>211040</v>
+      </c>
+      <c r="G180" s="11">
+        <v>138812</v>
+      </c>
+      <c r="H180" s="11">
+        <v>257735</v>
+      </c>
+      <c r="I180" s="11">
         <v>200081</v>
       </c>
-      <c r="F180" s="11">
+      <c r="J180" s="11">
         <v>339714</v>
       </c>
-      <c r="G180" s="11">
+      <c r="K180" s="11">
         <v>194845</v>
       </c>
-      <c r="H180" s="11">
+      <c r="L180" s="11">
         <v>413980</v>
       </c>
-      <c r="I180" s="11">
+      <c r="M180" s="11">
         <v>322499</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N180" s="11">
+        <v>340145</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
@@ -4136,52 +6251,97 @@
       <c r="I181" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J181" s="9">
+        <v>0</v>
+      </c>
+      <c r="K181" s="9">
+        <v>0</v>
+      </c>
+      <c r="L181" s="9">
+        <v>0</v>
+      </c>
+      <c r="M181" s="9">
+        <v>0</v>
+      </c>
+      <c r="N181" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
+        <v>53778</v>
+      </c>
+      <c r="F182" s="11">
+        <v>80748</v>
+      </c>
+      <c r="G182" s="11">
+        <v>75570</v>
+      </c>
+      <c r="H182" s="11">
+        <v>88417</v>
+      </c>
+      <c r="I182" s="11">
         <v>125254</v>
       </c>
-      <c r="F182" s="11">
+      <c r="J182" s="11">
         <v>113387</v>
       </c>
-      <c r="G182" s="11">
+      <c r="K182" s="11">
         <v>183465</v>
       </c>
-      <c r="H182" s="11">
+      <c r="L182" s="11">
         <v>226301</v>
       </c>
-      <c r="I182" s="11">
+      <c r="M182" s="11">
         <v>239143</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N182" s="11">
+        <v>357112</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15">
+        <v>226708</v>
+      </c>
+      <c r="F183" s="15">
+        <v>386833</v>
+      </c>
+      <c r="G183" s="15">
+        <v>301358</v>
+      </c>
+      <c r="H183" s="15">
+        <v>423485</v>
+      </c>
+      <c r="I183" s="15">
         <v>406020</v>
       </c>
-      <c r="F183" s="15">
+      <c r="J183" s="15">
         <v>579034</v>
       </c>
-      <c r="G183" s="15">
+      <c r="K183" s="15">
         <v>528099</v>
       </c>
-      <c r="H183" s="15">
+      <c r="L183" s="15">
         <v>815630</v>
       </c>
-      <c r="I183" s="15">
+      <c r="M183" s="15">
         <v>744719</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N183" s="15">
+        <v>896282</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4190,8 +6350,13 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4200,8 +6365,13 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4210,10 +6380,15 @@
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
-    </row>
-    <row r="187" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J186" s="1"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+    </row>
+    <row r="187" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B187" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4222,8 +6397,13 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4232,123 +6412,128 @@
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="10" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D191" s="9"/>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="10" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C193" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C195" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D197" s="9"/>
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C198" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D199" s="9"/>
       <c r="E199" s="9"/>

--- a/database/industries/lastic/pekavir/cost/quarterly.xlsx
+++ b/database/industries/lastic/pekavir/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EFE721-09B1-4AED-B827-A7E99D679018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95C94FF-D302-4F1C-9192-44FDBC9BF9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
     <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,25 +97,25 @@
     <t>موجودی کالای ساخته شده پایان دوره</t>
   </si>
   <si>
+    <t>بهای تمام شده کالای فروش رفته</t>
+  </si>
+  <si>
+    <t>بهای تمام شده خدمات ارایه شده</t>
+  </si>
+  <si>
+    <t>جمع بهای تمام شده</t>
+  </si>
+  <si>
+    <t>مقدار موجودی اول دوره</t>
+  </si>
+  <si>
+    <t>مواد اولیه وارداتی</t>
+  </si>
+  <si>
+    <t>میلیون ریال</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>بهای تمام شده کالای فروش رفته</t>
-  </si>
-  <si>
-    <t>بهای تمام شده خدمات ارایه شده</t>
-  </si>
-  <si>
-    <t>جمع بهای تمام شده</t>
-  </si>
-  <si>
-    <t>مقدار موجودی اول دوره</t>
-  </si>
-  <si>
-    <t>مواد اولیه وارداتی</t>
-  </si>
-  <si>
-    <t>میلیون ریال</t>
   </si>
   <si>
     <t>مواد شیمیائی و روغن و....</t>
@@ -725,12 +725,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -745,7 +745,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -762,7 +762,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -794,7 +794,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,7 +843,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -880,7 +880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -895,155 +895,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>1292471</v>
+        <v>2953727</v>
       </c>
       <c r="F10" s="9">
-        <v>2953727</v>
+        <v>2764025</v>
       </c>
       <c r="G10" s="9">
-        <v>2764025</v>
+        <v>3045910</v>
       </c>
       <c r="H10" s="9">
-        <v>3045910</v>
+        <v>3127914</v>
       </c>
       <c r="I10" s="9">
-        <v>3127914</v>
+        <v>3258452</v>
       </c>
       <c r="J10" s="9">
-        <v>3258452</v>
+        <v>3873102</v>
       </c>
       <c r="K10" s="9">
-        <v>3873102</v>
+        <v>4428292</v>
       </c>
       <c r="L10" s="9">
-        <v>4428292</v>
+        <v>4691247</v>
       </c>
       <c r="M10" s="9">
-        <v>4691247</v>
+        <v>4454848</v>
       </c>
       <c r="N10" s="9">
-        <v>4454848</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4768436</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>142527</v>
+        <v>236505</v>
       </c>
       <c r="F11" s="11">
-        <v>236505</v>
+        <v>141235</v>
       </c>
       <c r="G11" s="11">
-        <v>141235</v>
+        <v>278924</v>
       </c>
       <c r="H11" s="11">
-        <v>278924</v>
+        <v>188001</v>
       </c>
       <c r="I11" s="11">
-        <v>188001</v>
+        <v>265992</v>
       </c>
       <c r="J11" s="11">
-        <v>265992</v>
+        <v>215007</v>
       </c>
       <c r="K11" s="11">
-        <v>215007</v>
+        <v>485162</v>
       </c>
       <c r="L11" s="11">
-        <v>485162</v>
+        <v>346965</v>
       </c>
       <c r="M11" s="11">
-        <v>346965</v>
+        <v>394292</v>
       </c>
       <c r="N11" s="11">
-        <v>394292</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>491827</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>226708</v>
+        <v>386833</v>
       </c>
       <c r="F12" s="9">
-        <v>386833</v>
+        <v>301358</v>
       </c>
       <c r="G12" s="9">
-        <v>301358</v>
+        <v>423485</v>
       </c>
       <c r="H12" s="9">
-        <v>423485</v>
+        <v>406020</v>
       </c>
       <c r="I12" s="9">
-        <v>406020</v>
+        <v>579034</v>
       </c>
       <c r="J12" s="9">
-        <v>579034</v>
+        <v>528099</v>
       </c>
       <c r="K12" s="9">
-        <v>528099</v>
+        <v>815630</v>
       </c>
       <c r="L12" s="9">
-        <v>815630</v>
+        <v>744719</v>
       </c>
       <c r="M12" s="9">
-        <v>744719</v>
+        <v>896280</v>
       </c>
       <c r="N12" s="9">
-        <v>896282</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1201211</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1661706</v>
+        <v>3577065</v>
       </c>
       <c r="F13" s="13">
-        <v>3577065</v>
+        <v>3206618</v>
       </c>
       <c r="G13" s="13">
-        <v>3206618</v>
+        <v>3748319</v>
       </c>
       <c r="H13" s="13">
-        <v>3748319</v>
+        <v>3721935</v>
       </c>
       <c r="I13" s="13">
-        <v>3721935</v>
+        <v>4103478</v>
       </c>
       <c r="J13" s="13">
-        <v>4103478</v>
+        <v>4616208</v>
       </c>
       <c r="K13" s="13">
-        <v>4616208</v>
+        <v>5729084</v>
       </c>
       <c r="L13" s="13">
-        <v>5729084</v>
+        <v>5782931</v>
       </c>
       <c r="M13" s="13">
-        <v>5782931</v>
+        <v>5745420</v>
       </c>
       <c r="N13" s="13">
-        <v>5745422</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6461474</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
@@ -1080,81 +1080,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1661706</v>
+        <v>3577065</v>
       </c>
       <c r="F15" s="13">
-        <v>3577065</v>
+        <v>3206618</v>
       </c>
       <c r="G15" s="13">
-        <v>3206618</v>
+        <v>3748319</v>
       </c>
       <c r="H15" s="13">
-        <v>3748319</v>
+        <v>3721935</v>
       </c>
       <c r="I15" s="13">
-        <v>3721935</v>
+        <v>4103478</v>
       </c>
       <c r="J15" s="13">
-        <v>4103478</v>
+        <v>4616208</v>
       </c>
       <c r="K15" s="13">
-        <v>4616208</v>
+        <v>5729084</v>
       </c>
       <c r="L15" s="13">
-        <v>5729084</v>
+        <v>5782931</v>
       </c>
       <c r="M15" s="13">
-        <v>5782931</v>
+        <v>5745420</v>
       </c>
       <c r="N15" s="13">
-        <v>5745422</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6461474</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>136206</v>
+        <v>-162926</v>
       </c>
       <c r="F16" s="9">
-        <v>-162926</v>
+        <v>-173817</v>
       </c>
       <c r="G16" s="9">
-        <v>-173817</v>
+        <v>-39481</v>
       </c>
       <c r="H16" s="9">
-        <v>-39481</v>
+        <v>50034</v>
       </c>
       <c r="I16" s="9">
-        <v>50034</v>
+        <v>6391</v>
       </c>
       <c r="J16" s="9">
-        <v>6391</v>
+        <v>-217757</v>
       </c>
       <c r="K16" s="9">
-        <v>-217757</v>
+        <v>218295</v>
       </c>
       <c r="L16" s="9">
-        <v>218295</v>
+        <v>-52089</v>
       </c>
       <c r="M16" s="9">
-        <v>-52089</v>
+        <v>52304</v>
       </c>
       <c r="N16" s="9">
-        <v>52304</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-112559</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1191,157 +1191,157 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1797912</v>
+        <v>3414139</v>
       </c>
       <c r="F18" s="15">
-        <v>3414139</v>
+        <v>3032801</v>
       </c>
       <c r="G18" s="15">
-        <v>3032801</v>
+        <v>3708838</v>
       </c>
       <c r="H18" s="15">
-        <v>3708838</v>
+        <v>3771969</v>
       </c>
       <c r="I18" s="15">
-        <v>3771969</v>
+        <v>4109869</v>
       </c>
       <c r="J18" s="15">
-        <v>4109869</v>
+        <v>4398451</v>
       </c>
       <c r="K18" s="15">
-        <v>4398451</v>
+        <v>5947379</v>
       </c>
       <c r="L18" s="15">
-        <v>5947379</v>
+        <v>5730842</v>
       </c>
       <c r="M18" s="15">
-        <v>5730842</v>
+        <v>5797724</v>
       </c>
       <c r="N18" s="15">
-        <v>5797726</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6348915</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>155256</v>
       </c>
       <c r="F19" s="11">
-        <v>25774</v>
+        <v>70628</v>
       </c>
       <c r="G19" s="11">
-        <v>70628</v>
+        <v>7836</v>
       </c>
       <c r="H19" s="11">
-        <v>7836</v>
+        <v>241798</v>
       </c>
       <c r="I19" s="11">
-        <v>241798</v>
+        <v>382054</v>
       </c>
       <c r="J19" s="11">
-        <v>382054</v>
+        <v>75205</v>
       </c>
       <c r="K19" s="11">
-        <v>75205</v>
+        <v>483814</v>
       </c>
       <c r="L19" s="11">
-        <v>0</v>
+        <v>169327</v>
       </c>
       <c r="M19" s="11">
-        <v>314487</v>
+        <v>413055</v>
       </c>
       <c r="N19" s="11">
-        <v>413055</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>55347</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-25774</v>
+        <v>-79364</v>
       </c>
       <c r="F20" s="9">
-        <v>-79364</v>
+        <v>-392103</v>
       </c>
       <c r="G20" s="9">
-        <v>-392103</v>
+        <v>241798</v>
       </c>
       <c r="H20" s="9">
-        <v>241798</v>
+        <v>-382054</v>
       </c>
       <c r="I20" s="9">
-        <v>-382054</v>
-      </c>
-      <c r="J20" s="9" t="s">
+        <v>-75205</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-483814</v>
+      </c>
+      <c r="K20" s="9">
+        <v>-169327</v>
+      </c>
+      <c r="L20" s="9">
+        <v>-413055</v>
+      </c>
+      <c r="M20" s="9">
+        <v>-55347</v>
+      </c>
+      <c r="N20" s="9">
+        <v>-705655</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="K20" s="9">
-        <v>-483814</v>
-      </c>
-      <c r="L20" s="9">
-        <v>314487</v>
-      </c>
-      <c r="M20" s="9">
-        <v>-413055</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1772138</v>
+        <v>3490031</v>
       </c>
       <c r="F21" s="13">
-        <v>3490031</v>
+        <v>2711326</v>
       </c>
       <c r="G21" s="13">
-        <v>2711326</v>
+        <v>3958472</v>
       </c>
       <c r="H21" s="13">
-        <v>3958472</v>
+        <v>3540220</v>
       </c>
       <c r="I21" s="13">
-        <v>3540220</v>
+        <v>4415713</v>
       </c>
       <c r="J21" s="13">
-        <v>4415713</v>
+        <v>3989842</v>
       </c>
       <c r="K21" s="13">
-        <v>3989842</v>
+        <v>6261866</v>
       </c>
       <c r="L21" s="13">
-        <v>6261866</v>
+        <v>5487114</v>
       </c>
       <c r="M21" s="13">
-        <v>5487114</v>
+        <v>6155432</v>
       </c>
       <c r="N21" s="13">
-        <v>6154017</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5698607</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1376,44 +1376,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1772138</v>
+        <v>3490031</v>
       </c>
       <c r="F23" s="13">
-        <v>3490031</v>
+        <v>2711326</v>
       </c>
       <c r="G23" s="13">
-        <v>2711326</v>
+        <v>3958472</v>
       </c>
       <c r="H23" s="13">
-        <v>3958472</v>
+        <v>3540220</v>
       </c>
       <c r="I23" s="13">
-        <v>3540220</v>
+        <v>4415713</v>
       </c>
       <c r="J23" s="13">
-        <v>4415713</v>
+        <v>3989842</v>
       </c>
       <c r="K23" s="13">
-        <v>3989842</v>
+        <v>6261866</v>
       </c>
       <c r="L23" s="13">
-        <v>6261866</v>
+        <v>5487114</v>
       </c>
       <c r="M23" s="13">
-        <v>5487114</v>
+        <v>6155432</v>
       </c>
       <c r="N23" s="13">
-        <v>6154017</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5698607</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1428,7 +1428,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1443,7 +1443,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1458,9 +1458,9 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1495,7 +1495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1510,46 +1510,46 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1558,37 +1558,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>740597</v>
+        <v>1068384</v>
       </c>
       <c r="F30" s="11">
-        <v>1068384</v>
+        <v>745548</v>
       </c>
       <c r="G30" s="11">
-        <v>745548</v>
+        <v>795476</v>
       </c>
       <c r="H30" s="11">
-        <v>795476</v>
+        <v>757065</v>
       </c>
       <c r="I30" s="11">
-        <v>757065</v>
+        <v>800790</v>
       </c>
       <c r="J30" s="11">
-        <v>800790</v>
+        <v>947577</v>
       </c>
       <c r="K30" s="11">
-        <v>947577</v>
+        <v>988862</v>
       </c>
       <c r="L30" s="11">
-        <v>988862</v>
+        <v>734087</v>
       </c>
       <c r="M30" s="11">
-        <v>734087</v>
+        <v>1012790</v>
       </c>
       <c r="N30" s="11">
-        <v>1012790</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>979690</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1597,37 +1597,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>1073270</v>
+        <v>820029</v>
       </c>
       <c r="F31" s="9">
-        <v>820029</v>
+        <v>1236307</v>
       </c>
       <c r="G31" s="9">
-        <v>1236307</v>
+        <v>1169215</v>
       </c>
       <c r="H31" s="9">
-        <v>1169215</v>
+        <v>709039</v>
       </c>
       <c r="I31" s="9">
-        <v>709039</v>
+        <v>563030</v>
       </c>
       <c r="J31" s="9">
-        <v>563030</v>
+        <v>817132</v>
       </c>
       <c r="K31" s="9">
-        <v>817132</v>
+        <v>797271</v>
       </c>
       <c r="L31" s="9">
-        <v>797271</v>
+        <v>1284219</v>
       </c>
       <c r="M31" s="9">
-        <v>1284219</v>
+        <v>821003</v>
       </c>
       <c r="N31" s="9">
-        <v>821003</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>927074</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1636,37 +1636,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>806630</v>
+        <v>827365</v>
       </c>
       <c r="F32" s="11">
-        <v>827365</v>
+        <v>949730</v>
       </c>
       <c r="G32" s="11">
-        <v>949730</v>
+        <v>1107515</v>
       </c>
       <c r="H32" s="11">
-        <v>1107515</v>
+        <v>841235</v>
       </c>
       <c r="I32" s="11">
-        <v>841235</v>
+        <v>495315</v>
       </c>
       <c r="J32" s="11">
-        <v>495315</v>
+        <v>675695</v>
       </c>
       <c r="K32" s="11">
-        <v>675695</v>
+        <v>773180</v>
       </c>
       <c r="L32" s="11">
-        <v>773180</v>
+        <v>723465</v>
       </c>
       <c r="M32" s="11">
-        <v>723465</v>
+        <v>772435</v>
       </c>
       <c r="N32" s="11">
-        <v>772435</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>839740</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>36</v>
       </c>
@@ -1675,37 +1675,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>384411</v>
+        <v>478800</v>
       </c>
       <c r="F33" s="9">
-        <v>478800</v>
+        <v>319002</v>
       </c>
       <c r="G33" s="9">
-        <v>319002</v>
+        <v>705822</v>
       </c>
       <c r="H33" s="9">
-        <v>705822</v>
+        <v>527351</v>
       </c>
       <c r="I33" s="9">
-        <v>527351</v>
+        <v>680960</v>
       </c>
       <c r="J33" s="9">
-        <v>680960</v>
+        <v>501970</v>
       </c>
       <c r="K33" s="9">
-        <v>501970</v>
+        <v>141435</v>
       </c>
       <c r="L33" s="9">
-        <v>141435</v>
+        <v>117355</v>
       </c>
       <c r="M33" s="9">
-        <v>117355</v>
+        <v>229460</v>
       </c>
       <c r="N33" s="9">
-        <v>229460</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>403311</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>37</v>
       </c>
@@ -1714,113 +1714,113 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>759600</v>
+        <v>749354</v>
       </c>
       <c r="F34" s="11">
-        <v>749354</v>
+        <v>505380</v>
       </c>
       <c r="G34" s="11">
-        <v>505380</v>
+        <v>574620</v>
       </c>
       <c r="H34" s="11">
-        <v>574620</v>
+        <v>1132800</v>
       </c>
       <c r="I34" s="11">
-        <v>1132800</v>
+        <v>1019260</v>
       </c>
       <c r="J34" s="11">
-        <v>1019260</v>
+        <v>1078500</v>
       </c>
       <c r="K34" s="11">
-        <v>1078500</v>
+        <v>1013640</v>
       </c>
       <c r="L34" s="11">
-        <v>1013640</v>
+        <v>742100</v>
       </c>
       <c r="M34" s="11">
-        <v>742100</v>
+        <v>1163370</v>
       </c>
       <c r="N34" s="11">
-        <v>1163370</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1122380</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>3764508</v>
+        <v>3943932</v>
       </c>
       <c r="F36" s="13">
-        <v>3943932</v>
+        <v>3755967</v>
       </c>
       <c r="G36" s="13">
-        <v>3755967</v>
+        <v>4352648</v>
       </c>
       <c r="H36" s="13">
-        <v>4352648</v>
+        <v>3967490</v>
       </c>
       <c r="I36" s="13">
-        <v>3967490</v>
+        <v>3559355</v>
       </c>
       <c r="J36" s="13">
-        <v>3559355</v>
+        <v>4020874</v>
       </c>
       <c r="K36" s="13">
-        <v>4020874</v>
+        <v>3714388</v>
       </c>
       <c r="L36" s="13">
-        <v>3714388</v>
+        <v>3601226</v>
       </c>
       <c r="M36" s="13">
-        <v>3601226</v>
+        <v>3999058</v>
       </c>
       <c r="N36" s="13">
-        <v>3999058</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4272195</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1835,7 +1835,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1850,7 +1850,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1865,7 +1865,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>39</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1917,46 +1917,46 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>32</v>
       </c>
@@ -1965,37 +1965,37 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>1284585</v>
+        <v>842953</v>
       </c>
       <c r="F43" s="11">
-        <v>842953</v>
+        <v>1020495</v>
       </c>
       <c r="G43" s="11">
-        <v>1020495</v>
+        <v>856668</v>
       </c>
       <c r="H43" s="11">
-        <v>856668</v>
+        <v>1077466</v>
       </c>
       <c r="I43" s="11">
-        <v>1077466</v>
+        <v>1188919</v>
       </c>
       <c r="J43" s="11">
-        <v>1188919</v>
+        <v>1163107</v>
       </c>
       <c r="K43" s="11">
-        <v>1163107</v>
+        <v>900763</v>
       </c>
       <c r="L43" s="11">
-        <v>900763</v>
+        <v>1346828</v>
       </c>
       <c r="M43" s="11">
-        <v>1346828</v>
+        <v>1067973</v>
       </c>
       <c r="N43" s="11">
-        <v>1067973</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1236230</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>34</v>
       </c>
@@ -2004,37 +2004,37 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>917572</v>
+        <v>1637570</v>
       </c>
       <c r="F44" s="9">
-        <v>1637570</v>
+        <v>1078060</v>
       </c>
       <c r="G44" s="9">
-        <v>1078060</v>
+        <v>671540</v>
       </c>
       <c r="H44" s="9">
-        <v>671540</v>
+        <v>969424</v>
       </c>
       <c r="I44" s="9">
-        <v>969424</v>
+        <v>1455877</v>
       </c>
       <c r="J44" s="9">
-        <v>1455877</v>
+        <v>1258325</v>
       </c>
       <c r="K44" s="9">
-        <v>1258325</v>
+        <v>1926730</v>
       </c>
       <c r="L44" s="9">
-        <v>1926730</v>
+        <v>852368</v>
       </c>
       <c r="M44" s="9">
-        <v>852368</v>
+        <v>1446415</v>
       </c>
       <c r="N44" s="9">
-        <v>1446415</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1241232</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>35</v>
       </c>
@@ -2043,37 +2043,37 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>2321680</v>
+        <v>2465270</v>
       </c>
       <c r="F45" s="11">
-        <v>2465270</v>
+        <v>2315280</v>
       </c>
       <c r="G45" s="11">
-        <v>2315280</v>
+        <v>1974980</v>
       </c>
       <c r="H45" s="11">
-        <v>1974980</v>
+        <v>1906850</v>
       </c>
       <c r="I45" s="11">
-        <v>1906850</v>
+        <v>2457720</v>
       </c>
       <c r="J45" s="11">
-        <v>2457720</v>
+        <v>2572090</v>
       </c>
       <c r="K45" s="11">
-        <v>2572090</v>
+        <v>2449970</v>
       </c>
       <c r="L45" s="11">
-        <v>2449970</v>
+        <v>2412960</v>
       </c>
       <c r="M45" s="11">
-        <v>2412960</v>
+        <v>2433970</v>
       </c>
       <c r="N45" s="11">
-        <v>2433970</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2991920</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>36</v>
       </c>
@@ -2082,37 +2082,37 @@
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9">
-        <v>1408680</v>
+        <v>1111764</v>
       </c>
       <c r="F46" s="9">
-        <v>1111764</v>
+        <v>1632960</v>
       </c>
       <c r="G46" s="9">
-        <v>1632960</v>
+        <v>1134560</v>
       </c>
       <c r="H46" s="9">
-        <v>1134560</v>
+        <v>1446480</v>
       </c>
       <c r="I46" s="9">
-        <v>1446480</v>
+        <v>1229760</v>
       </c>
       <c r="J46" s="9">
-        <v>1229760</v>
+        <v>1088640</v>
       </c>
       <c r="K46" s="9">
-        <v>1088640</v>
+        <v>1278900</v>
       </c>
       <c r="L46" s="9">
-        <v>1278900</v>
+        <v>1518300</v>
       </c>
       <c r="M46" s="9">
-        <v>1518300</v>
+        <v>1552542</v>
       </c>
       <c r="N46" s="9">
-        <v>1552542</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1613023</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>37</v>
       </c>
@@ -2121,37 +2121,37 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>1990294</v>
+        <v>1713360</v>
       </c>
       <c r="F47" s="11">
-        <v>1713360</v>
+        <v>1931132</v>
       </c>
       <c r="G47" s="11">
-        <v>1931132</v>
+        <v>2435906</v>
       </c>
       <c r="H47" s="11">
-        <v>2435906</v>
+        <v>1833854</v>
       </c>
       <c r="I47" s="11">
-        <v>1833854</v>
+        <v>1963352</v>
       </c>
       <c r="J47" s="11">
-        <v>1963352</v>
+        <v>2071170</v>
       </c>
       <c r="K47" s="11">
-        <v>2071170</v>
+        <v>1900216</v>
       </c>
       <c r="L47" s="11">
-        <v>1900216</v>
+        <v>2526300</v>
       </c>
       <c r="M47" s="11">
-        <v>2526300</v>
+        <v>1930736</v>
       </c>
       <c r="N47" s="11">
-        <v>1930736</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2364420</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>38</v>
       </c>
@@ -2160,74 +2160,74 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13">
-        <v>7922811</v>
+        <v>7770917</v>
       </c>
       <c r="F49" s="13">
-        <v>7770917</v>
+        <v>7977927</v>
       </c>
       <c r="G49" s="13">
-        <v>7977927</v>
+        <v>7073654</v>
       </c>
       <c r="H49" s="13">
-        <v>7073654</v>
+        <v>7234074</v>
       </c>
       <c r="I49" s="13">
-        <v>7234074</v>
+        <v>8295628</v>
       </c>
       <c r="J49" s="13">
-        <v>8295628</v>
+        <v>8153332</v>
       </c>
       <c r="K49" s="13">
-        <v>8153332</v>
+        <v>8456579</v>
       </c>
       <c r="L49" s="13">
-        <v>8456579</v>
+        <v>8656756</v>
       </c>
       <c r="M49" s="13">
-        <v>8656756</v>
+        <v>8431636</v>
       </c>
       <c r="N49" s="13">
-        <v>8431636</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9446825</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2242,7 +2242,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2257,7 +2257,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2272,7 +2272,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>41</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2324,46 +2324,46 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>32</v>
       </c>
@@ -2372,37 +2372,37 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>956798</v>
+        <v>1163864</v>
       </c>
       <c r="F56" s="11">
-        <v>1163864</v>
+        <v>970567</v>
       </c>
       <c r="G56" s="11">
-        <v>970567</v>
+        <v>895079</v>
       </c>
       <c r="H56" s="11">
-        <v>895079</v>
+        <v>1033741</v>
       </c>
       <c r="I56" s="11">
-        <v>1033741</v>
+        <v>1053057</v>
       </c>
       <c r="J56" s="11">
-        <v>1053057</v>
+        <v>1121822</v>
       </c>
       <c r="K56" s="11">
-        <v>1121822</v>
+        <v>1144613</v>
       </c>
       <c r="L56" s="11">
-        <v>1144613</v>
+        <v>1068125</v>
       </c>
       <c r="M56" s="11">
-        <v>1068125</v>
+        <v>1101073</v>
       </c>
       <c r="N56" s="11">
-        <v>1101073</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1176454</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>34</v>
       </c>
@@ -2411,37 +2411,37 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>1170813</v>
+        <v>1221292</v>
       </c>
       <c r="F57" s="9">
-        <v>1221292</v>
+        <v>1145152</v>
       </c>
       <c r="G57" s="9">
-        <v>1145152</v>
+        <v>1131716</v>
       </c>
       <c r="H57" s="9">
-        <v>1131716</v>
+        <v>1115433</v>
       </c>
       <c r="I57" s="9">
-        <v>1115433</v>
+        <v>1230727</v>
       </c>
       <c r="J57" s="9">
-        <v>1230727</v>
+        <v>1278186</v>
       </c>
       <c r="K57" s="9">
-        <v>1278186</v>
+        <v>1410830</v>
       </c>
       <c r="L57" s="9">
-        <v>1410830</v>
+        <v>1315584</v>
       </c>
       <c r="M57" s="9">
-        <v>1315584</v>
+        <v>1340344</v>
       </c>
       <c r="N57" s="9">
-        <v>1340344</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1437850</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>35</v>
       </c>
@@ -2450,37 +2450,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>2300945</v>
+        <v>2340955</v>
       </c>
       <c r="F58" s="11">
-        <v>2340955</v>
+        <v>2157495</v>
       </c>
       <c r="G58" s="11">
-        <v>2157495</v>
+        <v>2241260</v>
       </c>
       <c r="H58" s="11">
-        <v>2241260</v>
+        <v>2252770</v>
       </c>
       <c r="I58" s="11">
-        <v>2252770</v>
+        <v>2255650</v>
       </c>
       <c r="J58" s="11">
-        <v>2255650</v>
+        <v>2474605</v>
       </c>
       <c r="K58" s="11">
-        <v>2474605</v>
+        <v>2521375</v>
       </c>
       <c r="L58" s="11">
-        <v>2521375</v>
+        <v>2363990</v>
       </c>
       <c r="M58" s="11">
-        <v>2363990</v>
+        <v>2366665</v>
       </c>
       <c r="N58" s="11">
-        <v>2366665</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2631030</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>36</v>
       </c>
@@ -2489,37 +2489,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>1314291</v>
+        <v>1311882</v>
       </c>
       <c r="F59" s="9">
-        <v>1311882</v>
+        <v>1246140</v>
       </c>
       <c r="G59" s="9">
-        <v>1246140</v>
+        <v>1313031</v>
       </c>
       <c r="H59" s="9">
-        <v>1313031</v>
+        <v>1292871</v>
       </c>
       <c r="I59" s="9">
-        <v>1292871</v>
+        <v>1307950</v>
       </c>
       <c r="J59" s="9">
-        <v>1307950</v>
+        <v>1449175</v>
       </c>
       <c r="K59" s="9">
-        <v>1449175</v>
+        <v>1403780</v>
       </c>
       <c r="L59" s="9">
-        <v>1403780</v>
+        <v>1406195</v>
       </c>
       <c r="M59" s="9">
-        <v>1406195</v>
+        <v>1378691</v>
       </c>
       <c r="N59" s="9">
-        <v>1378691</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1579003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>37</v>
       </c>
@@ -2528,37 +2528,37 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>2000540</v>
+        <v>1957334</v>
       </c>
       <c r="F60" s="11">
-        <v>1957334</v>
+        <v>1861892</v>
       </c>
       <c r="G60" s="11">
-        <v>1861892</v>
+        <v>1877726</v>
       </c>
       <c r="H60" s="11">
-        <v>1877726</v>
+        <v>1947394</v>
       </c>
       <c r="I60" s="11">
-        <v>1947394</v>
+        <v>1904112</v>
       </c>
       <c r="J60" s="11">
-        <v>1904112</v>
+        <v>2136030</v>
       </c>
       <c r="K60" s="11">
-        <v>2136030</v>
+        <v>2171756</v>
       </c>
       <c r="L60" s="11">
-        <v>2171756</v>
+        <v>2105030</v>
       </c>
       <c r="M60" s="11">
-        <v>2105030</v>
+        <v>1971726</v>
       </c>
       <c r="N60" s="11">
-        <v>1971726</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2279556</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>38</v>
       </c>
@@ -2567,74 +2567,74 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H61" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>7743387</v>
+        <v>7995327</v>
       </c>
       <c r="F62" s="13">
-        <v>7995327</v>
+        <v>7381246</v>
       </c>
       <c r="G62" s="13">
-        <v>7381246</v>
+        <v>7458812</v>
       </c>
       <c r="H62" s="13">
-        <v>7458812</v>
+        <v>7642209</v>
       </c>
       <c r="I62" s="13">
-        <v>7642209</v>
+        <v>7751496</v>
       </c>
       <c r="J62" s="13">
-        <v>7751496</v>
+        <v>8459818</v>
       </c>
       <c r="K62" s="13">
-        <v>8459818</v>
+        <v>8652354</v>
       </c>
       <c r="L62" s="13">
-        <v>8652354</v>
+        <v>8258924</v>
       </c>
       <c r="M62" s="13">
-        <v>8258924</v>
+        <v>8158499</v>
       </c>
       <c r="N62" s="13">
-        <v>8158499</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9103893</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2649,7 +2649,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2664,7 +2664,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2679,7 +2679,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B66" s="7" t="s">
         <v>42</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2731,46 +2731,46 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H68" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>32</v>
       </c>
@@ -2779,37 +2779,37 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>1068384</v>
+        <v>747473</v>
       </c>
       <c r="F69" s="11">
-        <v>747473</v>
+        <v>795476</v>
       </c>
       <c r="G69" s="11">
-        <v>795476</v>
+        <v>757065</v>
       </c>
       <c r="H69" s="11">
-        <v>757065</v>
+        <v>800790</v>
       </c>
       <c r="I69" s="11">
-        <v>800790</v>
+        <v>936652</v>
       </c>
       <c r="J69" s="11">
-        <v>936652</v>
+        <v>988862</v>
       </c>
       <c r="K69" s="11">
-        <v>988862</v>
+        <v>734087</v>
       </c>
       <c r="L69" s="11">
-        <v>734087</v>
+        <v>1012790</v>
       </c>
       <c r="M69" s="11">
-        <v>1012790</v>
+        <v>979690</v>
       </c>
       <c r="N69" s="11">
-        <v>979690</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1039466</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>34</v>
       </c>
@@ -2818,37 +2818,37 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9">
-        <v>820029</v>
+        <v>1236307</v>
       </c>
       <c r="F70" s="9">
-        <v>1236307</v>
+        <v>1169215</v>
       </c>
       <c r="G70" s="9">
-        <v>1169215</v>
+        <v>709039</v>
       </c>
       <c r="H70" s="9">
-        <v>709039</v>
+        <v>563030</v>
       </c>
       <c r="I70" s="9">
-        <v>563030</v>
+        <v>788180</v>
       </c>
       <c r="J70" s="9">
-        <v>788180</v>
+        <v>797271</v>
       </c>
       <c r="K70" s="9">
-        <v>797271</v>
+        <v>1284219</v>
       </c>
       <c r="L70" s="9">
-        <v>1284219</v>
+        <v>821003</v>
       </c>
       <c r="M70" s="9">
-        <v>821003</v>
+        <v>927074</v>
       </c>
       <c r="N70" s="9">
-        <v>927074</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>730456</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>35</v>
       </c>
@@ -2857,37 +2857,37 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11">
-        <v>827365</v>
+        <v>951680</v>
       </c>
       <c r="F71" s="11">
-        <v>951680</v>
+        <v>1107515</v>
       </c>
       <c r="G71" s="11">
-        <v>1107515</v>
+        <v>841235</v>
       </c>
       <c r="H71" s="11">
-        <v>841235</v>
+        <v>495315</v>
       </c>
       <c r="I71" s="11">
-        <v>495315</v>
+        <v>697385</v>
       </c>
       <c r="J71" s="11">
-        <v>697385</v>
+        <v>773180</v>
       </c>
       <c r="K71" s="11">
-        <v>773180</v>
+        <v>723465</v>
       </c>
       <c r="L71" s="11">
-        <v>723465</v>
+        <v>772435</v>
       </c>
       <c r="M71" s="11">
-        <v>772435</v>
+        <v>839740</v>
       </c>
       <c r="N71" s="11">
-        <v>839740</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1200630</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>36</v>
       </c>
@@ -2896,37 +2896,37 @@
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9">
-        <v>478800</v>
+        <v>278682</v>
       </c>
       <c r="F72" s="9">
-        <v>278682</v>
+        <v>705822</v>
       </c>
       <c r="G72" s="9">
-        <v>705822</v>
+        <v>527351</v>
       </c>
       <c r="H72" s="9">
-        <v>527351</v>
+        <v>680960</v>
       </c>
       <c r="I72" s="9">
-        <v>680960</v>
+        <v>602770</v>
       </c>
       <c r="J72" s="9">
-        <v>602770</v>
+        <v>141435</v>
       </c>
       <c r="K72" s="9">
-        <v>141435</v>
+        <v>117355</v>
       </c>
       <c r="L72" s="9">
-        <v>117355</v>
+        <v>229460</v>
       </c>
       <c r="M72" s="9">
-        <v>229460</v>
+        <v>403311</v>
       </c>
       <c r="N72" s="9">
-        <v>403311</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>437331</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>37</v>
       </c>
@@ -2935,113 +2935,113 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11">
-        <v>749354</v>
+        <v>505380</v>
       </c>
       <c r="F73" s="11">
-        <v>505380</v>
+        <v>574620</v>
       </c>
       <c r="G73" s="11">
-        <v>574620</v>
+        <v>1132800</v>
       </c>
       <c r="H73" s="11">
-        <v>1132800</v>
+        <v>1019260</v>
       </c>
       <c r="I73" s="11">
-        <v>1019260</v>
+        <v>1078500</v>
       </c>
       <c r="J73" s="11">
-        <v>1078500</v>
+        <v>1013640</v>
       </c>
       <c r="K73" s="11">
-        <v>1013640</v>
+        <v>742100</v>
       </c>
       <c r="L73" s="11">
-        <v>742100</v>
+        <v>1163370</v>
       </c>
       <c r="M73" s="11">
-        <v>1163370</v>
+        <v>1122380</v>
       </c>
       <c r="N73" s="11">
-        <v>1122380</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1207244</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>3943932</v>
+        <v>3719522</v>
       </c>
       <c r="F75" s="13">
-        <v>3719522</v>
+        <v>4352648</v>
       </c>
       <c r="G75" s="13">
-        <v>4352648</v>
+        <v>3967490</v>
       </c>
       <c r="H75" s="13">
-        <v>3967490</v>
+        <v>3559355</v>
       </c>
       <c r="I75" s="13">
-        <v>3559355</v>
+        <v>4103487</v>
       </c>
       <c r="J75" s="13">
-        <v>4103487</v>
+        <v>3714388</v>
       </c>
       <c r="K75" s="13">
-        <v>3714388</v>
+        <v>3601226</v>
       </c>
       <c r="L75" s="13">
-        <v>3601226</v>
+        <v>3999058</v>
       </c>
       <c r="M75" s="13">
-        <v>3999058</v>
+        <v>4272195</v>
       </c>
       <c r="N75" s="13">
-        <v>4272195</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4615127</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3056,7 +3056,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3071,7 +3071,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3086,7 +3086,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>43</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3138,317 +3138,317 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N81" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>125224</v>
+        <v>271105</v>
       </c>
       <c r="F82" s="11">
-        <v>271105</v>
+        <v>323485</v>
       </c>
       <c r="G82" s="11">
-        <v>323485</v>
+        <v>471375</v>
       </c>
       <c r="H82" s="11">
-        <v>471375</v>
+        <v>406900</v>
       </c>
       <c r="I82" s="11">
-        <v>406900</v>
+        <v>475934</v>
       </c>
       <c r="J82" s="11">
-        <v>475934</v>
+        <v>523335</v>
       </c>
       <c r="K82" s="11">
-        <v>523335</v>
+        <v>589728</v>
       </c>
       <c r="L82" s="11">
-        <v>589728</v>
+        <v>550475</v>
       </c>
       <c r="M82" s="11">
-        <v>550475</v>
+        <v>662177</v>
       </c>
       <c r="N82" s="11">
-        <v>662177</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>773644</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9">
-        <v>246731</v>
+        <v>271048</v>
       </c>
       <c r="F83" s="9">
-        <v>271048</v>
+        <v>547799</v>
       </c>
       <c r="G83" s="9">
-        <v>547799</v>
+        <v>553102</v>
       </c>
       <c r="H83" s="9">
-        <v>553102</v>
+        <v>370831</v>
       </c>
       <c r="I83" s="9">
-        <v>370831</v>
+        <v>393923</v>
       </c>
       <c r="J83" s="9">
-        <v>393923</v>
+        <v>542312</v>
       </c>
       <c r="K83" s="9">
-        <v>542312</v>
+        <v>546765</v>
       </c>
       <c r="L83" s="9">
-        <v>546765</v>
+        <v>845974</v>
       </c>
       <c r="M83" s="9">
-        <v>845974</v>
+        <v>660877</v>
       </c>
       <c r="N83" s="9">
-        <v>660877</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>657330</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>117066</v>
+        <v>230435</v>
       </c>
       <c r="F84" s="11">
-        <v>230435</v>
+        <v>509158</v>
       </c>
       <c r="G84" s="11">
-        <v>509158</v>
+        <v>571148</v>
       </c>
       <c r="H84" s="11">
-        <v>571148</v>
+        <v>417627</v>
       </c>
       <c r="I84" s="11">
-        <v>417627</v>
+        <v>349148</v>
       </c>
       <c r="J84" s="11">
-        <v>349148</v>
+        <v>430614</v>
       </c>
       <c r="K84" s="11">
-        <v>430614</v>
+        <v>424887</v>
       </c>
       <c r="L84" s="11">
-        <v>424887</v>
+        <v>444896</v>
       </c>
       <c r="M84" s="11">
-        <v>444896</v>
+        <v>444472</v>
       </c>
       <c r="N84" s="11">
-        <v>444472</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>425777</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>32299</v>
+        <v>-67656</v>
       </c>
       <c r="F85" s="9">
-        <v>-67656</v>
+        <v>124902</v>
       </c>
       <c r="G85" s="9">
-        <v>124902</v>
+        <v>367960</v>
       </c>
       <c r="H85" s="9">
-        <v>367960</v>
+        <v>291728</v>
       </c>
       <c r="I85" s="9">
-        <v>291728</v>
+        <v>340802</v>
       </c>
       <c r="J85" s="9">
-        <v>340802</v>
+        <v>234539</v>
       </c>
       <c r="K85" s="9">
-        <v>234539</v>
+        <v>71989</v>
       </c>
       <c r="L85" s="9">
-        <v>71989</v>
+        <v>65714</v>
       </c>
       <c r="M85" s="9">
-        <v>65714</v>
+        <v>126113</v>
       </c>
       <c r="N85" s="9">
-        <v>126113</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>211425</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>67286</v>
+        <v>67145</v>
       </c>
       <c r="F86" s="11">
-        <v>67145</v>
+        <v>64796</v>
       </c>
       <c r="G86" s="11">
-        <v>64796</v>
+        <v>107378</v>
       </c>
       <c r="H86" s="11">
-        <v>107378</v>
+        <v>267254</v>
       </c>
       <c r="I86" s="11">
-        <v>267254</v>
+        <v>266825</v>
       </c>
       <c r="J86" s="11">
-        <v>266825</v>
+        <v>294759</v>
       </c>
       <c r="K86" s="11">
-        <v>294759</v>
+        <v>307319</v>
       </c>
       <c r="L86" s="11">
-        <v>307319</v>
+        <v>295676</v>
       </c>
       <c r="M86" s="11">
-        <v>295676</v>
+        <v>527858</v>
       </c>
       <c r="N86" s="11">
-        <v>527858</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>445991</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>588606</v>
+        <v>772077</v>
       </c>
       <c r="F88" s="13">
-        <v>772077</v>
+        <v>1570140</v>
       </c>
       <c r="G88" s="13">
-        <v>1570140</v>
+        <v>2070963</v>
       </c>
       <c r="H88" s="13">
-        <v>2070963</v>
+        <v>1754340</v>
       </c>
       <c r="I88" s="13">
-        <v>1754340</v>
+        <v>1826632</v>
       </c>
       <c r="J88" s="13">
-        <v>1826632</v>
+        <v>2025559</v>
       </c>
       <c r="K88" s="13">
-        <v>2025559</v>
+        <v>1940688</v>
       </c>
       <c r="L88" s="13">
-        <v>1940688</v>
+        <v>2202735</v>
       </c>
       <c r="M88" s="13">
-        <v>2202735</v>
+        <v>2421497</v>
       </c>
       <c r="N88" s="13">
-        <v>2421497</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2514167</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3463,7 +3463,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3478,7 +3478,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3493,7 +3493,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
         <v>44</v>
       </c>
@@ -3530,7 +3530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3545,317 +3545,317 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H94" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G94" s="9">
+        <v>0</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>322965</v>
+        <v>336530</v>
       </c>
       <c r="F95" s="11">
-        <v>336530</v>
+        <v>491287</v>
       </c>
       <c r="G95" s="11">
-        <v>491287</v>
+        <v>300740</v>
       </c>
       <c r="H95" s="11">
-        <v>300740</v>
+        <v>481993</v>
       </c>
       <c r="I95" s="11">
-        <v>481993</v>
+        <v>503193</v>
       </c>
       <c r="J95" s="11">
-        <v>503193</v>
+        <v>598672</v>
       </c>
       <c r="K95" s="11">
-        <v>598672</v>
+        <v>576756</v>
       </c>
       <c r="L95" s="11">
-        <v>576756</v>
+        <v>767346</v>
       </c>
       <c r="M95" s="11">
-        <v>767346</v>
+        <v>771964</v>
       </c>
       <c r="N95" s="11">
-        <v>771964</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>776725</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9">
-        <v>365369</v>
+        <v>808790</v>
       </c>
       <c r="F96" s="9">
-        <v>808790</v>
+        <v>549631</v>
       </c>
       <c r="G96" s="9">
-        <v>549631</v>
+        <v>383605</v>
       </c>
       <c r="H96" s="9">
-        <v>383605</v>
+        <v>672611</v>
       </c>
       <c r="I96" s="9">
-        <v>672611</v>
+        <v>898009</v>
       </c>
       <c r="J96" s="9">
-        <v>898009</v>
+        <v>873701</v>
       </c>
       <c r="K96" s="9">
-        <v>873701</v>
+        <v>1302736</v>
       </c>
       <c r="L96" s="9">
-        <v>1302736</v>
+        <v>782674</v>
       </c>
       <c r="M96" s="9">
-        <v>782674</v>
+        <v>1032642</v>
       </c>
       <c r="N96" s="9">
-        <v>1032642</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>878250</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>498987</v>
+        <v>1073336</v>
       </c>
       <c r="F97" s="11">
-        <v>1073336</v>
+        <v>1023398</v>
       </c>
       <c r="G97" s="11">
-        <v>1023398</v>
+        <v>855396</v>
       </c>
       <c r="H97" s="11">
-        <v>855396</v>
+        <v>886627</v>
       </c>
       <c r="I97" s="11">
-        <v>886627</v>
+        <v>1092804</v>
       </c>
       <c r="J97" s="11">
-        <v>1092804</v>
+        <v>1181325</v>
       </c>
       <c r="K97" s="11">
-        <v>1181325</v>
+        <v>1317175</v>
       </c>
       <c r="L97" s="11">
-        <v>1317175</v>
+        <v>1265717</v>
       </c>
       <c r="M97" s="11">
-        <v>1265717</v>
+        <v>1171115</v>
       </c>
       <c r="N97" s="11">
-        <v>1171115</v>
-      </c>
-    </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1609092</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9">
-        <v>115652</v>
+        <v>408498</v>
       </c>
       <c r="F98" s="9">
-        <v>408498</v>
+        <v>838948</v>
       </c>
       <c r="G98" s="9">
-        <v>838948</v>
+        <v>616805</v>
       </c>
       <c r="H98" s="9">
-        <v>616805</v>
+        <v>688513</v>
       </c>
       <c r="I98" s="9">
-        <v>688513</v>
+        <v>492576</v>
       </c>
       <c r="J98" s="9">
-        <v>492576</v>
+        <v>519738</v>
       </c>
       <c r="K98" s="9">
-        <v>519738</v>
+        <v>710987</v>
       </c>
       <c r="L98" s="9">
-        <v>710987</v>
+        <v>935119</v>
       </c>
       <c r="M98" s="9">
-        <v>935119</v>
+        <v>825464</v>
       </c>
       <c r="N98" s="9">
-        <v>825464</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>930142</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" s="11"/>
       <c r="E99" s="11">
-        <v>172969</v>
+        <v>218659</v>
       </c>
       <c r="F99" s="11">
-        <v>218659</v>
+        <v>361584</v>
       </c>
       <c r="G99" s="11">
-        <v>361584</v>
+        <v>572741</v>
       </c>
       <c r="H99" s="11">
-        <v>572741</v>
+        <v>471462</v>
       </c>
       <c r="I99" s="11">
-        <v>471462</v>
+        <v>525432</v>
       </c>
       <c r="J99" s="11">
-        <v>525432</v>
+        <v>614795</v>
       </c>
       <c r="K99" s="11">
-        <v>614795</v>
+        <v>727050</v>
       </c>
       <c r="L99" s="11">
-        <v>727050</v>
+        <v>1159153</v>
       </c>
       <c r="M99" s="11">
-        <v>1159153</v>
+        <v>746333</v>
       </c>
       <c r="N99" s="11">
-        <v>746333</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>843111</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H100" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G100" s="9">
+        <v>0</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N100" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
       <c r="E101" s="13">
-        <v>1475942</v>
+        <v>2845813</v>
       </c>
       <c r="F101" s="13">
-        <v>2845813</v>
+        <v>3264848</v>
       </c>
       <c r="G101" s="13">
-        <v>3264848</v>
+        <v>2729287</v>
       </c>
       <c r="H101" s="13">
-        <v>2729287</v>
+        <v>3201206</v>
       </c>
       <c r="I101" s="13">
-        <v>3201206</v>
+        <v>3512014</v>
       </c>
       <c r="J101" s="13">
-        <v>3512014</v>
+        <v>3788231</v>
       </c>
       <c r="K101" s="13">
-        <v>3788231</v>
+        <v>4634704</v>
       </c>
       <c r="L101" s="13">
-        <v>4634704</v>
+        <v>4910009</v>
       </c>
       <c r="M101" s="13">
-        <v>4910009</v>
+        <v>4547518</v>
       </c>
       <c r="N101" s="13">
-        <v>4547518</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5037320</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3870,7 +3870,7 @@
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -3885,7 +3885,7 @@
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -3900,7 +3900,7 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
     </row>
-    <row r="105" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B105" s="7" t="s">
         <v>45</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -3952,317 +3952,317 @@
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G107" s="9">
+        <v>0</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N107" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>177084</v>
+        <v>278219</v>
       </c>
       <c r="F108" s="11">
-        <v>278219</v>
+        <v>343397</v>
       </c>
       <c r="G108" s="11">
-        <v>343397</v>
+        <v>365215</v>
       </c>
       <c r="H108" s="11">
-        <v>365215</v>
+        <v>412959</v>
       </c>
       <c r="I108" s="11">
-        <v>412959</v>
+        <v>447743</v>
       </c>
       <c r="J108" s="11">
-        <v>447743</v>
+        <v>532279</v>
       </c>
       <c r="K108" s="11">
-        <v>532279</v>
+        <v>624058</v>
       </c>
       <c r="L108" s="11">
-        <v>624058</v>
+        <v>655644</v>
       </c>
       <c r="M108" s="11">
-        <v>655644</v>
+        <v>660497</v>
       </c>
       <c r="N108" s="11">
-        <v>660497</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>712221</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>341052</v>
+        <v>532039</v>
       </c>
       <c r="F109" s="9">
-        <v>532039</v>
+        <v>544328</v>
       </c>
       <c r="G109" s="9">
-        <v>544328</v>
+        <v>565876</v>
       </c>
       <c r="H109" s="9">
-        <v>565876</v>
+        <v>649519</v>
       </c>
       <c r="I109" s="9">
-        <v>649519</v>
+        <v>762613</v>
       </c>
       <c r="J109" s="9">
-        <v>762613</v>
+        <v>869248</v>
       </c>
       <c r="K109" s="9">
-        <v>869248</v>
+        <v>990534</v>
       </c>
       <c r="L109" s="9">
-        <v>990534</v>
+        <v>967771</v>
       </c>
       <c r="M109" s="9">
-        <v>967771</v>
+        <v>1036189</v>
       </c>
       <c r="N109" s="9">
-        <v>1036189</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1093084</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>385618</v>
+        <v>794170</v>
       </c>
       <c r="F110" s="11">
-        <v>794170</v>
+        <v>961408</v>
       </c>
       <c r="G110" s="11">
-        <v>961408</v>
+        <v>1008917</v>
       </c>
       <c r="H110" s="11">
-        <v>1008917</v>
+        <v>955106</v>
       </c>
       <c r="I110" s="11">
-        <v>955106</v>
+        <v>1004168</v>
       </c>
       <c r="J110" s="11">
-        <v>1004168</v>
+        <v>1187052</v>
       </c>
       <c r="K110" s="11">
-        <v>1187052</v>
+        <v>1304336</v>
       </c>
       <c r="L110" s="11">
-        <v>1304336</v>
+        <v>1266141</v>
       </c>
       <c r="M110" s="11">
-        <v>1266141</v>
+        <v>1189810</v>
       </c>
       <c r="N110" s="11">
-        <v>1189810</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1267433</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9">
-        <v>215607</v>
+        <v>224667</v>
       </c>
       <c r="F111" s="9">
-        <v>224667</v>
+        <v>595890</v>
       </c>
       <c r="G111" s="9">
-        <v>595890</v>
+        <v>693037</v>
       </c>
       <c r="H111" s="9">
-        <v>693037</v>
+        <v>639439</v>
       </c>
       <c r="I111" s="9">
-        <v>639439</v>
+        <v>545430</v>
       </c>
       <c r="J111" s="9">
-        <v>545430</v>
+        <v>682288</v>
       </c>
       <c r="K111" s="9">
-        <v>682288</v>
+        <v>770671</v>
       </c>
       <c r="L111" s="9">
-        <v>770671</v>
+        <v>874720</v>
       </c>
       <c r="M111" s="9">
-        <v>874720</v>
+        <v>740152</v>
       </c>
       <c r="N111" s="9">
-        <v>740152</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>842830</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11">
-        <v>173110</v>
+        <v>221007</v>
       </c>
       <c r="F112" s="11">
-        <v>221007</v>
+        <v>319002</v>
       </c>
       <c r="G112" s="11">
-        <v>319002</v>
+        <v>412865</v>
       </c>
       <c r="H112" s="11">
-        <v>412865</v>
+        <v>471891</v>
       </c>
       <c r="I112" s="11">
-        <v>471891</v>
+        <v>497498</v>
       </c>
       <c r="J112" s="11">
-        <v>497498</v>
+        <v>602235</v>
       </c>
       <c r="K112" s="11">
-        <v>602235</v>
+        <v>738693</v>
       </c>
       <c r="L112" s="11">
-        <v>738693</v>
+        <v>926971</v>
       </c>
       <c r="M112" s="11">
-        <v>926971</v>
+        <v>828200</v>
       </c>
       <c r="N112" s="11">
-        <v>828200</v>
-      </c>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+        <v>852868</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N113" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>1292471</v>
+        <v>2050102</v>
       </c>
       <c r="F114" s="13">
-        <v>2050102</v>
+        <v>2764025</v>
       </c>
       <c r="G114" s="13">
-        <v>2764025</v>
+        <v>3045910</v>
       </c>
       <c r="H114" s="13">
-        <v>3045910</v>
+        <v>3128914</v>
       </c>
       <c r="I114" s="13">
-        <v>3128914</v>
+        <v>3257452</v>
       </c>
       <c r="J114" s="13">
-        <v>3257452</v>
+        <v>3873102</v>
       </c>
       <c r="K114" s="13">
-        <v>3873102</v>
+        <v>4428292</v>
       </c>
       <c r="L114" s="13">
-        <v>4428292</v>
+        <v>4691247</v>
       </c>
       <c r="M114" s="13">
-        <v>4691247</v>
+        <v>4454848</v>
       </c>
       <c r="N114" s="13">
-        <v>4454848</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4768436</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4277,7 +4277,7 @@
       <c r="M115" s="1"/>
       <c r="N115" s="1"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4292,7 +4292,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4307,7 +4307,7 @@
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
     </row>
-    <row r="118" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B118" s="7" t="s">
         <v>46</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4359,317 +4359,317 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H120" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G120" s="9">
+        <v>0</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N120" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>271105</v>
+        <v>329416</v>
       </c>
       <c r="F121" s="11">
-        <v>329416</v>
+        <v>471375</v>
       </c>
       <c r="G121" s="11">
-        <v>471375</v>
+        <v>406900</v>
       </c>
       <c r="H121" s="11">
-        <v>406900</v>
+        <v>475934</v>
       </c>
       <c r="I121" s="11">
-        <v>475934</v>
+        <v>531384</v>
       </c>
       <c r="J121" s="11">
-        <v>531384</v>
+        <v>589728</v>
       </c>
       <c r="K121" s="11">
-        <v>589728</v>
+        <v>550475</v>
       </c>
       <c r="L121" s="11">
-        <v>550475</v>
+        <v>662177</v>
       </c>
       <c r="M121" s="11">
-        <v>662177</v>
+        <v>773644</v>
       </c>
       <c r="N121" s="11">
-        <v>773644</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>838148</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9">
-        <v>271048</v>
+        <v>547799</v>
       </c>
       <c r="F122" s="9">
-        <v>547799</v>
+        <v>553102</v>
       </c>
       <c r="G122" s="9">
-        <v>553102</v>
+        <v>370831</v>
       </c>
       <c r="H122" s="9">
-        <v>370831</v>
+        <v>393923</v>
       </c>
       <c r="I122" s="9">
-        <v>393923</v>
+        <v>529319</v>
       </c>
       <c r="J122" s="9">
-        <v>529319</v>
+        <v>546765</v>
       </c>
       <c r="K122" s="9">
-        <v>546765</v>
+        <v>845974</v>
       </c>
       <c r="L122" s="9">
-        <v>845974</v>
+        <v>660877</v>
       </c>
       <c r="M122" s="9">
-        <v>660877</v>
+        <v>657330</v>
       </c>
       <c r="N122" s="9">
-        <v>657330</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>442496</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>230435</v>
+        <v>509601</v>
       </c>
       <c r="F123" s="11">
-        <v>509601</v>
+        <v>571148</v>
       </c>
       <c r="G123" s="11">
-        <v>571148</v>
+        <v>417627</v>
       </c>
       <c r="H123" s="11">
-        <v>417627</v>
+        <v>349148</v>
       </c>
       <c r="I123" s="11">
-        <v>349148</v>
+        <v>437784</v>
       </c>
       <c r="J123" s="11">
-        <v>437784</v>
+        <v>424887</v>
       </c>
       <c r="K123" s="11">
-        <v>424887</v>
+        <v>444896</v>
       </c>
       <c r="L123" s="11">
-        <v>444896</v>
+        <v>444472</v>
       </c>
       <c r="M123" s="11">
-        <v>444472</v>
+        <v>425777</v>
       </c>
       <c r="N123" s="11">
-        <v>425777</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>767436</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9">
-        <v>-67656</v>
+        <v>116175</v>
       </c>
       <c r="F124" s="9">
-        <v>116175</v>
+        <v>367960</v>
       </c>
       <c r="G124" s="9">
-        <v>367960</v>
+        <v>291728</v>
       </c>
       <c r="H124" s="9">
-        <v>291728</v>
+        <v>340802</v>
       </c>
       <c r="I124" s="9">
-        <v>340802</v>
+        <v>287948</v>
       </c>
       <c r="J124" s="9">
-        <v>287948</v>
+        <v>71989</v>
       </c>
       <c r="K124" s="9">
-        <v>71989</v>
+        <v>65714</v>
       </c>
       <c r="L124" s="9">
-        <v>65714</v>
+        <v>126113</v>
       </c>
       <c r="M124" s="9">
-        <v>126113</v>
+        <v>211425</v>
       </c>
       <c r="N124" s="9">
-        <v>211425</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>298737</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>67145</v>
+        <v>64797</v>
       </c>
       <c r="F125" s="11">
-        <v>64797</v>
+        <v>107378</v>
       </c>
       <c r="G125" s="11">
-        <v>107378</v>
+        <v>267254</v>
       </c>
       <c r="H125" s="11">
-        <v>267254</v>
+        <v>266825</v>
       </c>
       <c r="I125" s="11">
-        <v>266825</v>
+        <v>294759</v>
       </c>
       <c r="J125" s="11">
-        <v>294759</v>
+        <v>307319</v>
       </c>
       <c r="K125" s="11">
-        <v>307319</v>
+        <v>295676</v>
       </c>
       <c r="L125" s="11">
-        <v>295676</v>
+        <v>527858</v>
       </c>
       <c r="M125" s="11">
-        <v>527858</v>
+        <v>445991</v>
       </c>
       <c r="N125" s="11">
-        <v>445991</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>436234</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H126" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="G126" s="9">
+        <v>0</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="L126" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N126" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>772077</v>
+        <v>1567788</v>
       </c>
       <c r="F127" s="13">
-        <v>1567788</v>
+        <v>2070963</v>
       </c>
       <c r="G127" s="13">
-        <v>2070963</v>
+        <v>1754340</v>
       </c>
       <c r="H127" s="13">
-        <v>1754340</v>
+        <v>1826632</v>
       </c>
       <c r="I127" s="13">
-        <v>1826632</v>
+        <v>2081194</v>
       </c>
       <c r="J127" s="13">
-        <v>2081194</v>
+        <v>1940688</v>
       </c>
       <c r="K127" s="13">
-        <v>1940688</v>
+        <v>2202735</v>
       </c>
       <c r="L127" s="13">
-        <v>2202735</v>
+        <v>2421497</v>
       </c>
       <c r="M127" s="13">
-        <v>2421497</v>
+        <v>2514167</v>
       </c>
       <c r="N127" s="13">
-        <v>2514167</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2783051</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4684,7 +4684,7 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4699,7 +4699,7 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4714,7 +4714,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B131" s="7" t="s">
         <v>47</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4766,7 +4766,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>32</v>
       </c>
@@ -4775,37 +4775,37 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>169085</v>
+        <v>253752</v>
       </c>
       <c r="F133" s="9">
-        <v>253752</v>
+        <v>433889</v>
       </c>
       <c r="G133" s="9">
-        <v>433889</v>
+        <v>592570</v>
       </c>
       <c r="H133" s="9">
-        <v>592570</v>
+        <v>537470</v>
       </c>
       <c r="I133" s="9">
-        <v>537470</v>
+        <v>594331</v>
       </c>
       <c r="J133" s="9">
-        <v>594331</v>
+        <v>552288</v>
       </c>
       <c r="K133" s="9">
-        <v>552288</v>
+        <v>596370</v>
       </c>
       <c r="L133" s="9">
-        <v>596370</v>
+        <v>749877</v>
       </c>
       <c r="M133" s="9">
-        <v>749877</v>
+        <v>653815</v>
       </c>
       <c r="N133" s="9">
-        <v>653815</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>789682</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>34</v>
       </c>
@@ -4814,37 +4814,37 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11">
-        <v>229887</v>
+        <v>330535</v>
       </c>
       <c r="F134" s="11">
-        <v>330535</v>
+        <v>443093</v>
       </c>
       <c r="G134" s="11">
-        <v>443093</v>
+        <v>473054</v>
       </c>
       <c r="H134" s="11">
-        <v>473054</v>
+        <v>523005</v>
       </c>
       <c r="I134" s="11">
-        <v>523005</v>
+        <v>699648</v>
       </c>
       <c r="J134" s="11">
-        <v>699648</v>
+        <v>663677</v>
       </c>
       <c r="K134" s="11">
-        <v>663677</v>
+        <v>685796</v>
       </c>
       <c r="L134" s="11">
-        <v>685796</v>
+        <v>658746</v>
       </c>
       <c r="M134" s="11">
-        <v>658746</v>
+        <v>804963</v>
       </c>
       <c r="N134" s="11">
-        <v>804963</v>
-      </c>
-    </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+        <v>709037</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>35</v>
       </c>
@@ -4853,37 +4853,37 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>145130</v>
+        <v>278517</v>
       </c>
       <c r="F135" s="9">
-        <v>278517</v>
+        <v>536108</v>
       </c>
       <c r="G135" s="9">
-        <v>536108</v>
+        <v>515702</v>
       </c>
       <c r="H135" s="9">
-        <v>515702</v>
+        <v>496445</v>
       </c>
       <c r="I135" s="9">
-        <v>496445</v>
+        <v>704901</v>
       </c>
       <c r="J135" s="9">
-        <v>704901</v>
+        <v>637290</v>
       </c>
       <c r="K135" s="9">
-        <v>637290</v>
+        <v>549532</v>
       </c>
       <c r="L135" s="9">
-        <v>549532</v>
+        <v>614952</v>
       </c>
       <c r="M135" s="9">
-        <v>614952</v>
+        <v>575417</v>
       </c>
       <c r="N135" s="9">
-        <v>575417</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>507034</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>36</v>
       </c>
@@ -4892,37 +4892,37 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11">
-        <v>84022</v>
+        <v>-141303</v>
       </c>
       <c r="F136" s="11">
-        <v>-141303</v>
+        <v>391540</v>
       </c>
       <c r="G136" s="11">
-        <v>391540</v>
+        <v>521321</v>
       </c>
       <c r="H136" s="11">
-        <v>521321</v>
+        <v>553195</v>
       </c>
       <c r="I136" s="11">
-        <v>553195</v>
+        <v>500473</v>
       </c>
       <c r="J136" s="11">
-        <v>500473</v>
+        <v>467237</v>
       </c>
       <c r="K136" s="11">
-        <v>467237</v>
+        <v>508990</v>
       </c>
       <c r="L136" s="11">
-        <v>508990</v>
+        <v>559959</v>
       </c>
       <c r="M136" s="11">
-        <v>559959</v>
+        <v>549608</v>
       </c>
       <c r="N136" s="11">
-        <v>549608</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>524223</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>37</v>
       </c>
@@ -4931,37 +4931,37 @@
       </c>
       <c r="D137" s="9"/>
       <c r="E137" s="9">
-        <v>88581</v>
+        <v>89604</v>
       </c>
       <c r="F137" s="9">
-        <v>89604</v>
+        <v>128212</v>
       </c>
       <c r="G137" s="9">
-        <v>128212</v>
+        <v>186868</v>
       </c>
       <c r="H137" s="9">
-        <v>186868</v>
+        <v>235923</v>
       </c>
       <c r="I137" s="9">
-        <v>235923</v>
+        <v>261783</v>
       </c>
       <c r="J137" s="9">
-        <v>261783</v>
+        <v>273305</v>
       </c>
       <c r="K137" s="9">
-        <v>273305</v>
+        <v>303184</v>
       </c>
       <c r="L137" s="9">
-        <v>303184</v>
+        <v>398431</v>
       </c>
       <c r="M137" s="9">
-        <v>398431</v>
+        <v>453732</v>
       </c>
       <c r="N137" s="9">
-        <v>453732</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>397362</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4976,7 +4976,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4991,7 +4991,7 @@
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5006,7 +5006,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B141" s="7" t="s">
         <v>49</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5058,7 +5058,7 @@
       <c r="M142" s="1"/>
       <c r="N142" s="1"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>32</v>
       </c>
@@ -5067,37 +5067,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>251416</v>
+        <v>399227</v>
       </c>
       <c r="F143" s="9">
-        <v>399227</v>
+        <v>481420</v>
       </c>
       <c r="G143" s="9">
-        <v>481420</v>
+        <v>351058</v>
       </c>
       <c r="H143" s="9">
-        <v>351058</v>
+        <v>447339</v>
       </c>
       <c r="I143" s="9">
-        <v>447339</v>
+        <v>423236</v>
       </c>
       <c r="J143" s="9">
-        <v>423236</v>
+        <v>514718</v>
       </c>
       <c r="K143" s="9">
-        <v>514718</v>
+        <v>640297</v>
       </c>
       <c r="L143" s="9">
-        <v>640297</v>
+        <v>569743</v>
       </c>
       <c r="M143" s="9">
-        <v>569743</v>
+        <v>722831</v>
       </c>
       <c r="N143" s="9">
-        <v>722831</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>628301</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>34</v>
       </c>
@@ -5106,37 +5106,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>398191</v>
+        <v>493896</v>
       </c>
       <c r="F144" s="11">
-        <v>493896</v>
+        <v>509833</v>
       </c>
       <c r="G144" s="11">
-        <v>509833</v>
+        <v>571232</v>
       </c>
       <c r="H144" s="11">
-        <v>571232</v>
+        <v>693825</v>
       </c>
       <c r="I144" s="11">
-        <v>693825</v>
+        <v>616817</v>
       </c>
       <c r="J144" s="11">
-        <v>616817</v>
+        <v>694337</v>
       </c>
       <c r="K144" s="11">
-        <v>694337</v>
+        <v>676138</v>
       </c>
       <c r="L144" s="11">
-        <v>676138</v>
+        <v>918235</v>
       </c>
       <c r="M144" s="11">
-        <v>918235</v>
+        <v>713932</v>
       </c>
       <c r="N144" s="11">
-        <v>713932</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>707563</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>35</v>
       </c>
@@ -5145,37 +5145,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>214925</v>
+        <v>435383</v>
       </c>
       <c r="F145" s="9">
-        <v>435383</v>
+        <v>442019</v>
       </c>
       <c r="G145" s="9">
-        <v>442019</v>
+        <v>433116</v>
       </c>
       <c r="H145" s="9">
-        <v>433116</v>
+        <v>464969</v>
       </c>
       <c r="I145" s="9">
-        <v>464969</v>
+        <v>444641</v>
       </c>
       <c r="J145" s="9">
-        <v>444641</v>
+        <v>459286</v>
       </c>
       <c r="K145" s="9">
-        <v>459286</v>
+        <v>537629</v>
       </c>
       <c r="L145" s="9">
-        <v>537629</v>
+        <v>524550</v>
       </c>
       <c r="M145" s="9">
-        <v>524550</v>
+        <v>481154</v>
       </c>
       <c r="N145" s="9">
-        <v>481154</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>537813</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>36</v>
       </c>
@@ -5184,37 +5184,37 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>82100</v>
+        <v>367432</v>
       </c>
       <c r="F146" s="11">
-        <v>367432</v>
+        <v>513759</v>
       </c>
       <c r="G146" s="11">
-        <v>513759</v>
+        <v>543651</v>
       </c>
       <c r="H146" s="11">
-        <v>543651</v>
+        <v>475992</v>
       </c>
       <c r="I146" s="11">
-        <v>475992</v>
+        <v>400546</v>
       </c>
       <c r="J146" s="11">
-        <v>400546</v>
+        <v>477420</v>
       </c>
       <c r="K146" s="11">
-        <v>477420</v>
+        <v>555936</v>
       </c>
       <c r="L146" s="11">
-        <v>555936</v>
+        <v>615899</v>
       </c>
       <c r="M146" s="11">
-        <v>615899</v>
+        <v>531685</v>
       </c>
       <c r="N146" s="11">
-        <v>531685</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>576645</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>37</v>
       </c>
@@ -5223,37 +5223,37 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>86906</v>
+        <v>127620</v>
       </c>
       <c r="F147" s="9">
-        <v>127620</v>
+        <v>187239</v>
       </c>
       <c r="G147" s="9">
-        <v>187239</v>
+        <v>235124</v>
       </c>
       <c r="H147" s="9">
-        <v>235124</v>
+        <v>257088</v>
       </c>
       <c r="I147" s="9">
-        <v>257088</v>
+        <v>267620</v>
       </c>
       <c r="J147" s="9">
-        <v>267620</v>
+        <v>296835</v>
       </c>
       <c r="K147" s="9">
-        <v>296835</v>
+        <v>382614</v>
       </c>
       <c r="L147" s="9">
-        <v>382614</v>
+        <v>458834</v>
       </c>
       <c r="M147" s="9">
-        <v>458834</v>
+        <v>386554</v>
       </c>
       <c r="N147" s="9">
-        <v>386554</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>356583</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5268,7 +5268,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5283,7 +5283,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5298,7 +5298,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>50</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5350,7 +5350,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>32</v>
       </c>
@@ -5359,37 +5359,37 @@
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
-        <v>185080</v>
+        <v>239048</v>
       </c>
       <c r="F153" s="9">
-        <v>239048</v>
+        <v>353811</v>
       </c>
       <c r="G153" s="9">
-        <v>353811</v>
+        <v>408025</v>
       </c>
       <c r="H153" s="9">
-        <v>408025</v>
+        <v>399480</v>
       </c>
       <c r="I153" s="9">
-        <v>399480</v>
+        <v>425184</v>
       </c>
       <c r="J153" s="9">
-        <v>425184</v>
+        <v>474477</v>
       </c>
       <c r="K153" s="9">
-        <v>474477</v>
+        <v>545213</v>
       </c>
       <c r="L153" s="9">
-        <v>545213</v>
+        <v>613827</v>
       </c>
       <c r="M153" s="9">
-        <v>613827</v>
+        <v>599867</v>
       </c>
       <c r="N153" s="9">
-        <v>599867</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>605396</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>34</v>
       </c>
@@ -5398,37 +5398,37 @@
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
-        <v>291295</v>
+        <v>435636</v>
       </c>
       <c r="F154" s="11">
-        <v>435636</v>
+        <v>475333</v>
       </c>
       <c r="G154" s="11">
-        <v>475333</v>
+        <v>500016</v>
       </c>
       <c r="H154" s="11">
-        <v>500016</v>
+        <v>582302</v>
       </c>
       <c r="I154" s="11">
-        <v>582302</v>
+        <v>619644</v>
       </c>
       <c r="J154" s="11">
-        <v>619644</v>
+        <v>680064</v>
       </c>
       <c r="K154" s="11">
-        <v>680064</v>
+        <v>702093</v>
       </c>
       <c r="L154" s="11">
-        <v>702093</v>
+        <v>735621</v>
       </c>
       <c r="M154" s="11">
-        <v>735621</v>
+        <v>773077</v>
       </c>
       <c r="N154" s="11">
-        <v>773077</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>760221</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>35</v>
       </c>
@@ -5437,37 +5437,37 @@
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>167591</v>
+        <v>339250</v>
       </c>
       <c r="F155" s="9">
-        <v>339250</v>
+        <v>445613</v>
       </c>
       <c r="G155" s="9">
-        <v>445613</v>
+        <v>450156</v>
       </c>
       <c r="H155" s="9">
-        <v>450156</v>
+        <v>423970</v>
       </c>
       <c r="I155" s="9">
-        <v>423970</v>
+        <v>445179</v>
       </c>
       <c r="J155" s="9">
-        <v>445179</v>
+        <v>479694</v>
       </c>
       <c r="K155" s="9">
-        <v>479694</v>
+        <v>517311</v>
       </c>
       <c r="L155" s="9">
-        <v>517311</v>
+        <v>535595</v>
       </c>
       <c r="M155" s="9">
-        <v>535595</v>
+        <v>502737</v>
       </c>
       <c r="N155" s="9">
-        <v>502737</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>481725</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>36</v>
       </c>
@@ -5476,37 +5476,37 @@
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>164048</v>
+        <v>171255</v>
       </c>
       <c r="F156" s="11">
-        <v>171255</v>
+        <v>478189</v>
       </c>
       <c r="G156" s="11">
-        <v>478189</v>
+        <v>527815</v>
       </c>
       <c r="H156" s="11">
-        <v>527815</v>
+        <v>494588</v>
       </c>
       <c r="I156" s="11">
-        <v>494588</v>
+        <v>417011</v>
       </c>
       <c r="J156" s="11">
-        <v>417011</v>
+        <v>470811</v>
       </c>
       <c r="K156" s="11">
-        <v>470811</v>
+        <v>548997</v>
       </c>
       <c r="L156" s="11">
-        <v>548997</v>
+        <v>622047</v>
       </c>
       <c r="M156" s="11">
-        <v>622047</v>
+        <v>536851</v>
       </c>
       <c r="N156" s="11">
-        <v>536851</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>533774</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>37</v>
       </c>
@@ -5515,37 +5515,37 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>86532</v>
+        <v>112912</v>
       </c>
       <c r="F157" s="9">
-        <v>112912</v>
+        <v>171332</v>
       </c>
       <c r="G157" s="9">
-        <v>171332</v>
+        <v>219875</v>
       </c>
       <c r="H157" s="9">
-        <v>219875</v>
+        <v>242319</v>
       </c>
       <c r="I157" s="9">
-        <v>242319</v>
+        <v>261276</v>
       </c>
       <c r="J157" s="9">
-        <v>261276</v>
+        <v>281941</v>
       </c>
       <c r="K157" s="9">
-        <v>281941</v>
+        <v>340136</v>
       </c>
       <c r="L157" s="9">
-        <v>340136</v>
+        <v>440360</v>
       </c>
       <c r="M157" s="9">
-        <v>440360</v>
+        <v>420038</v>
       </c>
       <c r="N157" s="9">
-        <v>420038</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>374138</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5560,7 +5560,7 @@
       <c r="M158" s="1"/>
       <c r="N158" s="1"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5575,7 +5575,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5590,7 +5590,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B161" s="7" t="s">
         <v>51</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5642,7 +5642,7 @@
       <c r="M162" s="1"/>
       <c r="N162" s="1"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>32</v>
       </c>
@@ -5651,37 +5651,37 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G163" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G163" s="9">
+        <v>537470</v>
       </c>
       <c r="H163" s="9">
-        <v>537470</v>
+        <v>594331</v>
       </c>
       <c r="I163" s="9">
-        <v>594331</v>
+        <v>567323</v>
       </c>
       <c r="J163" s="9">
-        <v>567323</v>
+        <v>596370</v>
       </c>
       <c r="K163" s="9">
-        <v>596370</v>
+        <v>749877</v>
       </c>
       <c r="L163" s="9">
-        <v>749877</v>
+        <v>653815</v>
       </c>
       <c r="M163" s="9">
-        <v>653815</v>
+        <v>789682</v>
       </c>
       <c r="N163" s="9">
-        <v>789682</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>806326</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>34</v>
       </c>
@@ -5690,37 +5690,37 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G164" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G164" s="11">
+        <v>523005</v>
       </c>
       <c r="H164" s="11">
-        <v>523005</v>
+        <v>699648</v>
       </c>
       <c r="I164" s="11">
-        <v>699648</v>
+        <v>671571</v>
       </c>
       <c r="J164" s="11">
-        <v>671571</v>
+        <v>685796</v>
       </c>
       <c r="K164" s="11">
-        <v>685796</v>
+        <v>658746</v>
       </c>
       <c r="L164" s="11">
-        <v>658746</v>
+        <v>804963</v>
       </c>
       <c r="M164" s="11">
-        <v>804963</v>
+        <v>709037</v>
       </c>
       <c r="N164" s="11">
-        <v>709037</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>605781</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>35</v>
       </c>
@@ -5729,37 +5729,37 @@
       </c>
       <c r="D165" s="9"/>
       <c r="E165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G165" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G165" s="9">
+        <v>496445</v>
       </c>
       <c r="H165" s="9">
-        <v>496445</v>
+        <v>704901</v>
       </c>
       <c r="I165" s="9">
-        <v>704901</v>
+        <v>627751</v>
       </c>
       <c r="J165" s="9">
-        <v>627751</v>
+        <v>549532</v>
       </c>
       <c r="K165" s="9">
-        <v>549532</v>
+        <v>614952</v>
       </c>
       <c r="L165" s="9">
-        <v>614952</v>
+        <v>575417</v>
       </c>
       <c r="M165" s="9">
-        <v>575417</v>
+        <v>507034</v>
       </c>
       <c r="N165" s="9">
-        <v>507034</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>639194</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>36</v>
       </c>
@@ -5768,37 +5768,37 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G166" s="11">
+        <v>553195</v>
       </c>
       <c r="H166" s="11">
-        <v>553195</v>
+        <v>500473</v>
       </c>
       <c r="I166" s="11">
-        <v>500473</v>
+        <v>477708</v>
       </c>
       <c r="J166" s="11">
-        <v>477708</v>
+        <v>508990</v>
       </c>
       <c r="K166" s="11">
-        <v>508990</v>
+        <v>559959</v>
       </c>
       <c r="L166" s="11">
-        <v>559959</v>
+        <v>549608</v>
       </c>
       <c r="M166" s="11">
-        <v>549608</v>
+        <v>524223</v>
       </c>
       <c r="N166" s="11">
-        <v>524223</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>683091</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="8" t="s">
         <v>37</v>
       </c>
@@ -5807,37 +5807,37 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G167" s="9" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="G167" s="9">
+        <v>235923</v>
       </c>
       <c r="H167" s="9">
-        <v>235923</v>
+        <v>261783</v>
       </c>
       <c r="I167" s="9">
-        <v>261783</v>
+        <v>273305</v>
       </c>
       <c r="J167" s="9">
-        <v>273305</v>
+        <v>303184</v>
       </c>
       <c r="K167" s="9">
-        <v>303184</v>
+        <v>398431</v>
       </c>
       <c r="L167" s="9">
-        <v>398431</v>
+        <v>453732</v>
       </c>
       <c r="M167" s="9">
-        <v>453732</v>
+        <v>397362</v>
       </c>
       <c r="N167" s="9">
-        <v>397362</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>361347</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5852,7 +5852,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5867,7 +5867,7 @@
       <c r="M169" s="1"/>
       <c r="N169" s="1"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5882,7 +5882,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B171" s="7" t="s">
         <v>52</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5934,44 +5934,44 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="9">
-        <v>0</v>
+        <v>6212</v>
       </c>
       <c r="F173" s="9">
-        <v>6212</v>
+        <v>1865</v>
       </c>
       <c r="G173" s="9">
-        <v>1865</v>
+        <v>2181</v>
       </c>
       <c r="H173" s="9">
-        <v>2181</v>
+        <v>3777</v>
       </c>
       <c r="I173" s="9">
-        <v>3777</v>
+        <v>3378</v>
       </c>
       <c r="J173" s="9">
-        <v>3378</v>
+        <v>3517</v>
       </c>
       <c r="K173" s="9">
-        <v>3517</v>
+        <v>4366</v>
       </c>
       <c r="L173" s="9">
-        <v>4366</v>
+        <v>4553</v>
       </c>
       <c r="M173" s="9">
-        <v>4553</v>
+        <v>5563</v>
       </c>
       <c r="N173" s="9">
-        <v>5563</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>54</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>55</v>
       </c>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>56</v>
       </c>
@@ -6082,155 +6082,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
-        <v>11781</v>
+        <v>51572</v>
       </c>
       <c r="F177" s="9">
-        <v>51572</v>
+        <v>37846</v>
       </c>
       <c r="G177" s="9">
-        <v>37846</v>
+        <v>21531</v>
       </c>
       <c r="H177" s="9">
-        <v>21531</v>
+        <v>13697</v>
       </c>
       <c r="I177" s="9">
-        <v>13697</v>
+        <v>37957</v>
       </c>
       <c r="J177" s="9">
-        <v>37957</v>
+        <v>59978</v>
       </c>
       <c r="K177" s="9">
-        <v>59978</v>
+        <v>56943</v>
       </c>
       <c r="L177" s="9">
-        <v>56943</v>
+        <v>107940</v>
       </c>
       <c r="M177" s="9">
-        <v>107940</v>
+        <v>54149</v>
       </c>
       <c r="N177" s="9">
-        <v>54149</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71435</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11">
-        <v>12756</v>
+        <v>9360</v>
       </c>
       <c r="F178" s="11">
-        <v>9360</v>
+        <v>11931</v>
       </c>
       <c r="G178" s="11">
-        <v>11931</v>
+        <v>10168</v>
       </c>
       <c r="H178" s="11">
-        <v>10168</v>
+        <v>21439</v>
       </c>
       <c r="I178" s="11">
-        <v>21439</v>
+        <v>38583</v>
       </c>
       <c r="J178" s="11">
-        <v>38583</v>
+        <v>38202</v>
       </c>
       <c r="K178" s="11">
-        <v>38202</v>
+        <v>63065</v>
       </c>
       <c r="L178" s="11">
-        <v>63065</v>
+        <v>8760</v>
       </c>
       <c r="M178" s="11">
-        <v>8760</v>
+        <v>72685</v>
       </c>
       <c r="N178" s="11">
-        <v>72685</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46258</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
-        <v>24485</v>
+        <v>27901</v>
       </c>
       <c r="F179" s="9">
-        <v>27901</v>
+        <v>35334</v>
       </c>
       <c r="G179" s="9">
-        <v>35334</v>
+        <v>43453</v>
       </c>
       <c r="H179" s="9">
-        <v>43453</v>
+        <v>41772</v>
       </c>
       <c r="I179" s="9">
-        <v>41772</v>
+        <v>46015</v>
       </c>
       <c r="J179" s="9">
-        <v>46015</v>
+        <v>48092</v>
       </c>
       <c r="K179" s="9">
-        <v>48092</v>
+        <v>50975</v>
       </c>
       <c r="L179" s="9">
-        <v>50975</v>
+        <v>61824</v>
       </c>
       <c r="M179" s="9">
-        <v>61824</v>
+        <v>66626</v>
       </c>
       <c r="N179" s="9">
-        <v>66628</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>157717</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>123908</v>
+        <v>211040</v>
       </c>
       <c r="F180" s="11">
-        <v>211040</v>
+        <v>138812</v>
       </c>
       <c r="G180" s="11">
-        <v>138812</v>
+        <v>257735</v>
       </c>
       <c r="H180" s="11">
-        <v>257735</v>
+        <v>200081</v>
       </c>
       <c r="I180" s="11">
-        <v>200081</v>
+        <v>339714</v>
       </c>
       <c r="J180" s="11">
-        <v>339714</v>
+        <v>194845</v>
       </c>
       <c r="K180" s="11">
-        <v>194845</v>
+        <v>413980</v>
       </c>
       <c r="L180" s="11">
-        <v>413980</v>
+        <v>322499</v>
       </c>
       <c r="M180" s="11">
-        <v>322499</v>
+        <v>340145</v>
       </c>
       <c r="N180" s="11">
-        <v>340145</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>590060</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>61</v>
       </c>
@@ -6267,81 +6267,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11">
-        <v>53778</v>
+        <v>80748</v>
       </c>
       <c r="F182" s="11">
-        <v>80748</v>
+        <v>75570</v>
       </c>
       <c r="G182" s="11">
-        <v>75570</v>
+        <v>88417</v>
       </c>
       <c r="H182" s="11">
-        <v>88417</v>
+        <v>125254</v>
       </c>
       <c r="I182" s="11">
-        <v>125254</v>
+        <v>113387</v>
       </c>
       <c r="J182" s="11">
-        <v>113387</v>
+        <v>183465</v>
       </c>
       <c r="K182" s="11">
-        <v>183465</v>
+        <v>226301</v>
       </c>
       <c r="L182" s="11">
-        <v>226301</v>
+        <v>239143</v>
       </c>
       <c r="M182" s="11">
-        <v>239143</v>
+        <v>357112</v>
       </c>
       <c r="N182" s="11">
-        <v>357112</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>331020</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15">
-        <v>226708</v>
+        <v>386833</v>
       </c>
       <c r="F183" s="15">
-        <v>386833</v>
+        <v>301358</v>
       </c>
       <c r="G183" s="15">
-        <v>301358</v>
+        <v>423485</v>
       </c>
       <c r="H183" s="15">
-        <v>423485</v>
+        <v>406020</v>
       </c>
       <c r="I183" s="15">
-        <v>406020</v>
+        <v>579034</v>
       </c>
       <c r="J183" s="15">
-        <v>579034</v>
+        <v>528099</v>
       </c>
       <c r="K183" s="15">
-        <v>528099</v>
+        <v>815630</v>
       </c>
       <c r="L183" s="15">
-        <v>815630</v>
+        <v>744719</v>
       </c>
       <c r="M183" s="15">
-        <v>744719</v>
+        <v>896280</v>
       </c>
       <c r="N183" s="15">
-        <v>896282</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1201211</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6356,7 +6356,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -6371,7 +6371,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6386,7 +6386,7 @@
       <c r="M186" s="1"/>
       <c r="N186" s="1"/>
     </row>
-    <row r="187" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B187" s="7" t="s">
         <v>63</v>
       </c>
@@ -6403,7 +6403,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6418,7 +6418,7 @@
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="8" t="s">
         <v>64</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="10" t="s">
         <v>66</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="8" t="s">
         <v>68</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="10" t="s">
         <v>70</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="8" t="s">
         <v>71</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="10" t="s">
         <v>73</v>
       </c>
@@ -6484,7 +6484,7 @@
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="8" t="s">
         <v>75</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="E195" s="9"/>
       <c r="F195" s="9"/>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="10" t="s">
         <v>77</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="8" t="s">
         <v>78</v>
       </c>
@@ -6517,7 +6517,7 @@
       <c r="E197" s="9"/>
       <c r="F197" s="9"/>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="10" t="s">
         <v>79</v>
       </c>
@@ -6528,7 +6528,7 @@
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="8" t="s">
         <v>81</v>
       </c>
